--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1307.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1307.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06886615192319477</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06355802365987898</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.01268516043718911</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009216227987846293</v>
+        <v>0.008622888820994023</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0001566809914793563</v>
+        <v>0.001964354883427132</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007733203074697749</v>
+        <v>0.0007751586231528313</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001708208924105496</v>
+        <v>0.006002044488128522</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007362976785222201</v>
+        <v>0.0007675533574394767</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00532251831685579</v>
+        <v>0.01075774414512198</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007334055521990816</v>
+        <v>0.0007685710415716193</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01001026091886981</v>
+        <v>0.001964354883427132</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007579404629351625</v>
+        <v>0.0007751586231528313</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002587277431554777</v>
+        <v>0.004171235212118221</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00154664061493955</v>
+        <v>0.001550317246305663</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003314948913862609</v>
+        <v>0.01209052936467883</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00147259535704444</v>
+        <v>0.001535106714878953</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01068867293681053</v>
+        <v>0.02036057048398426</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001466811104398163</v>
+        <v>0.001537142083143239</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0186749007258793</v>
+        <v>0.004171235212118221</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001515880925870325</v>
+        <v>0.001550317246305663</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004159788176037238</v>
+        <v>0.005983763370536535</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002319960922409325</v>
+        <v>0.002325475869458494</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01708799423142068</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002379166666666665</v>
+        <v>0.00230266007231843</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01599999999999999</v>
+        <v>0.02889115822928717</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002371754932502594</v>
+        <v>0.002305713124714858</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02800000000000002</v>
+        <v>0.005983763370536535</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002490342679127728</v>
+        <v>0.002325475869458494</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.007365061743145385</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003072075995948764</v>
+        <v>0.003100634492611325</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005691587499524357</v>
+        <v>0.01999999999999999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00294519071408888</v>
+        <v>0.002910295616717633</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01812460199778501</v>
+        <v>0.03513218659373091</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002933622208796326</v>
+        <v>0.003074284166286477</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03146147671719118</v>
+        <v>0.007365061743145385</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00303176185174065</v>
+        <v>0.003100634492611325</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003072075995948764</v>
+        <v>0.004758333333333331</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007625760257656572</v>
+        <v>0.008778252714408026</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003866601537348874</v>
+        <v>0.003875793115764156</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006885156837881441</v>
+        <v>0.02347784708695444</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.0036814883926111</v>
+        <v>0.003837766787197384</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02131759513283266</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003667027760995408</v>
+        <v>0.003965277777777776</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03550793225009313</v>
+        <v>0.008778252714408026</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003789702314675812</v>
+        <v>0.003875793115764156</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007667241423501406</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004639921844818649</v>
+        <v>0.004758333333333331</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007907606496062786</v>
+        <v>0.02566624292606992</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004417786071133321</v>
+        <v>0.00460532014463686</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02365578842305768</v>
+        <v>0.04091244252927601</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00440043331319449</v>
+        <v>0.004611426249429716</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04023769390009585</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004547642777610974</v>
+        <v>0.004758333333333331</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009625892027603521</v>
+        <v>0.01053207934711969</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005413242152288424</v>
+        <v>0.005426110362069819</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008963019867892767</v>
+        <v>0.02764407695683069</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005154083749655541</v>
+        <v>0.005372873502076336</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02622574972436989</v>
+        <v>0.04257869223169491</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005133838865393571</v>
+        <v>0.005379997291001335</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04325716357698084</v>
+        <v>0.01053207934711969</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005305583240546137</v>
+        <v>0.005426110362069819</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01051431899316637</v>
+        <v>0.01124898147413907</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006186562459758199</v>
+        <v>0.00620126898522265</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009755480347195783</v>
+        <v>0.02885253405379923</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005890381428177761</v>
+        <v>0.005997814527712011</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02885253405379923</v>
+        <v>0.04501990767040936</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006109923210472985</v>
+        <v>0.006375587122967198</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04501990767040936</v>
+        <v>0.01124898147413907</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005720152932755618</v>
+        <v>0.00620126898522265</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01134512924339344</v>
+        <v>0.01176865885724383</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006959882767227974</v>
+        <v>0.006976427608375481</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01058907132779623</v>
+        <v>0.02976066909155847</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006626679106699981</v>
+        <v>0.006907980216955291</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02949380742794844</v>
+        <v>0.04592297367831977</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006600649969791735</v>
+        <v>0.006917139374144574</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04849520122536521</v>
+        <v>0.01176865885724383</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006821464166416462</v>
+        <v>0.006976427608375481</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01013092970148818</v>
+        <v>0.01222076814187401</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007733203074697749</v>
+        <v>0.007751586231528313</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01136787620351846</v>
+        <v>0.03104331589472531</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007362976785222201</v>
+        <v>0.007675533574394768</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03103526449421293</v>
+        <v>0.04631227294844298</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007334055521990816</v>
+        <v>0.007685710415716193</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05041375665878978</v>
+        <v>0.01222076814187401</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007579404629351623</v>
+        <v>0.007751586231528313</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01288432729065409</v>
+        <v>0.01268516043718911</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008506523382167524</v>
+        <v>0.008622888820994023</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0119959783681869</v>
+        <v>0.03200700163733006</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008099274463744421</v>
+        <v>0.008443086931834244</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03255611696559654</v>
+        <v>0.04760919396495428</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008067461074189897</v>
+        <v>0.008454281457287813</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05339213005013427</v>
+        <v>0.01268516043718911</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008337345092286787</v>
+        <v>0.008622888820994023</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.01293995955803355</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009216227987846293</v>
+        <v>0.009301903477833974</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01268516043718911</v>
+        <v>0.03295155071886274</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008622888820994023</v>
+        <v>0.00921064028927372</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0343530799211032</v>
+        <v>0.04981221179517775</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00880086662638898</v>
+        <v>0.009222852498859431</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05492517620012782</v>
+        <v>0.01293995955803355</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009095285555221948</v>
+        <v>0.009301903477833974</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01236095869180903</v>
+        <v>0.01344622327430979</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01005316399710707</v>
+        <v>0.01007706210098681</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01346029501924252</v>
+        <v>0.03387678753881321</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009571869820788861</v>
+        <v>0.009978193646713197</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0358228684397367</v>
+        <v>0.05101980150643753</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009534272178588061</v>
+        <v>0.00999142354043105</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05740774990949959</v>
+        <v>0.01344622327430979</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009853226018157113</v>
+        <v>0.01007706210098681</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01312452363886432</v>
+        <v>0.01375333601197404</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01082648430457685</v>
+        <v>0.01085222072413964</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01414867551503825</v>
+        <v>0.03498253649667138</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01030816749931108</v>
+        <v>0.01074574700415267</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0372621976005009</v>
+        <v>0.05153043816605779</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01026767773078714</v>
+        <v>0.01075999458200267</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05963470597897896</v>
+        <v>0.01375333601197404</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01061116648109227</v>
+        <v>0.01085222072413964</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01390313518464513</v>
+        <v>0.01426081842816775</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01159980461204662</v>
+        <v>0.01162737934729247</v>
       </c>
       <c r="J80" t="n">
-        <v>0.014941396449818</v>
+        <v>0.03606862199192726</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0110444651778333</v>
+        <v>0.01151330036159215</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03846778248239971</v>
+        <v>0.0528425968413625</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01100108328298622</v>
+        <v>0.01152856562357429</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06230089920929482</v>
+        <v>0.01426081842816775</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01136910694402744</v>
+        <v>0.01162737934729247</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01469118819128885</v>
+        <v>0.01466819118003226</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0123731249195164</v>
+        <v>0.0124025379704453</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01543494150684795</v>
+        <v>0.03693486842407068</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01178076285635552</v>
+        <v>0.01228085371903163</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0396363381644369</v>
+        <v>0.05475475259967594</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01173448883518531</v>
+        <v>0.01229713666514591</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06430118440117649</v>
+        <v>0.01466819118003226</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0121270474069626</v>
+        <v>0.0124025379704453</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01748307752093291</v>
+        <v>0.01487497492470903</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01314644522698617</v>
+        <v>0.01317769659359813</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01622579436939434</v>
+        <v>0.03778110019259162</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01251706053487774</v>
+        <v>0.01304840707647111</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04096457972561643</v>
+        <v>0.05586538050832218</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01246789438738439</v>
+        <v>0.01306570770671753</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06653041635535312</v>
+        <v>0.01487497492470903</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01288498786989776</v>
+        <v>0.01317769659359813</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01627319803571468</v>
+        <v>0.01528069031933947</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01391976553445595</v>
+        <v>0.01395285521675096</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01701043872072332</v>
+        <v>0.03880714169697994</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01325335821339996</v>
+        <v>0.01381596043391058</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04224922224494213</v>
+        <v>0.05757295563462528</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01320129993958347</v>
+        <v>0.01383427874828915</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06778344987255391</v>
+        <v>0.01528069031933947</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01364292833283292</v>
+        <v>0.01395285521675096</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01705594459777163</v>
+        <v>0.015784858021065</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01469308584192572</v>
+        <v>0.01472801383990379</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0175853582441011</v>
+        <v>0.04011281733672561</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01398965589192218</v>
+        <v>0.01458351379135006</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0439869808014178</v>
+        <v>0.05847595304590941</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01393470549178255</v>
+        <v>0.01460284978986077</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06995513975350803</v>
+        <v>0.015784858021065</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01440086879576809</v>
+        <v>0.01472801383990379</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01982571206924112</v>
+        <v>0.01618699868702698</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0154664061493955</v>
+        <v>0.01550317246305663</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01824703662279388</v>
+        <v>0.04099795151131858</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0147259535704444</v>
+        <v>0.01535106714878954</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0447745704740474</v>
+        <v>0.05937284780949864</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01466811104398163</v>
+        <v>0.01537142083143239</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07144034079894473</v>
+        <v>0.01618699868702698</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01515880925870325</v>
+        <v>0.01550317246305663</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0185768953122606</v>
+        <v>0.01668663297436689</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01623972645686527</v>
+        <v>0.01627833108620946</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01879195754006786</v>
+        <v>0.04176236862024874</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01546225124896662</v>
+        <v>0.01611862050622901</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04600870634183471</v>
+        <v>0.06156211499271719</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01540151659618071</v>
+        <v>0.01613999187300401</v>
       </c>
       <c r="N86" t="n">
-        <v>0.073133907809593</v>
+        <v>0.01668663297436689</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01591674972163841</v>
+        <v>0.01627833108620946</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01930388918896745</v>
+        <v>0.0169832815402261</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01701304676433505</v>
+        <v>0.01705348970936229</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01941660467918926</v>
+        <v>0.042605893063006</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01619854892748884</v>
+        <v>0.01688617386366849</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04698610348378354</v>
+        <v>0.06214222966288907</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01613492214837979</v>
+        <v>0.01690856291457563</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07503069558618214</v>
+        <v>0.0169832815402261</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01667469018457357</v>
+        <v>0.01705348970936229</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02200108856149909</v>
+        <v>0.01737646504174604</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01778636707180482</v>
+        <v>0.01782864833251512</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02021746172342424</v>
+        <v>0.04322834923908023</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01693484660601106</v>
+        <v>0.01765372722110796</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04800347697889792</v>
+        <v>0.06321166688733842</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01686832770057888</v>
+        <v>0.01767713395614724</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07602555892944141</v>
+        <v>0.01737646504174604</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01743263064750874</v>
+        <v>0.01782864833251512</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02166288829199291</v>
+        <v>0.01766570413606811</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0185596873792746</v>
+        <v>0.01860380695566795</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02069101235603904</v>
+        <v>0.04412956154796147</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01767114428453329</v>
+        <v>0.01842128057854744</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04885754190618155</v>
+        <v>0.06496890173338932</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01760173325277796</v>
+        <v>0.01844570499771886</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07821335264009976</v>
+        <v>0.01766570413606811</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0181905711104439</v>
+        <v>0.01860380695566795</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02228368324258636</v>
+        <v>0.01805051948033372</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01933300768674437</v>
+        <v>0.01937896557882078</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0212337402602998</v>
+        <v>0.0451093543891396</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0184074419630555</v>
+        <v>0.01918883393598692</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04974501334463838</v>
+        <v>0.06591240926836606</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01833513880497704</v>
+        <v>0.01921427603929048</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07868893151888662</v>
+        <v>0.01805051948033372</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01894851157337906</v>
+        <v>0.01937896557882078</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02385786827541684</v>
+        <v>0.0185304317316843</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02010632799421415</v>
+        <v>0.02015412420197361</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02164212911947276</v>
+        <v>0.04566755216210452</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01914373964157772</v>
+        <v>0.01995638729342639</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05066260637327216</v>
+        <v>0.06704066455959251</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01906854435717612</v>
+        <v>0.0199828470808621</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0803471503665309</v>
+        <v>0.0185304317316843</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01970645203631423</v>
+        <v>0.02015412420197361</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02337983825262175</v>
+        <v>0.01880496154726126</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02087964830168392</v>
+        <v>0.02092928282512644</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02211266261682411</v>
+        <v>0.04640397926634615</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01988003732009994</v>
+        <v>0.02072394065086587</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05150703607108692</v>
+        <v>0.06895214267439298</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0198019499093752</v>
+        <v>0.02075141812243372</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08128286398376205</v>
+        <v>0.01880496154726126</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02046439249924939</v>
+        <v>0.02092928282512644</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02484398803633848</v>
+        <v>0.01937362958420598</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0216529686091537</v>
+        <v>0.02170444144827928</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02264182443562006</v>
+        <v>0.04731846010135443</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02061633499862216</v>
+        <v>0.02149149400830535</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05217501751708639</v>
+        <v>0.06944531868009146</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02053535546157428</v>
+        <v>0.02151998916400534</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08249092717130913</v>
+        <v>0.01937362958420598</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02122233296218455</v>
+        <v>0.02170444144827928</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02324471248870447</v>
+        <v>0.01963595649965991</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02242628891662347</v>
+        <v>0.02247960007143211</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02312609825912677</v>
+        <v>0.04771081906661931</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02135263267714439</v>
+        <v>0.02225904736574483</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05286326579027442</v>
+        <v>0.07091866764401217</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02126876101377337</v>
+        <v>0.02228856020557696</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08306619472990123</v>
+        <v>0.01963595649965991</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02198027342511971</v>
+        <v>0.02247960007143211</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02357640647185714</v>
+        <v>0.01999146295076445</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02319960922409325</v>
+        <v>0.02325475869458494</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02326196777061047</v>
+        <v>0.04858088056163065</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0220889303556666</v>
+        <v>0.0230266007231843</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05316849596965495</v>
+        <v>0.07257066463347916</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02200216656597245</v>
+        <v>0.02305713124714858</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08360352146026762</v>
+        <v>0.01999146295076445</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02273821388805487</v>
+        <v>0.02325475869458494</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02483346484793387</v>
+        <v>0.02043966959466101</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02397292953156302</v>
+        <v>0.02402991731773777</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02374591665333736</v>
+        <v>0.04912846898587839</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02282522803418882</v>
+        <v>0.02379415408062378</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05368742313423178</v>
+        <v>0.07279978471581655</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02273557211817153</v>
+        <v>0.0238257022887202</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08459776216313747</v>
+        <v>0.02043966959466101</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02349615435099003</v>
+        <v>0.02402991731773777</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02501028247907209</v>
+        <v>0.02078009708849099</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0247462498390328</v>
+        <v>0.0248050759408906</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02397442859057362</v>
+        <v>0.04975340873885251</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02356152571271104</v>
+        <v>0.02456170743806325</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05381676236300878</v>
+        <v>0.07400450295834843</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02346897767037061</v>
+        <v>0.02459427333029182</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08424377163923996</v>
+        <v>0.02078009708849099</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0242540948139252</v>
+        <v>0.0248050759408906</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0261012542274092</v>
+        <v>0.0210122660893958</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02551957014650257</v>
+        <v>0.02558023456404343</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02394398726558543</v>
+        <v>0.0502555242200429</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02429782339123326</v>
+        <v>0.02532926079550273</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05415322873498982</v>
+        <v>0.07508329442839901</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02420238322256969</v>
+        <v>0.02536284437186343</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08423640468930427</v>
+        <v>0.0210122660893958</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02501203527686036</v>
+        <v>0.02558023456404343</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02410717416121822</v>
+        <v>0.02133569725451691</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02629289045397235</v>
+        <v>0.02635539318719626</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02415107636163903</v>
+        <v>0.0511346398289394</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02503412106975549</v>
+        <v>0.02609681415294221</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05449353732917878</v>
+        <v>0.07673463419329241</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02493578877476877</v>
+        <v>0.02613141541343506</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08467019008278298</v>
+        <v>0.02133569725451691</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02576997573979552</v>
+        <v>0.02635539318719626</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02406402970813688</v>
+        <v>0.02174991124099565</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02706621076144212</v>
+        <v>0.02713055181034909</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02429217956200061</v>
+        <v>0.05119057996503207</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0257704187482777</v>
+        <v>0.02686436751038169</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05433401668454527</v>
+        <v>0.07795699732035261</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02566919432696786</v>
+        <v>0.02689998645500668</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08413952550264864</v>
+        <v>0.02174991124099565</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02652791620273069</v>
+        <v>0.02713055181034909</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02598164232138945</v>
+        <v>0.02195442870597346</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0278395310689119</v>
+        <v>0.02790571043350193</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0240543949433715</v>
+        <v>0.05202316902781076</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02650671642679992</v>
+        <v>0.02763192086782116</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05432759637079862</v>
+        <v>0.07814885887690382</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02640259987916694</v>
+        <v>0.0276685574965783</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08385415532399149</v>
+        <v>0.02195442870597346</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02728585666566585</v>
+        <v>0.02790571043350193</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02586396025985126</v>
+        <v>0.02214877030659178</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02861285137638167</v>
+        <v>0.02868086905665476</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02412996279170435</v>
+        <v>0.05233223141676538</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02724301410532214</v>
+        <v>0.02839947422526064</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0539568094173716</v>
+        <v>0.07940869393027011</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02713600543136602</v>
+        <v>0.02843712853814991</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08352738396993398</v>
+        <v>0.02214877030659178</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02804379712860101</v>
+        <v>0.02868086905665476</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02571493178239776</v>
+        <v>0.02253245669999202</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02938617168385145</v>
+        <v>0.02945602767980759</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02383085692673544</v>
+        <v>0.0531175915313859</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02797931178384436</v>
+        <v>0.02916702758270011</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05384071410583707</v>
+        <v>0.0802349775477757</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0278694109835651</v>
+        <v>0.02920569957972153</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08367251586359814</v>
+        <v>0.02253245669999202</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02880173759153617</v>
+        <v>0.02945602767980759</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02353850514790429</v>
+        <v>0.02280500854331555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03015949199132122</v>
+        <v>0.03023118630296042</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02356919178032033</v>
+        <v>0.05327907377116217</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02871560946236659</v>
+        <v>0.02993458094013959</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05299836871776761</v>
+        <v>0.08102618479674456</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02860281653576418</v>
+        <v>0.02997427062129315</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0822028554281064</v>
+        <v>0.02280500854331555</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02955967805447133</v>
+        <v>0.03023118630296042</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02433862861524625</v>
+        <v>0.0230659464937038</v>
       </c>
       <c r="G105" t="n">
-        <v>0.030932812298791</v>
+        <v>0.03100634492611325</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02315708178431455</v>
+        <v>0.05381650253558423</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0294519071408888</v>
+        <v>0.03070213429757907</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05264883153473607</v>
+        <v>0.08258079074450086</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02933622208796326</v>
+        <v>0.03074284166286477</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08163170708658113</v>
+        <v>0.0230659464937038</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03031761851740649</v>
+        <v>0.03100634492611325</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02511925044329901</v>
+        <v>0.02321479120829821</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03170613260626078</v>
+        <v>0.03178150354926608</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02300664137057365</v>
+        <v>0.05402970222414186</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03018820481941102</v>
+        <v>0.03146968765501854</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05201116083831503</v>
+        <v>0.08279727045836882</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03006962764016234</v>
+        <v>0.03151141270443639</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08107237526214439</v>
+        <v>0.02321479120829821</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03107555898034165</v>
+        <v>0.03178150354926608</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02288431889093796</v>
+        <v>0.02365106334424018</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03247945291373054</v>
+        <v>0.03255666217241891</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02252998497095315</v>
+        <v>0.05461849723632514</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03092450249793324</v>
+        <v>0.03223724101245802</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05070441491007727</v>
+        <v>0.08327409900567245</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03080303319236143</v>
+        <v>0.03227998374600801</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08003816437791866</v>
+        <v>0.02365106334424018</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03183349944327683</v>
+        <v>0.03255666217241891</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02363778221703849</v>
+        <v>0.02387428355867109</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03325277322120032</v>
+        <v>0.03333182079557175</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02223922701730861</v>
+        <v>0.05508271197162384</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03166080017645546</v>
+        <v>0.0330047943698975</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05014765203159552</v>
+        <v>0.08490975145373586</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03153643874456051</v>
+        <v>0.03304855478757963</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0795423788570262</v>
+        <v>0.02387428355867109</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03259143990621199</v>
+        <v>0.03333182079557175</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02438358868047594</v>
+        <v>0.02388397250873235</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03402609352867009</v>
+        <v>0.03410697941872458</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02164648194149557</v>
+        <v>0.05542217082952797</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03239709785497769</v>
+        <v>0.03377234772733698</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04945993048444247</v>
+        <v>0.08540270286988327</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03226984429675959</v>
+        <v>0.03381712582915125</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07819832312258918</v>
+        <v>0.02388397250873235</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03334938036914715</v>
+        <v>0.03410697941872458</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02312568654012574</v>
+        <v>0.02407965085156544</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03479941383613987</v>
+        <v>0.0348821380418774</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02126386417536956</v>
+        <v>0.05593669820952746</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0331333955334999</v>
+        <v>0.03453990108477645</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04826030855019089</v>
+        <v>0.08535142832143866</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03300324984895867</v>
+        <v>0.03458569687072287</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07691930159773014</v>
+        <v>0.02407965085156544</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03410732083208231</v>
+        <v>0.0348821380418774</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02386802405486326</v>
+        <v>0.02436083924431172</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03557273414360965</v>
+        <v>0.03565729666503024</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02110348815078611</v>
+        <v>0.05612611851111213</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03386969321202213</v>
+        <v>0.03530745444221593</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04746784451041344</v>
+        <v>0.08655440287572624</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03373665540115776</v>
+        <v>0.03535426791229448</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07571861870557112</v>
+        <v>0.02436083924431172</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03486526129501747</v>
+        <v>0.03565729666503024</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02361454948356388</v>
+        <v>0.02442705834411259</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03634605445107942</v>
+        <v>0.03643245528818307</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02077746829960078</v>
+        <v>0.05609025613377205</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03460599089054434</v>
+        <v>0.0360750077996554</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04650159664668285</v>
+        <v>0.08681010160007008</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03447006095335683</v>
+        <v>0.03612283895386611</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07500957886923454</v>
+        <v>0.02442705834411259</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03562320175795263</v>
+        <v>0.03643245528818307</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02236921108510299</v>
+        <v>0.02467782880810951</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03711937475854919</v>
+        <v>0.0372076139113359</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02029791905366909</v>
+        <v>0.05662893547699704</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03534228856906657</v>
+        <v>0.03684256115709488</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04568062324057184</v>
+        <v>0.08701699956179437</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03520346650555592</v>
+        <v>0.03689140999543773</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07400548651184263</v>
+        <v>0.02467782880810951</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03638114222088779</v>
+        <v>0.0372076139113359</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02213595711835593</v>
+        <v>0.02491267129344386</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03789269506601897</v>
+        <v>0.03798277253448873</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0200769548448466</v>
+        <v>0.05664198094027709</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03607858624758879</v>
+        <v>0.03761011451453436</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0451239825736531</v>
+        <v>0.08747357182822307</v>
       </c>
       <c r="M114" t="n">
-        <v>0.035936872057755</v>
+        <v>0.03765998103700935</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07221964605651771</v>
+        <v>0.02491267129344386</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03713908268382295</v>
+        <v>0.03798277253448873</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02091873584219813</v>
+        <v>0.02503110645725705</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03866601537348874</v>
+        <v>0.03875793115764156</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02002669010498884</v>
+        <v>0.05702921692310206</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03681488392611101</v>
+        <v>0.03837766787197384</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04435073292749936</v>
+        <v>0.08837829346668052</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03667027760995408</v>
+        <v>0.03842855207858096</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07126536192638216</v>
+        <v>0.02503110645725705</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03789702314675811</v>
+        <v>0.03875793115764156</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02072149551550496</v>
+        <v>0.02493265495669049</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03943933568095852</v>
+        <v>0.03953308978079439</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01995923926595133</v>
+        <v>0.05729046782496189</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03755118160463323</v>
+        <v>0.03914522122941331</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04397993258368341</v>
+        <v>0.08852963954449061</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03740368316215317</v>
+        <v>0.03919712312015258</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07025593854455808</v>
+        <v>0.02493265495669049</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03865496360969328</v>
+        <v>0.03953308978079439</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02254818439715179</v>
+        <v>0.0251168374488856</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04021265598842829</v>
+        <v>0.04030824840394722</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01996309215315735</v>
+        <v>0.05702555804534651</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03828747928315544</v>
+        <v>0.03991277458685279</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04353063982377789</v>
+        <v>0.08922608512897756</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03813708871435224</v>
+        <v>0.0399656941617242</v>
       </c>
       <c r="N117" t="n">
-        <v>0.06990468033416791</v>
+        <v>0.0251168374488856</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03941290407262845</v>
+        <v>0.04030824840394722</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02140275074601401</v>
+        <v>0.0250831745909838</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04098597629589807</v>
+        <v>0.04108340702710006</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01988978821388859</v>
+        <v>0.05753431198374587</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03902377696167767</v>
+        <v>0.04068032794429227</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04312191292935552</v>
+        <v>0.08886610528746552</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03887049426655133</v>
+        <v>0.04073426520329582</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0687248917183339</v>
+        <v>0.0250831745909838</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04017084453556361</v>
+        <v>0.04108340702710006</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02028914282096701</v>
+        <v>0.02513118704012651</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04175929660336784</v>
+        <v>0.04185856565025289</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01993630620301635</v>
+        <v>0.05731655403964989</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03976007464019989</v>
+        <v>0.04144788130173174</v>
       </c>
       <c r="L119" t="n">
-        <v>0.042772810181989</v>
+        <v>0.08914817508727862</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03960389981875041</v>
+        <v>0.04150283624486745</v>
       </c>
       <c r="N119" t="n">
-        <v>0.06812987712017837</v>
+        <v>0.02513118704012651</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04092878499849877</v>
+        <v>0.04185856565025289</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02221130888088615</v>
+        <v>0.0253703208743782</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04253261691083762</v>
+        <v>0.04263372427340572</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02020158217846829</v>
+        <v>0.05737210861254841</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04049637231872211</v>
+        <v>0.04221543465917122</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04258346035442032</v>
+        <v>0.08937076959574092</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04033730537094949</v>
+        <v>0.04227140728643906</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06763294096282352</v>
+        <v>0.0253703208743782</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04168672546143393</v>
+        <v>0.04263372427340572</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02017319718464682</v>
+        <v>0.02527032048811104</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0433059372183074</v>
+        <v>0.04340888289655855</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02008455219817205</v>
+        <v>0.05770506810759846</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04123266999724433</v>
+        <v>0.04298298801661069</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04319678430541918</v>
+        <v>0.09003981534081873</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04107071092314857</v>
+        <v>0.04303997832801068</v>
       </c>
       <c r="N121" t="n">
-        <v>0.06654738766939167</v>
+        <v>0.02527032048811104</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04244466592436909</v>
+        <v>0.04340888289655855</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02018008718583966</v>
+        <v>0.02516410601497246</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04407925752577717</v>
+        <v>0.04418404151971139</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02038415232005535</v>
+        <v>0.05750439115658262</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04196896767576654</v>
+        <v>0.04375054137405017</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04310101001968009</v>
+        <v>0.08963765387403538</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04180411647534765</v>
+        <v>0.0438085493695823</v>
       </c>
       <c r="N122" t="n">
-        <v>0.06638652166300524</v>
+        <v>0.02516410601497246</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04320260638730426</v>
+        <v>0.04418404151971139</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02223731528614874</v>
+        <v>0.02534567513213479</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04485257783324694</v>
+        <v>0.04495920014286421</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02029931860204577</v>
+        <v>0.05719780263890928</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04270526535428877</v>
+        <v>0.04451809473148965</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04328913746073049</v>
+        <v>0.08972114722521074</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04253752202754674</v>
+        <v>0.04457712041115392</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06566364736678637</v>
+        <v>0.02534567513213479</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04396054685023942</v>
+        <v>0.04495920014286421</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02034100445960369</v>
+        <v>0.02521558697320864</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04562589814071672</v>
+        <v>0.04573435876601704</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02042898710207104</v>
+        <v>0.05768422957669644</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04344156303281099</v>
+        <v>0.04528564808892913</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04375416659209791</v>
+        <v>0.08978860790297022</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04327092757974581</v>
+        <v>0.04534569145272554</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06559206920385735</v>
+        <v>0.02521558697320864</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04471848731317458</v>
+        <v>0.04573435876601704</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02148656568546094</v>
+        <v>0.02527440053516246</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04639921844818649</v>
+        <v>0.04650951738916988</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02077209387805883</v>
+        <v>0.05726370805573439</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04417786071133321</v>
+        <v>0.0460532014463686</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04438909737730978</v>
+        <v>0.08914029558095204</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0440043331319449</v>
+        <v>0.04611426249429715</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0660992867761272</v>
+        <v>0.02527440053516246</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04547642777610975</v>
+        <v>0.04650951738916988</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02166940994297701</v>
+        <v>0.02502267481496467</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04717253875565627</v>
+        <v>0.04728467601232271</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02092757498793674</v>
+        <v>0.05733627416181331</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04491415838985543</v>
+        <v>0.04682075480380807</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04458692977989356</v>
+        <v>0.08927646993279453</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04473773868414398</v>
+        <v>0.04688283353586877</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06548558974971558</v>
+        <v>0.02502267481496467</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04623436823904491</v>
+        <v>0.04728467601232271</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02188494821140833</v>
+        <v>0.02496096880958378</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04794585906312604</v>
+        <v>0.04805983463547554</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02089436648963247</v>
+        <v>0.05740196398072342</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04565045606837764</v>
+        <v>0.04758830816124756</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04554066376337682</v>
+        <v>0.08979739063213571</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04547114423634306</v>
+        <v>0.0476514045774404</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06654381751128235</v>
+        <v>0.02496096880958378</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04699230870198007</v>
+        <v>0.04805983463547554</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02212859147001141</v>
+        <v>0.02498984151598818</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04871917937059582</v>
+        <v>0.04883499325862837</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02107140444107369</v>
+        <v>0.0573608135982549</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04638675374689987</v>
+        <v>0.04835586151868704</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04594329929128696</v>
+        <v>0.08950331735261402</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04620454978854214</v>
+        <v>0.04841997561901201</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06704451361230851</v>
+        <v>0.02498984151598818</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04775024916491524</v>
+        <v>0.04883499325862837</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02239575069804273</v>
+        <v>0.02500985193114634</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04949249967806559</v>
+        <v>0.0496101518817812</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02135762490018808</v>
+        <v>0.05741285910019805</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04712305142542209</v>
+        <v>0.04912341487612651</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04638783632715149</v>
+        <v>0.08879450976786751</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04693795534074122</v>
+        <v>0.04918854666058364</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06845822160427495</v>
+        <v>0.02500985193114634</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0485081896278504</v>
+        <v>0.0496101518817812</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02268183687475873</v>
+        <v>0.02472155905202666</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05026581998553537</v>
+        <v>0.05038531050493403</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02155196392490326</v>
+        <v>0.05705813657234302</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04785934910394431</v>
+        <v>0.04989096823356599</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04736727483449793</v>
+        <v>0.08907122755153463</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04767136089294031</v>
+        <v>0.04995711770215525</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06965548503866276</v>
+        <v>0.02472155905202666</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04926613009078556</v>
+        <v>0.05038531050493403</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02198226097941589</v>
+        <v>0.02462552187559766</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05103914029300514</v>
+        <v>0.05116046912808686</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02165335757314692</v>
+        <v>0.05709668210048002</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04859564678246653</v>
+        <v>0.05065852159100546</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04807461477685368</v>
+        <v>0.08853373037725337</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04840476644513939</v>
+        <v>0.05072568874372687</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07120684746695288</v>
+        <v>0.02462552187559766</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05002407055372072</v>
+        <v>0.05116046912808686</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02429243399127071</v>
+        <v>0.02452229939882772</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05181246060047492</v>
+        <v>0.05193562775123969</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02206074190284672</v>
+        <v>0.05682853177039932</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04933194446098874</v>
+        <v>0.05142607494844494</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04890285611774622</v>
+        <v>0.08878227791866217</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04913817199733847</v>
+        <v>0.05149425978529849</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07208285244062623</v>
+        <v>0.02452229939882772</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05078201101665588</v>
+        <v>0.05193562775123969</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02260776688957965</v>
+        <v>0.02461245061868532</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05258578090794469</v>
+        <v>0.05271078637439253</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02217305297193031</v>
+        <v>0.05705372166789105</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05006824213951097</v>
+        <v>0.05219362830588442</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04954499882070315</v>
+        <v>0.08891712984939915</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04987157754953755</v>
+        <v>0.05226283082687011</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07385404351116376</v>
+        <v>0.02461245061868532</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05153995147959104</v>
+        <v>0.05271078637439253</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02292367065359917</v>
+        <v>0.02449653453213887</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05335910121541446</v>
+        <v>0.05348594499754535</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02238922683832539</v>
+        <v>0.05667228787874548</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05080453981803319</v>
+        <v>0.05296118166332389</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05029404284925179</v>
+        <v>0.08833854584310252</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05060498310173663</v>
+        <v>0.05303140186844173</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07519096423004645</v>
+        <v>0.02449653453213887</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05229789194252621</v>
+        <v>0.05348594499754535</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0242355562625858</v>
+        <v>0.02427511013615684</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05413242152288424</v>
+        <v>0.05426110362069819</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02250819955995957</v>
+        <v>0.05668426648875277</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05154083749655541</v>
+        <v>0.05372873502076338</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05064298816691973</v>
+        <v>0.08824678557341054</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05133838865393572</v>
+        <v>0.05379997291001335</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07726415814875537</v>
+        <v>0.02427511013615684</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05305583240546137</v>
+        <v>0.05426110362069819</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02353883469579594</v>
+        <v>0.02404873642770766</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05490574183035402</v>
+        <v>0.05503626224385103</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02282890719476056</v>
+        <v>0.05648969358370323</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05227713517507763</v>
+        <v>0.05449628837820284</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0516848347372344</v>
+        <v>0.08844210871396152</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05207179420613479</v>
+        <v>0.05456854395158497</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07844416881877136</v>
+        <v>0.02404873642770766</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05381377286839652</v>
+        <v>0.05503626224385103</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02482891693248612</v>
+        <v>0.02391797240375981</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0556790621378238</v>
+        <v>0.05581142086700385</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02315028580065603</v>
+        <v>0.05648860524938698</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05301343285359985</v>
+        <v>0.05526384173564233</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05211258252372331</v>
+        <v>0.08802477493839361</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05280519975833388</v>
+        <v>0.05533711499315659</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08070153979157546</v>
+        <v>0.02391797240375981</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05457171333133169</v>
+        <v>0.05581142086700385</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02410121395191276</v>
+        <v>0.0239833770612817</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05645238244529357</v>
+        <v>0.05658657949015668</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02327127143557359</v>
+        <v>0.05668103757159432</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05374973053212207</v>
+        <v>0.0560313950930818</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0531192314899139</v>
+        <v>0.08709504392034501</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05353860531053296</v>
+        <v>0.05610568603472821</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08220681461864865</v>
+        <v>0.0239833770612817</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05532965379426685</v>
+        <v>0.05658657949015668</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0253511367333324</v>
+        <v>0.02374550939724177</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05722570275276334</v>
+        <v>0.05736173811330951</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02349080015744093</v>
+        <v>0.05666702663611536</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05448602821064429</v>
+        <v>0.05679894845052127</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05349778159933369</v>
+        <v>0.08775317533345395</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05427201086273204</v>
+        <v>0.05687425707629983</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08413053685147187</v>
+        <v>0.02374550939724177</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05608759425720202</v>
+        <v>0.05736173811330951</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02657409625600148</v>
+        <v>0.02360492840860848</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05799902306023312</v>
+        <v>0.05813689673646235</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02380780802418574</v>
+        <v>0.05644660852874037</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05522232588916651</v>
+        <v>0.05756650180796076</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05414123281551012</v>
+        <v>0.08739942885135871</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05500541641493112</v>
+        <v>0.05764282811787145</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0853432500415261</v>
+        <v>0.02360492840860848</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05684553472013718</v>
+        <v>0.05813689673646235</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02676550349917647</v>
+        <v>0.02346219309235027</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05877234336770289</v>
+        <v>0.05891205535961518</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02402123109373565</v>
+        <v>0.05611981933525959</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05595862356768872</v>
+        <v>0.05833405516540022</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05474258510197072</v>
+        <v>0.0870340641476976</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0557388219671302</v>
+        <v>0.05841139915944307</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08611549774029226</v>
+        <v>0.02346219309235027</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05760347518307234</v>
+        <v>0.05891205535961518</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02692076944211384</v>
+        <v>0.02341786244543559</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05954566367517267</v>
+        <v>0.05968721398276801</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02403000542401834</v>
+        <v>0.05618669514146318</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05669492124621095</v>
+        <v>0.05910160852283971</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05529483842224292</v>
+        <v>0.08605734089610861</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05647222751932929</v>
+        <v>0.05917997020101468</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08751782349925136</v>
+        <v>0.02341786244543559</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05836141564600751</v>
+        <v>0.05968721398276801</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02503530506407008</v>
+        <v>0.02317249546483287</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06031898398264244</v>
+        <v>0.06046237260592083</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02423306707296147</v>
+        <v>0.05594727203314137</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05743121892473317</v>
+        <v>0.05986916188027919</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05629099273985425</v>
+        <v>0.08656951877023022</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05720563307152837</v>
+        <v>0.0599485412425863</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08852077086988441</v>
+        <v>0.02317249546483287</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05911935610894267</v>
+        <v>0.06046237260592083</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02711604731975793</v>
+        <v>0.02302665114751055</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06109230429011221</v>
+        <v>0.06123753122907367</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0244293520984927</v>
+        <v>0.05560158609608437</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05816751660325539</v>
+        <v>0.06063671523771866</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05622404801833211</v>
+        <v>0.08557085744370052</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05793903862372744</v>
+        <v>0.06071711228415793</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08869488340367238</v>
+        <v>0.02302665114751055</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05987729657187783</v>
+        <v>0.06123753122907367</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02713609346010149</v>
+        <v>0.02288088849043711</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06186562459758199</v>
+        <v>0.0620126898522265</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0248177965585397</v>
+        <v>0.05534967341608243</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05890381428177761</v>
+        <v>0.06140426859515814</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05678700422120406</v>
+        <v>0.08556161659015782</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05867244417592653</v>
+        <v>0.06148568332572955</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09003981534081873</v>
+        <v>0.02288088849043711</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06063523703481299</v>
+        <v>0.0620126898522265</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02616434395819301</v>
+        <v>0.02273576649058096</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06263894490505177</v>
+        <v>0.06278784847537933</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02499733651103013</v>
+        <v>0.05569157007892575</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05964011196029982</v>
+        <v>0.06217182195259761</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05697286131199755</v>
+        <v>0.08524205588324024</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05940584972812562</v>
+        <v>0.06225425436730116</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08923978058756432</v>
+        <v>0.02273576649058096</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06139317749774816</v>
+        <v>0.06278784847537933</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02519165724566872</v>
+        <v>0.02269184414491056</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06341226521252155</v>
+        <v>0.06356300709853216</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02506690801389165</v>
+        <v>0.0554273121704045</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06037640963882205</v>
+        <v>0.06293937531003709</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05707461925424007</v>
+        <v>0.08511243499658611</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06013925528032469</v>
+        <v>0.06302282540887277</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08963372452555457</v>
+        <v>0.02269184414491056</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06215111796068331</v>
+        <v>0.06356300709853216</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02521802444645712</v>
+        <v>0.02244968045039432</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06418558551999132</v>
+        <v>0.06433816572168499</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0253703208743782</v>
+        <v>0.0548569357763089</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06111270731734427</v>
+        <v>0.06370692866747657</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05770506810759846</v>
+        <v>0.08447301360383364</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06087266083252377</v>
+        <v>0.0637913964504444</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08951757466998167</v>
+        <v>0.02244968045039432</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06290905842361848</v>
+        <v>0.06433816572168499</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02724343668448669</v>
+        <v>0.02230983440400075</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06495890582746108</v>
+        <v>0.06511332434483783</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02537714177483631</v>
+        <v>0.05488047698242926</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06184900499586649</v>
+        <v>0.06447448202491604</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05770416439161619</v>
+        <v>0.08472405137862099</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06160606638472286</v>
+        <v>0.06455996749201602</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08909178794837636</v>
+        <v>0.02230983440400075</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06366699888655365</v>
+        <v>0.06511332434483783</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02626788508368588</v>
+        <v>0.02207286500269824</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06573222613493086</v>
+        <v>0.06588848296799066</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02543595539316804</v>
+        <v>0.05479797187455565</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06258530267438871</v>
+        <v>0.06524203538235553</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05769302881198785</v>
+        <v>0.08366580799458656</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06233947193692194</v>
+        <v>0.06532853853358764</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08925682128826939</v>
+        <v>0.02207286500269824</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0644249393494888</v>
+        <v>0.06588848296799066</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0272913607679832</v>
+        <v>0.02203933124345527</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06650554644240064</v>
+        <v>0.06666364159114349</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02570164114728705</v>
+        <v>0.0546094565384784</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06332160035291093</v>
+        <v>0.066009588739795</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0574695919002941</v>
+        <v>0.08329854312536839</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06307287748912102</v>
+        <v>0.06609710957515927</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08901313161719143</v>
+        <v>0.02203933124345527</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06518287981242397</v>
+        <v>0.06666364159114349</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02731385486130711</v>
+        <v>0.02190979212324023</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06727886674987042</v>
+        <v>0.06743880021429631</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02577300876957191</v>
+        <v>0.05411496705998764</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06405789803143315</v>
+        <v>0.06677714209723447</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05733434701372431</v>
+        <v>0.08282251644460475</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06380628304132009</v>
+        <v>0.06686568061673089</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08906117586267326</v>
+        <v>0.02190979212324023</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06594082027535912</v>
+        <v>0.06743880021429631</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02733535848758608</v>
+        <v>0.02178480663902163</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06805218705734019</v>
+        <v>0.06821395883744916</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02594886799240115</v>
+        <v>0.05391453952487363</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06479419570995537</v>
+        <v>0.06754469545467395</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05748778750946767</v>
+        <v>0.08313798762593394</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06453968859351918</v>
+        <v>0.0676342516583025</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08910141095224577</v>
+        <v>0.02178480663902163</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0666987607382943</v>
+        <v>0.06821395883744916</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0263558627707486</v>
+        <v>0.02156493378776787</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06882550736480997</v>
+        <v>0.06898911746060199</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02622802854815333</v>
+        <v>0.05370821001892662</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06553049338847759</v>
+        <v>0.06831224881211342</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05703040674471346</v>
+        <v>0.08244521634299418</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06527309414571827</v>
+        <v>0.06840282269987412</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08963429381343946</v>
+        <v>0.02156493378776787</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06745670120122944</v>
+        <v>0.06898911746060199</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02537535883472316</v>
+        <v>0.02155073256644742</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06959882767227975</v>
+        <v>0.06976427608375481</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02640930016920701</v>
+        <v>0.05399601462793671</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0662667910669998</v>
+        <v>0.06907980216955291</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05716269807665109</v>
+        <v>0.08194446226942365</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06600649969791735</v>
+        <v>0.06917139374144574</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08936028137378516</v>
+        <v>0.02155073256644742</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06821464166416462</v>
+        <v>0.06976427608375481</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02639383780343822</v>
+        <v>0.02144276197202871</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07037214797974951</v>
+        <v>0.07053943470690764</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0264914925879407</v>
+        <v>0.05327798943769424</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06700308874552202</v>
+        <v>0.06984735552699238</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05688515486246967</v>
+        <v>0.08193598507886068</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06673990525011642</v>
+        <v>0.06993996478301735</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08947983056081377</v>
+        <v>0.02144276197202871</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06897258212709978</v>
+        <v>0.07053943470690764</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02641129080082227</v>
+        <v>0.02144158100148019</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07114546828721929</v>
+        <v>0.07131459333006047</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02677341553673301</v>
+        <v>0.05345417053398932</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06773938642404426</v>
+        <v>0.07061490888443185</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05699827045935862</v>
+        <v>0.08162004444494331</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06747331080231551</v>
+        <v>0.07070853582458897</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08859339830205581</v>
+        <v>0.02144158100148019</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06973052259003494</v>
+        <v>0.07131459333006047</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02542770895080377</v>
+        <v>0.02134774865177029</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07191878859468907</v>
+        <v>0.07208975195321331</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02695387874796247</v>
+        <v>0.05332459400261222</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06847568410256648</v>
+        <v>0.07138246224187134</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05670253822450713</v>
+        <v>0.08109690004130998</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0682067163545146</v>
+        <v>0.07147710686616059</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08940144152504215</v>
+        <v>0.02134774865177029</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07048846305297012</v>
+        <v>0.07208975195321331</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0264430833773112</v>
+        <v>0.02116182391986747</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07269210890215884</v>
+        <v>0.07286491057636614</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02713169195400762</v>
+        <v>0.05278929592935316</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06921198178108869</v>
+        <v>0.07215001559931081</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05669845151510455</v>
+        <v>0.08026681154159881</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06894012190671367</v>
+        <v>0.07224567790773222</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08930441715730353</v>
+        <v>0.02116182391986747</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07124640351590526</v>
+        <v>0.07286491057636614</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02545740520427305</v>
+        <v>0.02108432749829234</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07346542920962862</v>
+        <v>0.07364006919951897</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02740566488724704</v>
+        <v>0.05264831240000228</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06994827945961091</v>
+        <v>0.07291756895675029</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05658650368834012</v>
+        <v>0.07973003861944805</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06967352745891275</v>
+        <v>0.07301424894930383</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08850278212637064</v>
+        <v>0.02108432749829234</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07200434397884044</v>
+        <v>0.07364006919951897</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0264706655556178</v>
+        <v>0.02111325011322893</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07423874951709838</v>
+        <v>0.07441522782267179</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02737460728005923</v>
+        <v>0.0522016795003499</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07068457713813314</v>
+        <v>0.07368512231418976</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05646718810140317</v>
+        <v>0.07978684094849592</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07040693301111184</v>
+        <v>0.07378281999087545</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0882969933597742</v>
+        <v>0.02111325011322893</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07276228444177558</v>
+        <v>0.07441522782267179</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02748285555527392</v>
+        <v>0.02104695260090099</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07501206982456816</v>
+        <v>0.07519038644582464</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02753732886482281</v>
+        <v>0.05184943331618616</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07142087481665535</v>
+        <v>0.07445267567162923</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05634099811148294</v>
+        <v>0.07873747820238064</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07114033856331092</v>
+        <v>0.07455139103244708</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08888750778504512</v>
+        <v>0.02104695260090099</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07352022490471076</v>
+        <v>0.07519038644582464</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02749396632716989</v>
+        <v>0.02088509040577431</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07578539013203794</v>
+        <v>0.07596554506897746</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02769263937391626</v>
+        <v>0.05189160993330133</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07215717249517757</v>
+        <v>0.07522022902906872</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05660842707576874</v>
+        <v>0.0783822100547405</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07187374411550999</v>
+        <v>0.0753199620740187</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08807478232971394</v>
+        <v>0.02088509040577431</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07427816536764591</v>
+        <v>0.07596554506897746</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02550398899523418</v>
+        <v>0.02092731897231473</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07655871043950771</v>
+        <v>0.07674070369213029</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02803934853971822</v>
+        <v>0.05162824543748554</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07289347017369979</v>
+        <v>0.07598778238650819</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05626996835144984</v>
+        <v>0.07822129617921358</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07260714966770908</v>
+        <v>0.07608853311559031</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08825927392131155</v>
+        <v>0.02092731897231473</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07503610583058108</v>
+        <v>0.07674070369213029</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02751291468339528</v>
+        <v>0.0207732937449881</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07733203074697749</v>
+        <v>0.07751586231528312</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02797626609460716</v>
+        <v>0.05135937591452908</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07362976785222201</v>
+        <v>0.07675533574394768</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05632611529571552</v>
+        <v>0.07755499624943835</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07334055521990816</v>
+        <v>0.07685710415716192</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08824143948736857</v>
+        <v>0.0207732937449881</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07579404629351623</v>
+        <v>0.07751586231528312</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02652073451558167</v>
+        <v>0.02062267016826023</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07810535105444727</v>
+        <v>0.07829102093843596</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02820220177096165</v>
+        <v>0.05108503745022211</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07436606553074424</v>
+        <v>0.07752288910138716</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05587736126575507</v>
+        <v>0.07754964423859573</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07407396077210725</v>
+        <v>0.07762567519873355</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08812173595541589</v>
+        <v>0.02062267016826023</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0765519867564514</v>
+        <v>0.07829102093843596</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02552743961572183</v>
+        <v>0.02077510368659695</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07887867136191705</v>
+        <v>0.07906617956158879</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02831596530116029</v>
+        <v>0.05080526613035488</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07510236320926646</v>
+        <v>0.07829044245882662</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05602419961875774</v>
+        <v>0.07652573070675517</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07480736632430633</v>
+        <v>0.07839424624030517</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08790062025298412</v>
+        <v>0.02077510368659695</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07730992721938656</v>
+        <v>0.07906617956158879</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0255330211077442</v>
+        <v>0.02073024974446405</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07965199166938682</v>
+        <v>0.07984133818474162</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02851636641758158</v>
+        <v>0.0503200980407176</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07583866088778868</v>
+        <v>0.0790579958162661</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05556712371191289</v>
+        <v>0.07578943473739014</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0755407718765054</v>
+        <v>0.07916281728187678</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08807854930760411</v>
+        <v>0.02073024974446405</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07806786768232173</v>
+        <v>0.07984133818474162</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02753747011557731</v>
+        <v>0.0205877637863274</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08042531197685658</v>
+        <v>0.08061649680789444</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02840221485260407</v>
+        <v>0.05012956926710049</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07657495856631089</v>
+        <v>0.07982554917370557</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05520662690240974</v>
+        <v>0.07475109808548192</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07627417742870449</v>
+        <v>0.0799313883234484</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08785343961792619</v>
+        <v>0.0205877637863274</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0788258081452569</v>
+        <v>0.08061649680789444</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02554077776314961</v>
+        <v>0.02044730125665278</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08119863228432637</v>
+        <v>0.08139165543104729</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02847232033860635</v>
+        <v>0.04993281009196693</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07731125624483311</v>
+        <v>0.08059310253114506</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0551432025474376</v>
+        <v>0.07392106250601205</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07700758298090357</v>
+        <v>0.08069995936502003</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08790133978848091</v>
+        <v>0.02044730125665278</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07958374860819205</v>
+        <v>0.08139165543104729</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02754293517438956</v>
+        <v>0.02060851759990606</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08197195259179614</v>
+        <v>0.08216681405420012</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02872549260796696</v>
+        <v>0.04923720814566612</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07804755392335534</v>
+        <v>0.08136065588858454</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05487734400418576</v>
+        <v>0.07250966975396195</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07774098853310266</v>
+        <v>0.08146853040659165</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08741770835678331</v>
+        <v>0.02060851759990606</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08034168907112722</v>
+        <v>0.08216681405420012</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02554393347322568</v>
+        <v>0.02037106826055306</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08274527289926592</v>
+        <v>0.08294197267735294</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02876054139306443</v>
+        <v>0.04919126568273019</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07878385160187755</v>
+        <v>0.082128209246024</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05510954462984347</v>
+        <v>0.07192726158431312</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07847439408530173</v>
+        <v>0.08223710144816326</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08750439677777705</v>
+        <v>0.02037106826055306</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08109962953406237</v>
+        <v>0.08294197267735294</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02554082529792474</v>
+        <v>0.02033460868305954</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08351859320673569</v>
+        <v>0.08371713130050577</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02877627642627735</v>
+        <v>0.04810965290715893</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07952014928039977</v>
+        <v>0.08289576260346349</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05504029778160002</v>
+        <v>0.07118417975204677</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07920779963750081</v>
+        <v>0.08300567248973489</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08716325650640561</v>
+        <v>0.02033460868305954</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08185756999699755</v>
+        <v>0.08371713130050577</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02752367532383242</v>
+        <v>0.02049879431189142</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08429191351420547</v>
+        <v>0.08449228992365861</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02857331304814255</v>
+        <v>0.0474070400229524</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08025644695892199</v>
+        <v>0.08366331596090296</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05447009681664472</v>
+        <v>0.06979076601214451</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0799412051896999</v>
+        <v>0.08377424353130651</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0868961389976125</v>
+        <v>0.02049879431189142</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08261551045993269</v>
+        <v>0.08449228992365861</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02549242664655433</v>
+        <v>0.02046328059151446</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08506523382167525</v>
+        <v>0.08526744854681144</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0286560848261575</v>
+        <v>0.04679809723411052</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08099274463744421</v>
+        <v>0.08443086931834244</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05419943509216685</v>
+        <v>0.06865736211958762</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08067461074189898</v>
+        <v>0.08454281457287811</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08600489570634118</v>
+        <v>0.02046328059151446</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08337345092286787</v>
+        <v>0.08526744854681144</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02644793462676181</v>
+        <v>0.0203277229663945</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08583855412914501</v>
+        <v>0.08604260716996427</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02862529467165384</v>
+        <v>0.04569749474463308</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08172904231596644</v>
+        <v>0.08519842267578193</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05442880596535568</v>
+        <v>0.06749430982935767</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08140801629409805</v>
+        <v>0.08531138561444973</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08569137808753541</v>
+        <v>0.0203277229663945</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08413139138580303</v>
+        <v>0.08604260716996427</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02639105462512618</v>
+        <v>0.02029177688099737</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08661187443661479</v>
+        <v>0.0868177657931171</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02868140682576073</v>
+        <v>0.04451990275852016</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08246533999448866</v>
+        <v>0.08596597603322138</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05415870279340049</v>
+        <v>0.06621195089643594</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08214142184629714</v>
+        <v>0.08607995665602136</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08615743759613864</v>
+        <v>0.02029177688099737</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08488933184873819</v>
+        <v>0.0868177657931171</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02532264200231873</v>
+        <v>0.02035509777978889</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08738519474408457</v>
+        <v>0.08759292441626992</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02862488552960735</v>
+        <v>0.04357999147977162</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08320163767301088</v>
+        <v>0.08673352939066087</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05418961893349056</v>
+        <v>0.06432062707580405</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08287482739849623</v>
+        <v>0.08684852769759298</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08580492568709436</v>
+        <v>0.02035509777978889</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08564727231167335</v>
+        <v>0.08759292441626992</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02724355211901084</v>
+        <v>0.02021734110723489</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08815851505155434</v>
+        <v>0.08836808303942277</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02845619502432284</v>
+        <v>0.04219243111238738</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08393793535153309</v>
+        <v>0.08750108274810034</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0536220477428152</v>
+        <v>0.06303068012244323</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0836082329506953</v>
+        <v>0.0876170987391646</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08483569381534611</v>
+        <v>0.02021734110723489</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08640521277460851</v>
+        <v>0.08836808303942277</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0271546403358738</v>
+        <v>0.02027816230780119</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08893183535902412</v>
+        <v>0.08914324166257559</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02827579955103639</v>
+        <v>0.0409718918603674</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08467423303005531</v>
+        <v>0.08826863610553982</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05365648257856367</v>
+        <v>0.06235245179133497</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08434163850289438</v>
+        <v>0.08838566978073621</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08425159343583744</v>
+        <v>0.02027816230780119</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08716315323754369</v>
+        <v>0.08914324166257559</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02505676201357895</v>
+        <v>0.02013721682595362</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08970515566649388</v>
+        <v>0.08991840028572842</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02838416335087718</v>
+        <v>0.03973304392771157</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08541053070857754</v>
+        <v>0.08903618946297931</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05369341679792528</v>
+        <v>0.06049628383746075</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08507504405509347</v>
+        <v>0.08915424082230784</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08425447600351194</v>
+        <v>0.02013721682595362</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08792109370047883</v>
+        <v>0.08991840028572842</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02595077251279763</v>
+        <v>0.01999416010615798</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09047847597396368</v>
+        <v>0.09069355890888126</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02808175066497433</v>
+        <v>0.03819055751841988</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08614682838709975</v>
+        <v>0.08980374282041877</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05353334375808927</v>
+        <v>0.0598725180158019</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08580844960729256</v>
+        <v>0.08992281186387946</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08394619297331302</v>
+        <v>0.01999416010615798</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08867903416341401</v>
+        <v>0.09069355890888126</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02483752719420112</v>
+        <v>0.02004864759288014</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09125179628143344</v>
+        <v>0.09146871753203409</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02816902573445705</v>
+        <v>0.03745910283649215</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08688312606562197</v>
+        <v>0.09057129617785825</v>
       </c>
       <c r="L183" t="n">
-        <v>0.053276756816245</v>
+        <v>0.05789149608133992</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08654185515949163</v>
+        <v>0.09069138290545108</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08372859580018438</v>
+        <v>0.02004864759288014</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08943697462634916</v>
+        <v>0.09146871753203409</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0247178814184608</v>
+        <v>0.01990033473058588</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09202511658890321</v>
+        <v>0.09224387615518692</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02794645280045449</v>
+        <v>0.03585335008592838</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08761942374414419</v>
+        <v>0.09133884953529774</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05312414932958165</v>
+        <v>0.05736355978905627</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08727526071169071</v>
+        <v>0.09145995394702271</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08320353593906937</v>
+        <v>0.01990033473058588</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09019491508928433</v>
+        <v>0.09224387615518692</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02459269054624796</v>
+        <v>0.01994887696374106</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09279843689637299</v>
+        <v>0.09301903477833975</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02781449610409581</v>
+        <v>0.03488796947072853</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08835572142266641</v>
+        <v>0.09210640289273721</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05307601465528855</v>
+        <v>0.05579905089393217</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0880086662638898</v>
+        <v>0.09222852498859431</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08267286484491165</v>
+        <v>0.01994887696374106</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09095285555221949</v>
+        <v>0.09301903477833975</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02446280993823394</v>
+        <v>0.01989392973681148</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09357175720384277</v>
+        <v>0.09379419340149257</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02777361988651017</v>
+        <v>0.03377763119489241</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08909201910118864</v>
+        <v>0.09287395625017669</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05253284615055498</v>
+        <v>0.05520831115094921</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08874207181608888</v>
+        <v>0.09299709603016593</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08173843397265479</v>
+        <v>0.01989392973681148</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09171079601515465</v>
+        <v>0.09379419340149257</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02532909495509008</v>
+        <v>0.01983514849426297</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09434507751131255</v>
+        <v>0.09456935202464542</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02742428838882677</v>
+        <v>0.03253700546242011</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08982831677971086</v>
+        <v>0.09364150960761615</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05279502665584096</v>
+        <v>0.05430168231508892</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08947547736828795</v>
+        <v>0.09376566707173754</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08160209477724228</v>
+        <v>0.01983514849426297</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09246873647808981</v>
+        <v>0.09456935202464542</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02519240095748767</v>
+        <v>0.01967218868056138</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09511839781878231</v>
+        <v>0.09534451064779825</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02746696585217476</v>
+        <v>0.03168076247731144</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09056461445823308</v>
+        <v>0.09440906296505563</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05266198110349379</v>
+        <v>0.05376044131027102</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09020888292048704</v>
+        <v>0.09453423811330917</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08106569871361757</v>
+        <v>0.01967218868056138</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09322667694102497</v>
+        <v>0.09534451064779825</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02405358330609807</v>
+        <v>0.01980470574017248</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09589171812625208</v>
+        <v>0.09611966927095107</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02720211651768328</v>
+        <v>0.0307235724435663</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09130091213675529</v>
+        <v>0.09517661632249512</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05243298498070792</v>
+        <v>0.05212298904781032</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09094228847268612</v>
+        <v>0.09530280915488079</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08043109723672431</v>
+        <v>0.01980470574017248</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09398461740396014</v>
+        <v>0.09611966927095107</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02391349736159259</v>
+        <v>0.01973235511756213</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09666503843372187</v>
+        <v>0.0968948278941039</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02693020462648152</v>
+        <v>0.03018010556518472</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09203720981527751</v>
+        <v>0.09594416967993459</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05200736522406085</v>
+        <v>0.05168769093780701</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09167569402488521</v>
+        <v>0.09607138019645241</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08020014180150603</v>
+        <v>0.01973235511756213</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0947425578668953</v>
+        <v>0.0968948278941039</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02477299848464257</v>
+        <v>0.01945479225719617</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09743835874119164</v>
+        <v>0.09766998651725674</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02695169441969868</v>
+        <v>0.02944896433642136</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09277350749379974</v>
+        <v>0.09671172303737408</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05178444877013028</v>
+        <v>0.05055550911134338</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09240909957708428</v>
+        <v>0.09683995123802402</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08027468386290626</v>
+        <v>0.01945479225719617</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09550049832983047</v>
+        <v>0.09766998651725674</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02463294203591931</v>
+        <v>0.01947167260354041</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09821167904866142</v>
+        <v>0.09844514514040957</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02666705013846385</v>
+        <v>0.02884519811589834</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09350980517232195</v>
+        <v>0.09747927639481353</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05196356255549356</v>
+        <v>0.04962740569950169</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09314250512928336</v>
+        <v>0.09760852227959566</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07965657487586841</v>
+        <v>0.01947167260354041</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09625843879276562</v>
+        <v>0.09844514514040957</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02549418337609417</v>
+        <v>0.01928265160106066</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09898499935613118</v>
+        <v>0.0992203037635624</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02637673602390625</v>
+        <v>0.02845393088485434</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09424610285084417</v>
+        <v>0.09824682975225302</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05184403351672837</v>
+        <v>0.04880434283336432</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09387591068148245</v>
+        <v>0.09837709332116727</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07944766629533634</v>
+        <v>0.01928265160106066</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09701637925570079</v>
+        <v>0.0992203037635624</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02335757786583844</v>
+        <v>0.01928738469422277</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09975831966360096</v>
+        <v>0.09999546238671524</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02628121631715503</v>
+        <v>0.02797495242658085</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09498240052936639</v>
+        <v>0.0990143831096925</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05182518859041216</v>
+        <v>0.04808728264401363</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09460931623368153</v>
+        <v>0.09914566436273889</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0787498095762531</v>
+        <v>0.01928738469422277</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09777431971863595</v>
+        <v>0.09999546238671524</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02322398086582348</v>
+        <v>0.01918552732749253</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1005316399710707</v>
+        <v>0.1007706210098681</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02598095525933937</v>
+        <v>0.02730805252436919</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09571869820788861</v>
+        <v>0.09978193646713197</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05170635471312257</v>
+        <v>0.04777718726253194</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09534272178588062</v>
+        <v>0.09991423540431051</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07856485617356268</v>
+        <v>0.01918552732749253</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09853226018157112</v>
+        <v>0.1007706210098681</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02409424773672059</v>
+        <v>0.01897673494533578</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1013049602785405</v>
+        <v>0.1015457796330209</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02587641709158843</v>
+        <v>0.02675302096151078</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09645499588641084</v>
+        <v>0.1005494898245715</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05168685882143709</v>
+        <v>0.04707501882000148</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09607612733807969</v>
+        <v>0.1006828064458821</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07769465754220839</v>
+        <v>0.01897673494533578</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09929020064450628</v>
+        <v>0.1015457796330209</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02296923383920112</v>
+        <v>0.01905454057288093</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1020782805860103</v>
+        <v>0.1023209382561737</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02556806605503137</v>
+        <v>0.026009647521297</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09719129356493306</v>
+        <v>0.1013170431820109</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05146602785193322</v>
+        <v>0.04548173944750461</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09680953289027877</v>
+        <v>0.1014513774874537</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07734106513713385</v>
+        <v>0.01905454057288093</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1000481411074414</v>
+        <v>0.1023209382561737</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02284979453393638</v>
+        <v>0.01870272106903252</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1028516008934801</v>
+        <v>0.1030960968793266</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02535636639079736</v>
+        <v>0.02567772198701934</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09792759124345528</v>
+        <v>0.1020845965394504</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05104318874118852</v>
+        <v>0.04509831127612379</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09754293844247786</v>
+        <v>0.1022199485290254</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07690593041328242</v>
+        <v>0.01870272106903252</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1008060815703766</v>
+        <v>0.1030960968793266</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0237367851815977</v>
+        <v>0.0182954178556418</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1036249212009498</v>
+        <v>0.1038712555024794</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02524178234001556</v>
+        <v>0.0251570341419691</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09866388892197749</v>
+        <v>0.1028521498968899</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05121766842578063</v>
+        <v>0.04432569643694123</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09827634399467694</v>
+        <v>0.102988519570597</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07719110482559788</v>
+        <v>0.0182954178556418</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1015640220333118</v>
+        <v>0.1038712555024794</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02463106114285641</v>
+        <v>0.01765682363874091</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1043982415084196</v>
+        <v>0.1046464141256322</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02492477814381515</v>
+        <v>0.02444737376943776</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09940018660049971</v>
+        <v>0.1036197032543294</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05068879384228697</v>
+        <v>0.0440648570610393</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09900974954687601</v>
+        <v>0.1037570906121686</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07699843982902366</v>
+        <v>0.01765682363874091</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1023219624962469</v>
+        <v>0.1046464141256322</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02253347777838382</v>
+        <v>0.0170111311243621</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1051715618158894</v>
+        <v>0.1054215727487851</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0249058180433253</v>
+        <v>0.02404853065271667</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1001364842790219</v>
+        <v>0.1043872566117688</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05085589192728515</v>
+        <v>0.04251675527950027</v>
       </c>
       <c r="M201" t="n">
-        <v>0.0997431550990751</v>
+        <v>0.1045256616537402</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07682978687850323</v>
+        <v>0.0170111311243621</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1030799029591821</v>
+        <v>0.1054215727487851</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02444489044885128</v>
+        <v>0.01638253301853763</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1059448821233592</v>
+        <v>0.1061967313719379</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02448536627967514</v>
+        <v>0.02366029457509727</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1008727819575442</v>
+        <v>0.1051548099692083</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05091828961735267</v>
+        <v>0.04178235322340662</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1004765606512742</v>
+        <v>0.1052942326953119</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07588699742898025</v>
+        <v>0.01638253301853763</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1038378434221173</v>
+        <v>0.1061967313719379</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02436615451493011</v>
+        <v>0.01559522202729967</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1067182024308289</v>
+        <v>0.1069718899950907</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02426388709399388</v>
+        <v>0.02328245531987094</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1016090796360664</v>
+        <v>0.1059223633266478</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05067531384906712</v>
+        <v>0.04116261302384056</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1012099662034733</v>
+        <v>0.1060628037368835</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07587192293539818</v>
+        <v>0.01559522202729967</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1045957838850524</v>
+        <v>0.1069718899950907</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02229812533729162</v>
+        <v>0.01467339085668046</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1074915227382987</v>
+        <v>0.1077470486182435</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02404184472741068</v>
+        <v>0.02241480267032911</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1023453773145886</v>
+        <v>0.1066899166840873</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05042629155900596</v>
+        <v>0.04115849681188444</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1019433717556723</v>
+        <v>0.1068313747784551</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07608641485270062</v>
+        <v>0.01467339085668046</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1053537243479876</v>
+        <v>0.1077470486182435</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02324165827660716</v>
+        <v>0.01404123221271221</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1082648430457685</v>
+        <v>0.1085222072413964</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02381970342105469</v>
+        <v>0.02205712640976315</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1030816749931108</v>
+        <v>0.1074574700415268</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05037054968374688</v>
+        <v>0.04017096671862047</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1026767773078714</v>
+        <v>0.1075999458200267</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07593232463583099</v>
+        <v>0.01404123221271221</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1061116648109227</v>
+        <v>0.1085222072413964</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02319760869354803</v>
+        <v>0.0130229388014271</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1090381633532383</v>
+        <v>0.1092973658645492</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02379792741605508</v>
+        <v>0.0219092163214645</v>
       </c>
       <c r="K206" t="n">
-        <v>0.103817972671633</v>
+        <v>0.1082250233989662</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04980741515986725</v>
+        <v>0.03910098487513131</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1034101828600705</v>
+        <v>0.1083685168615983</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07521150373973295</v>
+        <v>0.0130229388014271</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1068696052738579</v>
+        <v>0.1092973658645492</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0221659327669338</v>
+        <v>0.01234270332885742</v>
       </c>
       <c r="G207" t="n">
-        <v>0.109811483660708</v>
+        <v>0.1100725244877021</v>
       </c>
       <c r="J207" t="n">
-        <v>0.023476980953541</v>
+        <v>0.0213708621887245</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1045542703501553</v>
+        <v>0.1089925767564057</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04983621492394474</v>
+        <v>0.03884951341249887</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1041435884122696</v>
+        <v>0.1091370879031699</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07512580361935001</v>
+        <v>0.01234270332885742</v>
       </c>
       <c r="O207" t="n">
-        <v>0.107627545736793</v>
+        <v>0.1100725244877021</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02413730779370749</v>
+        <v>0.01152471850103536</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1105848039681778</v>
+        <v>0.1108476831108549</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02315732827464163</v>
+        <v>0.02054185379483459</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1052905680286775</v>
+        <v>0.1097601301138452</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04995627591255686</v>
+        <v>0.03831751446180592</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1048769939644687</v>
+        <v>0.1099056589447416</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07517402536959678</v>
+        <v>0.01152471850103536</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1083854861997282</v>
+        <v>0.1108476831108549</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02210905746892779</v>
+        <v>0.01089317702399314</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1113581242756476</v>
+        <v>0.1116228417340077</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02293943362048619</v>
+        <v>0.02022198092308622</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1060268657071997</v>
+        <v>0.1105276834712847</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04966692506228107</v>
+        <v>0.03770595015413436</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1056103995166678</v>
+        <v>0.1106742299863132</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07552959443884155</v>
+        <v>0.01089317702399314</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1091434266626634</v>
+        <v>0.1116228417340077</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02408118654905433</v>
+        <v>0.01047227160376295</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1121314445831174</v>
+        <v>0.1123980003571605</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02282376123220377</v>
+        <v>0.02011103335677078</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1067631633857219</v>
+        <v>0.1112952368287241</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04926748930969502</v>
+        <v>0.03641578262056683</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1063438050688668</v>
+        <v>0.1114428010278848</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07558592818467091</v>
+        <v>0.01047227160376295</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1099013671255985</v>
+        <v>0.1123980003571605</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02305369979054677</v>
+        <v>0.00998619494637705</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1129047648905871</v>
+        <v>0.1131731589803134</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02251077535092355</v>
+        <v>0.01940880087917954</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1074994610642441</v>
+        <v>0.1120627901861636</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0492572955913762</v>
+        <v>0.03674797399218549</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1070772106210659</v>
+        <v>0.1122113720694564</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07534302792384512</v>
+        <v>0.00998619494637705</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1106593075885337</v>
+        <v>0.1131731589803134</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02202660194986476</v>
+        <v>0.009956266308476541</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1136780851980569</v>
+        <v>0.1139483176034662</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02230094021777472</v>
+        <v>0.01921507327360406</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1082357587427664</v>
+        <v>0.1128303435436031</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04913567084390216</v>
+        <v>0.03590348640007285</v>
       </c>
       <c r="M212" t="n">
-        <v>0.107810616173265</v>
+        <v>0.112979943111028</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07520089497312427</v>
+        <v>0.009956266308476541</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1114172480514689</v>
+        <v>0.1139483176034662</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02399989778346796</v>
+        <v>0.009786513956365546</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1144514055055267</v>
+        <v>0.114723476226619</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02219472007388644</v>
+        <v>0.01872964032333571</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1089720564212886</v>
+        <v>0.1135978969010425</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04850035455690496</v>
+        <v>0.03538328197531104</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1085440217254641</v>
+        <v>0.1137485141525997</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07495953064926858</v>
+        <v>0.009786513956365546</v>
       </c>
       <c r="O213" t="n">
-        <v>0.112175188514404</v>
+        <v>0.114723476226619</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02197359204781601</v>
+        <v>0.009520231308317223</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1152247258129965</v>
+        <v>0.1154986348497719</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02189125263229852</v>
+        <v>0.01815229181166586</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1097083540998108</v>
+        <v>0.114365450258482</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04823778935795084</v>
+        <v>0.03428832284898242</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1092774272776632</v>
+        <v>0.1145170851941713</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07551893626903822</v>
+        <v>0.009520231308317223</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1129331289773392</v>
+        <v>0.1154986348497719</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02294768949936859</v>
+        <v>0.009257411491165365</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1159980461204662</v>
+        <v>0.1162737934729247</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02178525866727321</v>
+        <v>0.0180828175218859</v>
       </c>
       <c r="K215" t="n">
-        <v>0.110444651778333</v>
+        <v>0.1151330036159215</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04834530335205808</v>
+        <v>0.03431957115216944</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1100108328298622</v>
+        <v>0.1152856562357429</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07477911314919339</v>
+        <v>0.009257411491165365</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1136910694402744</v>
+        <v>0.1162737934729247</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02392219489458534</v>
+        <v>0.00909804763174378</v>
       </c>
       <c r="G216" t="n">
-        <v>0.116771366427936</v>
+        <v>0.1170489520960775</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02147615672660985</v>
+        <v>0.0178210072372873</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1111809494568552</v>
+        <v>0.115900556973361</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04762324592326708</v>
+        <v>0.03417798901595437</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1107442383820613</v>
+        <v>0.1160542272773145</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07534006260649417</v>
+        <v>0.00909804763174378</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1144490099032095</v>
+        <v>0.1170489520960775</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02189711298992591</v>
+        <v>0.009042132856886258</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1175446867354058</v>
+        <v>0.1178241107192304</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02146396863247443</v>
+        <v>0.01746665074116141</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1119172471353774</v>
+        <v>0.1166681103308004</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04757196645561843</v>
+        <v>0.03296453857141951</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1114776439342604</v>
+        <v>0.1168227983188861</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07460178595770084</v>
+        <v>0.009042132856886258</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1152069503661447</v>
+        <v>0.1178241107192304</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02187244854184995</v>
+        <v>0.00888966029342661</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1183180070428756</v>
+        <v>0.1185992693423832</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02104871620703294</v>
+        <v>0.01721953781679961</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1126535448138997</v>
+        <v>0.1174356636882399</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04709181433315249</v>
+        <v>0.03278018194964727</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1122110494864595</v>
+        <v>0.1175913693604577</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07446428451957354</v>
+        <v>0.00888966029342661</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1159648908290798</v>
+        <v>0.1185992693423832</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02184820630681713</v>
+        <v>0.00874062306819863</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1190913273503453</v>
+        <v>0.119374427965536</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02093042127245137</v>
+        <v>0.01657945824749338</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1133898424924219</v>
+        <v>0.1182032170456794</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04688313893990972</v>
+        <v>0.03242263655184041</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1129444550386586</v>
+        <v>0.1183599404020294</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07462755960887252</v>
+        <v>0.00874062306819863</v>
       </c>
       <c r="O219" t="n">
-        <v>0.116722831292015</v>
+        <v>0.119374427965536</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02282439104128711</v>
+        <v>0.008495014308036113</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1198646476578151</v>
+        <v>0.1201495865886888</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02070910565089568</v>
+        <v>0.01614620181653403</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1141261401709441</v>
+        <v>0.1189707704031189</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04604628965993066</v>
+        <v>0.03277024782290244</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1136778605908576</v>
+        <v>0.119128511443601</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0751916125423579</v>
+        <v>0.008495014308036113</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1174807717549502</v>
+        <v>0.1201495865886888</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02380100750171951</v>
+        <v>0.008552827139772852</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1206379679652849</v>
+        <v>0.1209247452118417</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02058479116453184</v>
+        <v>0.01581955830721304</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1148624378494663</v>
+        <v>0.1197383237605584</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04598161587725577</v>
+        <v>0.03161909211452868</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1144112661430567</v>
+        <v>0.1198970824851726</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0743564446367897</v>
+        <v>0.008552827139772852</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1182387122178853</v>
+        <v>0.1209247452118417</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.022778060444574</v>
+        <v>0.008314054690242656</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1214112882727547</v>
+        <v>0.1216999038349945</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02015749963552585</v>
+        <v>0.01589931750282181</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1155987355279886</v>
+        <v>0.1205058771179978</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0452894669759254</v>
+        <v>0.03206947683431044</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1151446716952558</v>
+        <v>0.1206656535267442</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07492205720892836</v>
+        <v>0.008314054690242656</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1189966526808205</v>
+        <v>0.1216999038349945</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02375555462631024</v>
+        <v>0.008278690086279322</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1221846085802244</v>
+        <v>0.1224750624581473</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02002725288604366</v>
+        <v>0.01538526918665173</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1163350332065108</v>
+        <v>0.1212734304754373</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04447019233998012</v>
+        <v>0.03082170938983897</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1158780772474549</v>
+        <v>0.1214342245683159</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07488845157553398</v>
+        <v>0.008278690086279322</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1197545931437557</v>
+        <v>0.1224750624581473</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02273349480338787</v>
+        <v>0.008146726454716653</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1229579288876942</v>
+        <v>0.1232502210813002</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01989407273825131</v>
+        <v>0.01507720314199412</v>
       </c>
       <c r="K224" t="n">
-        <v>0.117071330885033</v>
+        <v>0.1220409838328768</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04402414135346036</v>
+        <v>0.0305760971887058</v>
       </c>
       <c r="M224" t="n">
-        <v>0.116611482799654</v>
+        <v>0.1222027956098875</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07425562905336663</v>
+        <v>0.008146726454716653</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1205125336066908</v>
+        <v>0.1232502210813002</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02171188573226657</v>
+        <v>0.008018156922388449</v>
       </c>
       <c r="G225" t="n">
-        <v>0.123731249195164</v>
+        <v>0.124025379704453</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01945798101431472</v>
+        <v>0.01457490915214052</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1178076285635552</v>
+        <v>0.1228085371903163</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04335166340040658</v>
+        <v>0.03023294763850221</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1173448883518531</v>
+        <v>0.1229713666514591</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07452359095918659</v>
+        <v>0.008018156922388449</v>
       </c>
       <c r="O225" t="n">
-        <v>0.121270474069626</v>
+        <v>0.124025379704453</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02169073216940597</v>
+        <v>0.007892974616128506</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1245045695026338</v>
+        <v>0.1248005383276058</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01921899953639988</v>
+        <v>0.01437817700038224</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1185439262420774</v>
+        <v>0.1235760905477558</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04305310786485919</v>
+        <v>0.03039256814681951</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1180782939040522</v>
+        <v>0.1237399376930307</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07439233860975408</v>
+        <v>0.007892974616128506</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1220284145325611</v>
+        <v>0.1248005383276058</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02267003887126572</v>
+        <v>0.00757117266277061</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1252778898101035</v>
+        <v>0.1255756969507587</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01897715012667281</v>
+        <v>0.01408679647001074</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1192802239205996</v>
+        <v>0.1243436439051952</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04252882413085882</v>
+        <v>0.02995526612124916</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1188116994562512</v>
+        <v>0.1245085087346023</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07496187332182913</v>
+        <v>0.00757117266277061</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1227863549954963</v>
+        <v>0.1255756969507587</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02264981059430551</v>
+        <v>0.007552744189148579</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1260512101175733</v>
+        <v>0.1263508555739115</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01893245460729943</v>
+        <v>0.01380051423998876</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1200165215991219</v>
+        <v>0.1251111972626347</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04147916158244574</v>
+        <v>0.02942134896938242</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1195451050084503</v>
+        <v>0.1252770797761739</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0745321964121719</v>
+        <v>0.007552744189148579</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1235442954584315</v>
+        <v>0.1263508555739115</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02163005209498494</v>
+        <v>0.007337682322096216</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1268245304250431</v>
+        <v>0.1271260141970643</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01868493480044578</v>
+        <v>0.01351732345919207</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1207528192776441</v>
+        <v>0.1258787506200742</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0410044696036605</v>
+        <v>0.02919112409881064</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1202785105606494</v>
+        <v>0.1260456508177455</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07450330919754278</v>
+        <v>0.007337682322096216</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1243022359213666</v>
+        <v>0.1271260141970643</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0226107681297637</v>
+        <v>0.007425980188447291</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1275978507325128</v>
+        <v>0.1279011728202172</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01823461252827779</v>
+        <v>0.01313633301782555</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1214891169561663</v>
+        <v>0.1266463039775136</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04040509757854355</v>
+        <v>0.02926489891712519</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1210119161128485</v>
+        <v>0.1268142218593172</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07407521299470182</v>
+        <v>0.007425980188447291</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1250601763843018</v>
+        <v>0.1279011728202172</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02259196345510144</v>
+        <v>0.007217630915035633</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1283711710399826</v>
+        <v>0.12867633144337</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01798150961296149</v>
+        <v>0.01285769838596107</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1222254146346885</v>
+        <v>0.1274138573349531</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03948139489113539</v>
+        <v>0.02894298083191749</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1217453216650475</v>
+        <v>0.1275827929008888</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07424790912040929</v>
+        <v>0.007217630915035633</v>
       </c>
       <c r="O231" t="n">
-        <v>0.125818116847237</v>
+        <v>0.12867633144337</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02157364282745781</v>
+        <v>0.007012627628695027</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1291444913474524</v>
+        <v>0.1294514900665228</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0179256478766628</v>
+        <v>0.01268157503367043</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1229617123132108</v>
+        <v>0.1281814106923926</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03863371092547643</v>
+        <v>0.02812567725077886</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1224787272172466</v>
+        <v>0.1283513639424604</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07422139889142521</v>
+        <v>0.007012627628695027</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1265760573101721</v>
+        <v>0.1294514900665228</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02255581100329247</v>
+        <v>0.006910963456259266</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1299178116549222</v>
+        <v>0.1302266486896757</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01746704914154774</v>
+        <v>0.01270811843102537</v>
       </c>
       <c r="K233" t="n">
-        <v>0.123698009991733</v>
+        <v>0.1289489640498321</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03796239506560714</v>
+        <v>0.02831329558130058</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1232121327694457</v>
+        <v>0.129119934984032</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07419568362450985</v>
+        <v>0.006910963456259266</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1273339977731073</v>
+        <v>0.1302266486896757</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02253847273906506</v>
+        <v>0.006812631524562164</v>
       </c>
       <c r="G234" t="n">
-        <v>0.130691131962392</v>
+        <v>0.1310018073128285</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01740573522978228</v>
+        <v>0.01243748404809772</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1244343076702552</v>
+        <v>0.1297165174072716</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03736779669556803</v>
+        <v>0.02800614323107409</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1239455383216448</v>
+        <v>0.1298885060256036</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07417076463642336</v>
+        <v>0.006812631524562164</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1280919382360425</v>
+        <v>0.1310018073128285</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02252163279123524</v>
+        <v>0.00671762496043752</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1314644522698617</v>
+        <v>0.1317769659359813</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01694172796353242</v>
+        <v>0.01176982735495927</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1251706053487774</v>
+        <v>0.1304840707647111</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03665026519939948</v>
+        <v>0.02770452760769071</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1246789438738439</v>
+        <v>0.1306570770671753</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07414664324392595</v>
+        <v>0.00671762496043752</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1288498786989776</v>
+        <v>0.1317769659359813</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02250529591626265</v>
+        <v>0.006625936890719122</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1322377725773315</v>
+        <v>0.1325521245591341</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0166750491649641</v>
+        <v>0.01180530382168193</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1259069030272996</v>
+        <v>0.1312516241221505</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03541014996114208</v>
+        <v>0.02670875611874185</v>
       </c>
       <c r="M236" t="n">
-        <v>0.125412349426043</v>
+        <v>0.1314256481087469</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07412332076377781</v>
+        <v>0.006625936890719122</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1296078191619128</v>
+        <v>0.1325521245591341</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02348946687060697</v>
+        <v>0.006537560442240777</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1330110928848013</v>
+        <v>0.133327283182287</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01650572065624334</v>
+        <v>0.01124406891833737</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1266432007058219</v>
+        <v>0.13201917747959</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03484780036483615</v>
+        <v>0.02631913617181875</v>
       </c>
       <c r="M237" t="n">
-        <v>0.126145754978242</v>
+        <v>0.1321942191503185</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07410079851273904</v>
+        <v>0.006537560442240777</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1303657596248479</v>
+        <v>0.133327283182287</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02147415041072784</v>
+        <v>0.006452488741836279</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1337844131922711</v>
+        <v>0.1341024418054398</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01623376425953607</v>
+        <v>0.01108627811499746</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1273794983843441</v>
+        <v>0.1327867308370295</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0339635657945222</v>
+        <v>0.02623597517451298</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1268791605304411</v>
+        <v>0.1329627901918901</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07387907780756986</v>
+        <v>0.006452488741836279</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1311237000877831</v>
+        <v>0.1341024418054398</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02245935129308491</v>
+        <v>0.006370714916339434</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1345577334997408</v>
+        <v>0.1348776004285926</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01605920179700832</v>
+        <v>0.01083208688173401</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1281157960628663</v>
+        <v>0.1335542841944689</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03275779563424078</v>
+        <v>0.02615958053441558</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1276125660826402</v>
+        <v>0.1337313612334618</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07425815996503049</v>
+        <v>0.006370714916339434</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1318816405507182</v>
+        <v>0.1348776004285926</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02244507427413787</v>
+        <v>0.006492232092584024</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1353310538072106</v>
+        <v>0.1356527590517455</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01568205509082604</v>
+        <v>0.01088165068861879</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1288520937413885</v>
+        <v>0.1343218375519084</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03203083926803224</v>
+        <v>0.02629025965911824</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1283459716348393</v>
+        <v>0.1344999322750334</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07393804630188106</v>
+        <v>0.006492232092584024</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1326395810136534</v>
+        <v>0.1356527590517455</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0224313241103463</v>
+        <v>0.006217033397403871</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1361043741146804</v>
+        <v>0.1364279176748983</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01540234596315525</v>
+        <v>0.01063512500572361</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1295883914199107</v>
+        <v>0.1350893909093479</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03138304607993705</v>
+        <v>0.02582831995621204</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1290793771870384</v>
+        <v>0.135268503316605</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0745187381348818</v>
+        <v>0.006217033397403871</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1333975214765886</v>
+        <v>0.1364279176748983</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02341810555816993</v>
+        <v>0.006345111957632758</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1368776944221502</v>
+        <v>0.1372030762980511</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01522009623616186</v>
+        <v>0.01019266530312035</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1303246890984329</v>
+        <v>0.1358569442667874</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02991476545399574</v>
+        <v>0.0250740688332885</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1298127827392375</v>
+        <v>0.1360370743581766</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07450023678079276</v>
+        <v>0.006345111957632758</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1341554619395237</v>
+        <v>0.1372030762980511</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02340542337406836</v>
+        <v>0.006276460900104495</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1376510147296199</v>
+        <v>0.137978234921204</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01493532773201191</v>
+        <v>0.00965442705088071</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1310609867769552</v>
+        <v>0.1366244976242268</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02932634677424878</v>
+        <v>0.02512781369793893</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1305461882914365</v>
+        <v>0.1368056453997482</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07388254355637425</v>
+        <v>0.006276460900104495</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1349134024024589</v>
+        <v>0.137978234921204</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02239328231450127</v>
+        <v>0.006211073351652885</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1384243350370897</v>
+        <v>0.1387533935443568</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01454806227287136</v>
+        <v>0.009820565719076579</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1317972844554774</v>
+        <v>0.1373920509816663</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02841813942473656</v>
+        <v>0.02508986195775464</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1312795938436356</v>
+        <v>0.1375742164413198</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07406565977838647</v>
+        <v>0.006211073351652885</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1356713428653941</v>
+        <v>0.1387533935443568</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0223816871359283</v>
+        <v>0.005948942439111704</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1391976553445595</v>
+        <v>0.1395285521675096</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01425832168090617</v>
+        <v>0.009191236777779666</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1325335821339996</v>
+        <v>0.1381596043391058</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02739049278949957</v>
+        <v>0.02476052102032694</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1320129993958347</v>
+        <v>0.1383427874828915</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07404958676358941</v>
+        <v>0.005948942439111704</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1364292833283292</v>
+        <v>0.1395285521675096</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02137064259480913</v>
+        <v>0.006090061289314774</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1399709756520293</v>
+        <v>0.1403037107906625</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01406612777828238</v>
+        <v>0.009066595697061863</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1332698798125218</v>
+        <v>0.1389271576965453</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02634375625257829</v>
+        <v>0.02434009829324746</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1327464049480338</v>
+        <v>0.1391113585244631</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07413432582874346</v>
+        <v>0.006090061289314774</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1371872237912644</v>
+        <v>0.1403037107906625</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0223601534476034</v>
+        <v>0.00593442302909588</v>
       </c>
       <c r="G247" t="n">
-        <v>0.140744295959499</v>
+        <v>0.1410788694138153</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01357150238716588</v>
+        <v>0.008846797946994944</v>
       </c>
       <c r="K247" t="n">
-        <v>0.134006177491044</v>
+        <v>0.1396947110539848</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02517827919801316</v>
+        <v>0.02422890118410725</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1334798105002328</v>
+        <v>0.1398799295660347</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07451987829060869</v>
+        <v>0.00593442302909588</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1379451642541996</v>
+        <v>0.1410788694138153</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02235022445077074</v>
+        <v>0.005882020785288829</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1415176162669688</v>
+        <v>0.1418540280369681</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01347446732972271</v>
+        <v>0.008531998997650753</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1347424751695663</v>
+        <v>0.1404622644114243</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02379441100984467</v>
+        <v>0.02362723710049786</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1342132160524319</v>
+        <v>0.1406485006076063</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07420624546594529</v>
+        <v>0.005882020785288829</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1387031047171347</v>
+        <v>0.1418540280369681</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02234086036077083</v>
+        <v>0.005732847684727427</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1422909365744386</v>
+        <v>0.1426291866601209</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01317504442811886</v>
+        <v>0.008322354319100972</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1354787728480885</v>
+        <v>0.1412298177688637</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02309250107211322</v>
+        <v>0.02373541345001051</v>
       </c>
       <c r="M249" t="n">
-        <v>0.134946621604631</v>
+        <v>0.1414170716491779</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07379342867151345</v>
+        <v>0.005732847684727427</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1394610451800699</v>
+        <v>0.1426291866601209</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0213320659340633</v>
+        <v>0.005786896854245445</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1430642568819084</v>
+        <v>0.1434043452832738</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01267325550452029</v>
+        <v>0.008618019381417569</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1362150705266107</v>
+        <v>0.1419973711263032</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02187289876885937</v>
+        <v>0.02405373764023661</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1356800271568301</v>
+        <v>0.1421856426907496</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07448142922407336</v>
+        <v>0.005786896854245445</v>
       </c>
       <c r="O250" t="n">
-        <v>0.140218985643005</v>
+        <v>0.1434043452832738</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02232384592710782</v>
+        <v>0.005744161420676713</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1438375771893781</v>
+        <v>0.1441795039064266</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01236912238109295</v>
+        <v>0.008119149654672225</v>
       </c>
       <c r="K251" t="n">
-        <v>0.136951368205133</v>
+        <v>0.1427649244837427</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02033595348412351</v>
+        <v>0.02308251707876746</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1364134327090292</v>
+        <v>0.1429542137323212</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07437024844038514</v>
+        <v>0.005744161420676713</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1409769261059402</v>
+        <v>0.1441795039064266</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02131620509636407</v>
+        <v>0.005604634510855022</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1446108974968479</v>
+        <v>0.1449546625295794</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01206266688000288</v>
+        <v>0.007925900608936803</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1376876658836552</v>
+        <v>0.1435324778411821</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01968201460194616</v>
+        <v>0.02292205917319451</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1371468382612283</v>
+        <v>0.1437227847738928</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07395988763720901</v>
+        <v>0.005604634510855022</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1417348665688754</v>
+        <v>0.1449546625295794</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02330914819829166</v>
+        <v>0.005568309251614161</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1453842178043177</v>
+        <v>0.1457298211527323</v>
       </c>
       <c r="J253" t="n">
-        <v>0.011753910823416</v>
+        <v>0.007538427714283091</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1384239635621774</v>
+        <v>0.1443000311986216</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01821143150636767</v>
+        <v>0.0228726713311091</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1378802438134273</v>
+        <v>0.1444913558154644</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0738503481313052</v>
+        <v>0.005568309251614161</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1424928070318105</v>
+        <v>0.1457298211527323</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02130267998935027</v>
+        <v>0.005535178769787943</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1461575381117874</v>
+        <v>0.1465049797758851</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01154287603349834</v>
+        <v>0.007556886440782895</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1391602612406996</v>
+        <v>0.1450675845560611</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01682455358142865</v>
+        <v>0.02353466096010254</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1386136493656264</v>
+        <v>0.145259926857036</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07394163123943376</v>
+        <v>0.005535178769787943</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1432507474947457</v>
+        <v>0.1465049797758851</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02129680522599953</v>
+        <v>0.005605236192210143</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1469308584192572</v>
+        <v>0.1472801383990379</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01132958433241585</v>
+        <v>0.007681432258508064</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1398965589192218</v>
+        <v>0.1458351379135006</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0161217302111695</v>
+        <v>0.02310833546776625</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1393470549178255</v>
+        <v>0.1460284978986077</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07383373827835499</v>
+        <v>0.005605236192210143</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1440086879576809</v>
+        <v>0.1472801383990379</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02329152866469913</v>
+        <v>0.005478474645714597</v>
       </c>
       <c r="G256" t="n">
-        <v>0.147704178726727</v>
+        <v>0.1480552970221908</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01091405754233452</v>
+        <v>0.007212220637530325</v>
       </c>
       <c r="K256" t="n">
-        <v>0.140632856597744</v>
+        <v>0.1466026912709401</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01480331077963065</v>
+        <v>0.02269400226169149</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1400804604700246</v>
+        <v>0.1467970689401793</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07402667056482898</v>
+        <v>0.005478474645714597</v>
       </c>
       <c r="O256" t="n">
-        <v>0.144766628420616</v>
+        <v>0.1480552970221908</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02128685506190869</v>
+        <v>0.005454887257135076</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1484774990341968</v>
+        <v>0.1488304556453436</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01059631748542031</v>
+        <v>0.006949407047921491</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1413691542762663</v>
+        <v>0.1473702446283795</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01366964467085258</v>
+        <v>0.02239196874946964</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1408138660222237</v>
+        <v>0.1475656399817509</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07412042941561603</v>
+        <v>0.005454887257135076</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1455245688835512</v>
+        <v>0.1488304556453436</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02328278917408789</v>
+        <v>0.005434467153305388</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1492508193416666</v>
+        <v>0.1496056142684964</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01037638598383924</v>
+        <v>0.006693146959753427</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1421054519547885</v>
+        <v>0.148137797985819</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01242108126887573</v>
+        <v>0.02240254233869221</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1415472715744228</v>
+        <v>0.1483342110233225</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07361501614747618</v>
+        <v>0.005434467153305388</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1462825093464863</v>
+        <v>0.1496056142684964</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02327933575769636</v>
+        <v>0.005617207461059336</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1500241396491363</v>
+        <v>0.1503807728916493</v>
       </c>
       <c r="J259" t="n">
-        <v>0.009854284859757249</v>
+        <v>0.007043595843097938</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1428417496333107</v>
+        <v>0.1489053513432585</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01115796995774065</v>
+        <v>0.02212603043695027</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1422806771266218</v>
+        <v>0.1491027820648942</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0743104320771697</v>
+        <v>0.005617207461059336</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1470404498094215</v>
+        <v>0.1503807728916493</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02227649956919375</v>
+        <v>0.005403101307230707</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1507974599566061</v>
+        <v>0.1511559315148021</v>
       </c>
       <c r="J260" t="n">
-        <v>0.009630035935340356</v>
+        <v>0.00690090916802677</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1435780473118329</v>
+        <v>0.1496729047006979</v>
       </c>
       <c r="L260" t="n">
-        <v>0.009680660121487716</v>
+        <v>0.02296274045183538</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1430140826788209</v>
+        <v>0.1498713531064658</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07420667852145663</v>
+        <v>0.005403101307230707</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1477983902723567</v>
+        <v>0.1511559315148021</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02127428536503975</v>
+        <v>0.005392141818653315</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1515707802640759</v>
+        <v>0.1519310901379549</v>
       </c>
       <c r="J261" t="n">
-        <v>0.009303661032754505</v>
+        <v>0.006265242404611709</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1443143449903551</v>
+        <v>0.1504404580581374</v>
       </c>
       <c r="L261" t="n">
-        <v>0.00838950114415743</v>
+        <v>0.02241297979093881</v>
       </c>
       <c r="M261" t="n">
-        <v>0.14374748823102</v>
+        <v>0.1506399241480374</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07370375679709729</v>
+        <v>0.005392141818653315</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1485563307352918</v>
+        <v>0.1519310901379549</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02127269790169397</v>
+        <v>0.005384322122160945</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1523441005715457</v>
+        <v>0.1527062487611077</v>
       </c>
       <c r="J262" t="n">
-        <v>0.008975181974165691</v>
+        <v>0.006136751022924658</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1450506426688773</v>
+        <v>0.1512080114155769</v>
       </c>
       <c r="L262" t="n">
-        <v>0.00708484240979021</v>
+        <v>0.022477055861852</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1444808937832191</v>
+        <v>0.151408495189609</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07420166822085184</v>
+        <v>0.005384322122160945</v>
       </c>
       <c r="O262" t="n">
-        <v>0.149314271198227</v>
+        <v>0.1527062487611077</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0222717419356161</v>
+        <v>0.005379635344587401</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1531174208790154</v>
+        <v>0.1534814073842606</v>
       </c>
       <c r="J263" t="n">
-        <v>0.008744620581739908</v>
+        <v>0.00641559049303736</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1457869403473996</v>
+        <v>0.1519755647730164</v>
       </c>
       <c r="L263" t="n">
-        <v>0.00596703330242665</v>
+        <v>0.02235527607216631</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1452142993354182</v>
+        <v>0.1521770662311806</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0745004141094805</v>
+        <v>0.005379635344587401</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1500722116611622</v>
+        <v>0.1534814073842606</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02127142222326577</v>
+        <v>0.005578074612766486</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1538907411864852</v>
+        <v>0.1542565660074134</v>
       </c>
       <c r="J264" t="n">
-        <v>0.008211998677643106</v>
+        <v>0.00610191628502163</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1465232380259218</v>
+        <v>0.1527431181304559</v>
       </c>
       <c r="L264" t="n">
-        <v>0.004136423206107076</v>
+        <v>0.02214794782947299</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1459477048876172</v>
+        <v>0.1529456372727522</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07369999577974334</v>
+        <v>0.005578074612766486</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1508301521240973</v>
+        <v>0.1542565660074134</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1307.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1307.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8608268990399346</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06886615192319477</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.06355802365987898</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01268516043718911</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008622888820994023</v>
+        <v>0.009216227987846293</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001964354883427132</v>
+        <v>0.001763180356753942</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007751586231528313</v>
+        <v>0.001628534856809531</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.006002044488128522</v>
+        <v>0.003948186018040749</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007675533574394767</v>
+        <v>0.001636022404609299</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01075774414512198</v>
+        <v>0.01104002807847668</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007685710415716193</v>
+        <v>0.001639456463200125</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001964354883427132</v>
+        <v>0.02070915752838831</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007751586231528313</v>
+        <v>0.002119162894034001</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004171235212118221</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001550317246305663</v>
+        <v>0.003072075995948764</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01209052936467883</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001535106714878953</v>
+        <v>0.003568749999999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02036057048398426</v>
+        <v>0.01644594441066555</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001537142083143239</v>
+        <v>0.002775010123667265</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.004171235212118221</v>
+        <v>0.02562660633392427</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001550317246305663</v>
+        <v>0.003280143771773307</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005983763370536535</v>
+        <v>0.007049708880390027</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002325475869458494</v>
+        <v>0.004885604570428594</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01708799423142068</v>
+        <v>0.008866777966788898</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00230266007231843</v>
+        <v>0.004908067213827897</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02889115822928717</v>
+        <v>0.0206923933977958</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002305713124714858</v>
+        <v>0.004918369389600375</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005983763370536535</v>
+        <v>0.03041131497090183</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002325475869458494</v>
+        <v>0.00492021565765996</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007365061743145385</v>
+        <v>0.009028830831448308</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003100634492611325</v>
+        <v>0.006514139427238125</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01999999999999999</v>
+        <v>0.01007727784119893</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002910295616717633</v>
+        <v>0.006544089618437196</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03513218659373091</v>
+        <v>0.02342830773272189</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003074284166286477</v>
+        <v>0.006557825852800501</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.007365061743145385</v>
+        <v>0.03491210132116496</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003100634492611325</v>
+        <v>0.006560287543546614</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004758333333333331</v>
+        <v>0.003072075995948764</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008778252714408026</v>
+        <v>0.01266782998991282</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003875793115764156</v>
+        <v>0.008142674284047658</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02347784708695444</v>
+        <v>0.01112962909677324</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003837766787197384</v>
+        <v>0.008180112023046493</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03999999999999998</v>
+        <v>0.02513972735193712</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003965277777777776</v>
+        <v>0.008197282316000627</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008778252714408026</v>
+        <v>0.03870325937595381</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003875793115764156</v>
+        <v>0.008200359429433268</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004758333333333331</v>
+        <v>0.009216227987846293</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02566624292606992</v>
+        <v>0.01206935374596196</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00460532014463686</v>
+        <v>0.009816134427655793</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04091244252927601</v>
+        <v>0.02676989864861912</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004611426249429716</v>
+        <v>0.00983673877920075</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.04135908312650821</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004758333333333331</v>
+        <v>0.00984043131531992</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01053207934711969</v>
+        <v>0.01516647407550992</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005426110362069819</v>
+        <v>0.01139974399766672</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02764407695683069</v>
+        <v>0.01268516043718911</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005372873502076336</v>
+        <v>0.01070624999999999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04257869223169491</v>
+        <v>0.02885253405379923</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005379997291001335</v>
+        <v>0.01138962765957446</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01053207934711969</v>
+        <v>0.04501990767040936</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005426110362069819</v>
+        <v>0.01151209677419354</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01124898147413907</v>
+        <v>0.01630302999188871</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00620126898522265</v>
+        <v>0.01302827885447625</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02885253405379923</v>
+        <v>0.01390645341477748</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005997814527712011</v>
+        <v>0.01308817923687439</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04501990767040936</v>
+        <v>0.03055816248267251</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006375587122967198</v>
+        <v>0.013115651705601</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01124898147413907</v>
+        <v>0.04830523582667584</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00620126898522265</v>
+        <v>0.01312057508709323</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01176865885724383</v>
+        <v>0.01638219474897862</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006976427608375481</v>
+        <v>0.01465681371128578</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02976066909155847</v>
+        <v>0.01498097915433742</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006907980216955291</v>
+        <v>0.01472420164148369</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04592297367831977</v>
+        <v>0.03299902176931399</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006917139374144574</v>
+        <v>0.01475510816880113</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01176865885724383</v>
+        <v>0.05126903070942185</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006976427608375481</v>
+        <v>0.01476064697297988</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01222076814187401</v>
+        <v>0.01840082777137297</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007751586231528313</v>
+        <v>0.01628534856809532</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03104331589472531</v>
+        <v>0.01604281094991113</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007675533574394768</v>
+        <v>0.01636022404609299</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04631227294844298</v>
+        <v>0.03515600263809776</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007685710415716193</v>
+        <v>0.01639456463200125</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01222076814187401</v>
+        <v>0.05440921854024128</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007751586231528313</v>
+        <v>0.01640071885886654</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01268516043718911</v>
+        <v>0.01835578848366506</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008622888820994023</v>
+        <v>0.01791388342490485</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03200700163733006</v>
+        <v>0.01698212135170153</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008443086931834244</v>
+        <v>0.01799624645070229</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04760919396495428</v>
+        <v>0.03740104726730051</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008454281457287813</v>
+        <v>0.01803402109520138</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01268516043718911</v>
+        <v>0.05818987269531495</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008622888820994023</v>
+        <v>0.01804079074475319</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01293995955803355</v>
+        <v>0.02024393631044821</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009301903477833974</v>
+        <v>0.01954241828171438</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03295155071886274</v>
+        <v>0.01778908290991156</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00921064028927372</v>
+        <v>0.01963226885531159</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04981221179517775</v>
+        <v>0.03940609783519888</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009222852498859431</v>
+        <v>0.0196734775584015</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01293995955803355</v>
+        <v>0.06127506655082388</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009301903477833974</v>
+        <v>0.01968086263063984</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01344622327430979</v>
+        <v>0.0210621306763157</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01007706210098681</v>
+        <v>0.02117095313852391</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03387678753881321</v>
+        <v>0.01855386817474415</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009978193646713197</v>
+        <v>0.02126829125992089</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05101980150643753</v>
+        <v>0.04134309652006968</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00999142354043105</v>
+        <v>0.02131293402160163</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01344622327430979</v>
+        <v>0.06492887348294896</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01007706210098681</v>
+        <v>0.02132093451652649</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01375333601197404</v>
+        <v>0.02080723100586088</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01085222072413964</v>
+        <v>0.02279948799533344</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03498253649667138</v>
+        <v>0.01956664969640229</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01074574700415267</v>
+        <v>0.02290431366453018</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05153043816605779</v>
+        <v>0.0434839855001895</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01075999458200267</v>
+        <v>0.02295239048480175</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01375333601197404</v>
+        <v>0.06771536686787105</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01085222072413964</v>
+        <v>0.02296100640241315</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01426081842816775</v>
+        <v>0.02047609672367704</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01162737934729247</v>
+        <v>0.02442802285214297</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03606862199192726</v>
+        <v>0.02011760002508885</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01151330036159215</v>
+        <v>0.02454033606913948</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0528425968413625</v>
+        <v>0.04510070695383508</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01152856562357429</v>
+        <v>0.02459184694800188</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01426081842816775</v>
+        <v>0.07039862008177106</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01162737934729247</v>
+        <v>0.0246010782882998</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01466819118003226</v>
+        <v>0.02306558725435748</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0124025379704453</v>
+        <v>0.0260565577089525</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03693486842407068</v>
+        <v>0.02079689171100681</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01228085371903163</v>
+        <v>0.02617635847374878</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05475475259967594</v>
+        <v>0.04686520305928316</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01229713666514591</v>
+        <v>0.026231303411202</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01466819118003226</v>
+        <v>0.0729427065008299</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0124025379704453</v>
+        <v>0.02624115017418645</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01487497492470903</v>
+        <v>0.02157256202249552</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01317769659359813</v>
+        <v>0.02768509256576203</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03778110019259162</v>
+        <v>0.02139469730435911</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01304840707647111</v>
+        <v>0.02781238087835808</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05586538050832218</v>
+        <v>0.04854941599481033</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01306570770671753</v>
+        <v>0.02787075987440213</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01487497492470903</v>
+        <v>0.0748116995012284</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01317769659359813</v>
+        <v>0.02788122206007311</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01528069031933947</v>
+        <v>0.02299388045268447</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01395285521675096</v>
+        <v>0.02931362742257156</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03880714169697994</v>
+        <v>0.02200118935534869</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01381596043391058</v>
+        <v>0.02944840328296738</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05757295563462528</v>
+        <v>0.0495252879386934</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01383427874828915</v>
+        <v>0.02951021633760225</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01528069031933947</v>
+        <v>0.07736967245914766</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01395285521675096</v>
+        <v>0.02952129394595976</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.015784858021065</v>
+        <v>0.02433400974442698</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01472801383990379</v>
+        <v>0.0309421622793811</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04011281733672561</v>
+        <v>0.02250654041417849</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01458351379135006</v>
+        <v>0.03108442568757668</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05847595304590941</v>
+        <v>0.05076476106920899</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01460284978986077</v>
+        <v>0.03114967280080238</v>
       </c>
       <c r="N84" t="n">
-        <v>0.015784858021065</v>
+        <v>0.07848069875076835</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01472801383990379</v>
+        <v>0.03116136583184641</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01618699868702698</v>
+        <v>0.02265245480826757</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01550317246305663</v>
+        <v>0.03257069713619063</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04099795151131858</v>
+        <v>0.02282072875386804</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01535106714878954</v>
+        <v>0.03272044809218597</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05937284780949864</v>
+        <v>0.05154665085770885</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01537142083143239</v>
+        <v>0.03278912926400251</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01618699868702698</v>
+        <v>0.07971368484180907</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01550317246305663</v>
+        <v>0.03280143771773307</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01668663297436689</v>
+        <v>0.02396082759705855</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01627833108620946</v>
+        <v>0.03419923199300016</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04176236862024874</v>
+        <v>0.02291848838592278</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01611862050622901</v>
+        <v>0.03435647049679528</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06156211499271719</v>
+        <v>0.0518325942396439</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01613999187300401</v>
+        <v>0.03442858572720263</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01668663297436689</v>
+        <v>0.08088632250162703</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01627833108620946</v>
+        <v>0.03444150960361972</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0169832815402261</v>
+        <v>0.02325703976832882</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01705348970936229</v>
+        <v>0.03582776684980969</v>
       </c>
       <c r="J87" t="n">
-        <v>0.042605893063006</v>
+        <v>0.02340637922974113</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01688617386366849</v>
+        <v>0.03599249290140458</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06214222966288907</v>
+        <v>0.0528976871657067</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01690856291457563</v>
+        <v>0.03606804219040276</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0169832815402261</v>
+        <v>0.08182687491044233</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01705348970936229</v>
+        <v>0.03608158148950637</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01737646504174604</v>
+        <v>0.02553900297960723</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01782864833251512</v>
+        <v>0.03745630170661923</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04322834923908023</v>
+        <v>0.02348242031548652</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01765372722110796</v>
+        <v>0.03762851530601388</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06321166688733842</v>
+        <v>0.05313739546604784</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01767713395614724</v>
+        <v>0.03770749865360288</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01737646504174604</v>
+        <v>0.08342825922860519</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01782864833251512</v>
+        <v>0.03772165337539303</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01766570413606811</v>
+        <v>0.0248046288884226</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01860380695566795</v>
+        <v>0.03908483656342875</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04412956154796147</v>
+        <v>0.02384463067332235</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01842128057854744</v>
+        <v>0.03926453771062317</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06496890173338932</v>
+        <v>0.05424718497081804</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01844570499771886</v>
+        <v>0.039346955116803</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01766570413606811</v>
+        <v>0.08458339261646547</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01860380695566795</v>
+        <v>0.03936172526127968</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01805051948033372</v>
+        <v>0.02405182915230381</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01937896557882078</v>
+        <v>0.04071337142023829</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0451093543891396</v>
+        <v>0.02399102933341202</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01918883393598692</v>
+        <v>0.04090056011523247</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06591240926836606</v>
+        <v>0.054822521510168</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01921427603929048</v>
+        <v>0.04098641158000313</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01805051948033372</v>
+        <v>0.08458519223437322</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01937896557882078</v>
+        <v>0.04100179714716633</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0185304317316843</v>
+        <v>0.02427851542877974</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02015412420197361</v>
+        <v>0.04234190627704781</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04566755216210452</v>
+        <v>0.02431963532591896</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01995638729342639</v>
+        <v>0.04253658251984177</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06704066455959251</v>
+        <v>0.05535887091424832</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0199828470808621</v>
+        <v>0.04262586804320325</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0185304317316843</v>
+        <v>0.0859265752426786</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02015412420197361</v>
+        <v>0.04264186903305298</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01880496154726126</v>
+        <v>0.0264825993753792</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02092928282512644</v>
+        <v>0.04397044113385735</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04640397926634615</v>
+        <v>0.02442846768100657</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02072394065086587</v>
+        <v>0.04417260492445107</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06895214267439298</v>
+        <v>0.05585169901320977</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02075141812243372</v>
+        <v>0.04426532450640338</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01880496154726126</v>
+        <v>0.08690045880173153</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02092928282512644</v>
+        <v>0.04428194091893965</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01937362958420598</v>
+        <v>0.02566199264963106</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02170444144827928</v>
+        <v>0.04559897599066688</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04731846010135443</v>
+        <v>0.02471554542883821</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02149149400830535</v>
+        <v>0.04580862732906037</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06944531868009146</v>
+        <v>0.05599647163720292</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02151998916400534</v>
+        <v>0.04590478096960351</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01937362958420598</v>
+        <v>0.08749976007188204</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02170444144827928</v>
+        <v>0.04592201280482629</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01963595649965991</v>
+        <v>0.02481460690906419</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02247960007143211</v>
+        <v>0.04722751084747641</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04771081906661931</v>
+        <v>0.02497888759957734</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02225904736574483</v>
+        <v>0.04744464973366967</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07091866764401217</v>
+        <v>0.05648865461637845</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02228856020557696</v>
+        <v>0.04754423743280363</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01963595649965991</v>
+        <v>0.08761739621348008</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02247960007143211</v>
+        <v>0.04756208469071295</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01999146295076445</v>
+        <v>0.02693835381120744</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02325475869458494</v>
+        <v>0.04885604570428594</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04858088056163065</v>
+        <v>0.02501651322338734</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0230266007231843</v>
+        <v>0.04908067213827896</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07257066463347916</v>
+        <v>0.05672371378088706</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02305713124714858</v>
+        <v>0.04918369389600376</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01999146295076445</v>
+        <v>0.08854628438687584</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02325475869458494</v>
+        <v>0.0492021565765996</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02043966959466101</v>
+        <v>0.02503114501358965</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02402991731773777</v>
+        <v>0.05048458056109548</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04912846898587839</v>
+        <v>0.02512644133043163</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02379415408062378</v>
+        <v>0.05071669454288827</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07279978471581655</v>
+        <v>0.05729711496087944</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0238257022887202</v>
+        <v>0.05082315035920388</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02043966959466101</v>
+        <v>0.08867934175241921</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02402991731773777</v>
+        <v>0.05084222846248626</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02078009708849099</v>
+        <v>0.02711604731975793</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0248050759408906</v>
+        <v>0.052113115417905</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04975340873885251</v>
+        <v>0.02530669095087361</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02456170743806325</v>
+        <v>0.05235271694749757</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07400450295834843</v>
+        <v>0.05750432398650618</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02459427333029182</v>
+        <v>0.05246260682240401</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02078009708849099</v>
+        <v>0.08950948547046028</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0248050759408906</v>
+        <v>0.05248230034837291</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0210122660893958</v>
+        <v>0.02511550694918641</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02558023456404343</v>
+        <v>0.05374165027471454</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0502555242200429</v>
+        <v>0.0253703208743782</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02532926079550273</v>
+        <v>0.05398873935210687</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07508329442839901</v>
+        <v>0.05770506810759846</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02536284437186343</v>
+        <v>0.05410206328560413</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0210122660893958</v>
+        <v>0.09003981534081873</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02558023456404343</v>
+        <v>0.05412237223425956</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02133569725451691</v>
+        <v>0.0251098064142866</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02635539318719626</v>
+        <v>0.05537018513152406</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0511346398289394</v>
+        <v>0.02527027687295316</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02609681415294221</v>
+        <v>0.05562476175671616</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07673463419329241</v>
+        <v>0.0577020288952656</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02613141541343506</v>
+        <v>0.05574151974880426</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02133569725451691</v>
+        <v>0.0899327006054354</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02635539318719626</v>
+        <v>0.05576244412014621</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02174991124099565</v>
+        <v>0.02508632881806048</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02713055181034909</v>
+        <v>0.05699871998833359</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05119057996503207</v>
+        <v>0.02526055767949033</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02686436751038169</v>
+        <v>0.05726078416132546</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07795699732035261</v>
+        <v>0.0571947689664552</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02689998645500668</v>
+        <v>0.05738097621200438</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02174991124099565</v>
+        <v>0.08992634010543216</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02713055181034909</v>
+        <v>0.05740251600603288</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02195442870597346</v>
+        <v>0.02604644855963518</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02790571043350193</v>
+        <v>0.05862725484514313</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05202316902781076</v>
+        <v>0.02513456675896328</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02763192086782116</v>
+        <v>0.05889680656593475</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07814885887690382</v>
+        <v>0.0574479887128696</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0276685574965783</v>
+        <v>0.05902043267520451</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02195442870597346</v>
+        <v>0.08985685124517728</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02790571043350193</v>
+        <v>0.05904258789191952</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02214877030659178</v>
+        <v>0.02499126625571744</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02868086905665476</v>
+        <v>0.06025578970195267</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05233223141676538</v>
+        <v>0.02529334813960395</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02839947422526064</v>
+        <v>0.06053282897054407</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07940869393027011</v>
+        <v>0.05736561145711427</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02843712853814991</v>
+        <v>0.06065988913840463</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02214877030659178</v>
+        <v>0.08973154875414235</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02868086905665476</v>
+        <v>0.06068265977780617</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02253245669999202</v>
+        <v>0.02692188252301402</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02945602767980759</v>
+        <v>0.06188432455876219</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0531175915313859</v>
+        <v>0.02513794584964418</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02916702758270011</v>
+        <v>0.06216885137515336</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0802349775477757</v>
+        <v>0.05715002683745801</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02920569957972153</v>
+        <v>0.06229934560160476</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02253245669999202</v>
+        <v>0.08895416549308061</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02945602767980759</v>
+        <v>0.06232273166369282</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02280500854331555</v>
+        <v>0.02583939797823167</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03023118630296042</v>
+        <v>0.06351285941557172</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05327907377116217</v>
+        <v>0.02496940391731589</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02993458094013959</v>
+        <v>0.06380487377976266</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08102618479674456</v>
+        <v>0.05720362449216962</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02997427062129315</v>
+        <v>0.06393880206480489</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02280500854331555</v>
+        <v>0.08902843432274532</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03023118630296042</v>
+        <v>0.06396280354957949</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0230659464937038</v>
+        <v>0.02674491323807713</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03100634492611325</v>
+        <v>0.06514139427238126</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05381650253558423</v>
+        <v>0.02508876637085095</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03070213429757907</v>
+        <v>0.06544089618437195</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08258079074450086</v>
+        <v>0.05672879405951786</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03074284166286477</v>
+        <v>0.06557825852800502</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0230659464937038</v>
+        <v>0.08895808810388994</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03100634492611325</v>
+        <v>0.06560287543546614</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02321479120829821</v>
+        <v>0.02563952891925717</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03178150354926608</v>
+        <v>0.06676992912919079</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05402970222414186</v>
+        <v>0.02489707723848124</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03146968765501854</v>
+        <v>0.06707691858898125</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08279727045836882</v>
+        <v>0.05652792517777167</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03151141270443639</v>
+        <v>0.06721771499120513</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02321479120829821</v>
+        <v>0.08824685969726764</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03178150354926608</v>
+        <v>0.06724294732135279</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02365106334424018</v>
+        <v>0.02452434563847853</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03255666217241891</v>
+        <v>0.06839846398600032</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05461849723632514</v>
+        <v>0.02489538054843868</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03223724101245802</v>
+        <v>0.06871294099359056</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08327409900567245</v>
+        <v>0.05670340748519972</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03227998374600801</v>
+        <v>0.06885717145440526</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02365106334424018</v>
+        <v>0.08759848196363179</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03255666217241891</v>
+        <v>0.06888301920723944</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02387428355867109</v>
+        <v>0.02640046401244796</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03333182079557175</v>
+        <v>0.07002699884280984</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05508271197162384</v>
+        <v>0.02458472032895513</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0330047943698975</v>
+        <v>0.07034896339819985</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08490975145373586</v>
+        <v>0.05625763062007086</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03304855478757963</v>
+        <v>0.07049662791760539</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02387428355867109</v>
+        <v>0.08741668776373573</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03333182079557175</v>
+        <v>0.07052309109312609</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02388397250873235</v>
+        <v>0.02526898465787222</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03410697941872458</v>
+        <v>0.07165553369961938</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05542217082952797</v>
+        <v>0.02466614060826249</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03377234772733698</v>
+        <v>0.07198498580280915</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08540270286988327</v>
+        <v>0.05579298422065393</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03381712582915125</v>
+        <v>0.07213608438080552</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02388397250873235</v>
+        <v>0.0872052099583327</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03410697941872458</v>
+        <v>0.07216316297901275</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02407965085156544</v>
+        <v>0.02513100819145805</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0348821380418774</v>
+        <v>0.07328406855642892</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05593669820952746</v>
+        <v>0.02454068541459263</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03453990108477645</v>
+        <v>0.07362100820741845</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08535142832143866</v>
+        <v>0.05561185792521772</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03458569687072287</v>
+        <v>0.07377554084400563</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02407965085156544</v>
+        <v>0.087067781408176</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0348821380418774</v>
+        <v>0.07380323486489941</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02436083924431172</v>
+        <v>0.0249876352299122</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03565729666503024</v>
+        <v>0.07491260341323845</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05612611851111213</v>
+        <v>0.02420939877617746</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03530745444221593</v>
+        <v>0.07525703061202775</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08655440287572624</v>
+        <v>0.05531664137203102</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03535426791229448</v>
+        <v>0.07541499730720576</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02436083924431172</v>
+        <v>0.08680813497401896</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03565729666503024</v>
+        <v>0.07544330675078606</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02442705834411259</v>
+        <v>0.02483996638994144</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03643245528818307</v>
+        <v>0.07654113827004798</v>
       </c>
       <c r="J112" t="n">
-        <v>0.05609025613377205</v>
+        <v>0.02407332472124887</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0360750077996554</v>
+        <v>0.07689305301663706</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08681010160007008</v>
+        <v>0.05500972419936265</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03612283895386611</v>
+        <v>0.07705445377040589</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02442705834411259</v>
+        <v>0.08613000351661498</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03643245528818307</v>
+        <v>0.07708337863667271</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02467782880810951</v>
+        <v>0.02568910228825249</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0372076139113359</v>
+        <v>0.07816967312685751</v>
       </c>
       <c r="J113" t="n">
-        <v>0.05662893547699704</v>
+        <v>0.02393350727803874</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03684256115709488</v>
+        <v>0.07852907542124635</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08701699956179437</v>
+        <v>0.05469349604548138</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03689140999543773</v>
+        <v>0.078693910233606</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02467782880810951</v>
+        <v>0.0855371198967172</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0372076139113359</v>
+        <v>0.07872345052255936</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02491267129344386</v>
+        <v>0.02553614354155213</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03798277253448873</v>
+        <v>0.07979820798366703</v>
       </c>
       <c r="J114" t="n">
-        <v>0.05664198094027709</v>
+        <v>0.02399099047477896</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03761011451453436</v>
+        <v>0.08016509782585564</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08747357182822307</v>
+        <v>0.05467034654865605</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03765998103700935</v>
+        <v>0.08033336669680613</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02491267129344386</v>
+        <v>0.08493321697507911</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03798277253448873</v>
+        <v>0.08036352240844602</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02503110645725705</v>
+        <v>0.02438219076654709</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03875793115764156</v>
+        <v>0.08142674284047657</v>
       </c>
       <c r="J115" t="n">
-        <v>0.05702921692310206</v>
+        <v>0.02374681833970138</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03837766787197384</v>
+        <v>0.08180112023046494</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08837829346668052</v>
+        <v>0.05404266534715549</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03842855207858096</v>
+        <v>0.08197282316000626</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02503110645725705</v>
+        <v>0.0847220276124539</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03875793115764156</v>
+        <v>0.08200359429433267</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02493265495669049</v>
+        <v>0.02522834457994414</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03953308978079439</v>
+        <v>0.0830552776972861</v>
       </c>
       <c r="J116" t="n">
-        <v>0.05729046782496189</v>
+        <v>0.02360203490103796</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03914522122941331</v>
+        <v>0.08343714263507424</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08852963954449061</v>
+        <v>0.05381284207924844</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03919712312015258</v>
+        <v>0.08361227962320639</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02493265495669049</v>
+        <v>0.08350728466959489</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03953308978079439</v>
+        <v>0.08364366618021932</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0251168374488856</v>
+        <v>0.02407570559845001</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04030824840394722</v>
+        <v>0.08468381255409563</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05702555804534651</v>
+        <v>0.02355768418702052</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03991277458685279</v>
+        <v>0.08507316503968354</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08922608512897756</v>
+        <v>0.05338326638320379</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0399656941617242</v>
+        <v>0.0852517360864065</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0251168374488856</v>
+        <v>0.08359272100725545</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04030824840394722</v>
+        <v>0.08528373806610597</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0250831745909838</v>
+        <v>0.02392179626656276</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04108340702710006</v>
+        <v>0.08631234741090517</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05753431198374587</v>
+        <v>0.02331481022588099</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04068032794429227</v>
+        <v>0.08670918744429285</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08886610528746552</v>
+        <v>0.05325632789729026</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04073426520329582</v>
+        <v>0.08689119254960664</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0250831745909838</v>
+        <v>0.08258206948618885</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04108340702710006</v>
+        <v>0.08692380995199263</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02513118704012651</v>
+        <v>0.02374764447905241</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04185856565025289</v>
+        <v>0.0879408822677147</v>
       </c>
       <c r="J119" t="n">
-        <v>0.05731655403964989</v>
+        <v>0.02306532790820363</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04144788130173174</v>
+        <v>0.08834520984890214</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08914817508727862</v>
+        <v>0.05282595505131829</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04150283624486745</v>
+        <v>0.08853064901280676</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02513118704012651</v>
+        <v>0.08216841846181638</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04185856565025289</v>
+        <v>0.08856388183787929</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0253703208743782</v>
+        <v>0.02355330811337072</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04263372427340572</v>
+        <v>0.08956941712452422</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05737210861254841</v>
+        <v>0.02299489680673135</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04221543465917122</v>
+        <v>0.08998123225351144</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08937076959574092</v>
+        <v>0.05225141289858407</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04227140728643906</v>
+        <v>0.09017010547600689</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0253703208743782</v>
+        <v>0.08198779537319423</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04263372427340572</v>
+        <v>0.09020395372376594</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02527032048811104</v>
+        <v>0.02434237311031077</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04340888289655855</v>
+        <v>0.09119795198133376</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05770506810759846</v>
+        <v>0.022906550776169</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04298298801661069</v>
+        <v>0.09161725465812073</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09003981534081873</v>
+        <v>0.0520336034199182</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04303997832801068</v>
+        <v>0.09180956193920702</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02527032048811104</v>
+        <v>0.08063895245684755</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04340888289655855</v>
+        <v>0.09184402560965259</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02516410601497246</v>
+        <v>0.02311842541066559</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04418404151971139</v>
+        <v>0.09282648683814329</v>
       </c>
       <c r="J122" t="n">
-        <v>0.05750439115658262</v>
+        <v>0.02270369138529425</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04375054137405017</v>
+        <v>0.09325327706273004</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08963765387403538</v>
+        <v>0.05148031234244627</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0438085493695823</v>
+        <v>0.09344901840240714</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02516410601497246</v>
+        <v>0.08063405181931893</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04418404151971139</v>
+        <v>0.09348409749553924</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02534567513213479</v>
+        <v>0.02188505095522828</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04495920014286421</v>
+        <v>0.09445502169495282</v>
       </c>
       <c r="J123" t="n">
-        <v>0.05719780263890928</v>
+        <v>0.02228972020288469</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04451809473148965</v>
+        <v>0.09488929946733933</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08972114722521074</v>
+        <v>0.05089932539329411</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04457712041115392</v>
+        <v>0.09508847486560726</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02534567513213479</v>
+        <v>0.07998525556715097</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04495920014286421</v>
+        <v>0.0951241693814259</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02521558697320864</v>
+        <v>0.02164583568479187</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04573435876601704</v>
+        <v>0.09608355655176234</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05768422957669644</v>
+        <v>0.02206803879771801</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04528564808892913</v>
+        <v>0.09652532187194864</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08978860790297022</v>
+        <v>0.05029842829958739</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04534569145272554</v>
+        <v>0.09672793132880739</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02521558697320864</v>
+        <v>0.07910472580688643</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04573435876601704</v>
+        <v>0.09676424126731255</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02527440053516246</v>
+        <v>0.02240436554014943</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04650951738916988</v>
+        <v>0.09771209140857189</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05726370805573439</v>
+        <v>0.02204204873857184</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0460532014463686</v>
+        <v>0.09816134427655793</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08914029558095204</v>
+        <v>0.04978540678845184</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04611426249429715</v>
+        <v>0.09836738779200752</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02527440053516246</v>
+        <v>0.07820462464506772</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04650951738916988</v>
+        <v>0.0984043131531992</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02502267481496467</v>
+        <v>0.02316422646209402</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04728467601232271</v>
+        <v>0.09934062626538143</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05733627416181331</v>
+        <v>0.0218151515942238</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04682075480380807</v>
+        <v>0.09979736668116723</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08927646993279453</v>
+        <v>0.04956804658701316</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04688283353586877</v>
+        <v>0.1000068442552076</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02502267481496467</v>
+        <v>0.07739711418823764</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04728467601232271</v>
+        <v>0.1000443850390859</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02496096880958378</v>
+        <v>0.02292900439141869</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04805983463547554</v>
+        <v>0.100969161122191</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05740196398072342</v>
+        <v>0.02139074893345153</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04758830816124756</v>
+        <v>0.1014333890857765</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08979739063213571</v>
+        <v>0.0489541334223971</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0476514045774404</v>
+        <v>0.1016463007184078</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02496096880958378</v>
+        <v>0.07629435654293881</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04805983463547554</v>
+        <v>0.1016844569249725</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02498984151598818</v>
+        <v>0.02070228526891652</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04883499325862837</v>
+        <v>0.1025976959790005</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0573608135982549</v>
+        <v>0.02127224232503266</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04835586151868704</v>
+        <v>0.1030694114903858</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08950331735261402</v>
+        <v>0.04845145302172937</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04841997561901201</v>
+        <v>0.1032857571816079</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02498984151598818</v>
+        <v>0.07570851381571386</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04883499325862837</v>
+        <v>0.1033245288108592</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02500985193114634</v>
+        <v>0.02248471716978457</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0496101518817812</v>
+        <v>0.10422623083581</v>
       </c>
       <c r="J129" t="n">
-        <v>0.05741285910019805</v>
+        <v>0.02096303333774488</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04912341487612651</v>
+        <v>0.1047054338949951</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08879450976786751</v>
+        <v>0.04796779111213562</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04918854666058364</v>
+        <v>0.104925213644808</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02500985193114634</v>
+        <v>0.07535174811310535</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0496101518817812</v>
+        <v>0.1049646006967458</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02472155905202666</v>
+        <v>0.02225121361193898</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05038531050493403</v>
+        <v>0.1058547656926195</v>
       </c>
       <c r="J130" t="n">
-        <v>0.05705813657234302</v>
+        <v>0.02075562243439696</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04989096823356599</v>
+        <v>0.1063414562996044</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08907122755153463</v>
+        <v>0.04740097294462511</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04995711770215525</v>
+        <v>0.1065646701080081</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02472155905202666</v>
+        <v>0.07412373785781617</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05038531050493403</v>
+        <v>0.1066046725826325</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02462552187559766</v>
+        <v>0.01999933115312997</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05116046912808686</v>
+        <v>0.1074833005494291</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05709668210048002</v>
+        <v>0.02072890573511668</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05065852159100546</v>
+        <v>0.1079774787042137</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08853373037725337</v>
+        <v>0.04719609508730779</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05072568874372687</v>
+        <v>0.1082041265712083</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02462552187559766</v>
+        <v>0.07323912385946751</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05116046912808686</v>
+        <v>0.1082447444685191</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02452229939882772</v>
+        <v>0.0197342030686533</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05193562775123969</v>
+        <v>0.1091118354062386</v>
       </c>
       <c r="J132" t="n">
-        <v>0.05682853177039932</v>
+        <v>0.02028671797887989</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05142607494844494</v>
+        <v>0.109613501108823</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08878227791866217</v>
+        <v>0.04675277534586911</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05149425978529849</v>
+        <v>0.1098435830344084</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02452229939882772</v>
+        <v>0.07289361333222116</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05193562775123969</v>
+        <v>0.1098848163544058</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02461245061868532</v>
+        <v>0.02146096263380475</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05271078637439253</v>
+        <v>0.1107403702630481</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05705372166789105</v>
+        <v>0.02003392851238826</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05219362830588442</v>
+        <v>0.1112495235134323</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08891712984939915</v>
+        <v>0.04578215899097043</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05226283082687011</v>
+        <v>0.1114830394976085</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02461245061868532</v>
+        <v>0.07180461633515584</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05271078637439253</v>
+        <v>0.1115248882402924</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02449653453213887</v>
+        <v>0.01918474312388006</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05348594499754535</v>
+        <v>0.1123689051198577</v>
       </c>
       <c r="J134" t="n">
-        <v>0.05667228787874548</v>
+        <v>0.0199754066823435</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05296118166332389</v>
+        <v>0.1128855459180416</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08833854584310252</v>
+        <v>0.04539539129327305</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05303140186844173</v>
+        <v>0.1131224959608086</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02449653453213887</v>
+        <v>0.07108954292735037</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05348594499754535</v>
+        <v>0.1131649601261791</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02427511013615684</v>
+        <v>0.01991067781417503</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05426110362069819</v>
+        <v>0.1139974399766672</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05668426648875277</v>
+        <v>0.01971602183544731</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05372873502076338</v>
+        <v>0.1145215683226509</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08824678557341054</v>
+        <v>0.04460361752343833</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05379997291001335</v>
+        <v>0.1147619524240088</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02427511013615684</v>
+        <v>0.07006580316788324</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05426110362069819</v>
+        <v>0.1148050320120658</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02404873642770766</v>
+        <v>0.02064389997998541</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05503626224385103</v>
+        <v>0.1156259748334767</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05648969358370323</v>
+        <v>0.0192606433184013</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05449628837820284</v>
+        <v>0.1161575907272602</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08844210871396152</v>
+        <v>0.04401798295212747</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05456854395158497</v>
+        <v>0.1164014088872089</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02404873642770766</v>
+        <v>0.0687508071158332</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05503626224385103</v>
+        <v>0.1164451038979524</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02391797240375981</v>
+        <v>0.01838954289660698</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05581142086700385</v>
+        <v>0.1172545096902863</v>
       </c>
       <c r="J137" t="n">
-        <v>0.05648860524938698</v>
+        <v>0.01921414047790725</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05526384173564233</v>
+        <v>0.1177936131318695</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08802477493839361</v>
+        <v>0.04384963285000187</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05533711499315659</v>
+        <v>0.118040865350409</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02391797240375981</v>
+        <v>0.06776196483027896</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05581142086700385</v>
+        <v>0.118085175783839</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0239833770612817</v>
+        <v>0.01815273983933553</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05658657949015668</v>
+        <v>0.1188830445470958</v>
       </c>
       <c r="J138" t="n">
-        <v>0.05668103757159432</v>
+        <v>0.01898138266066678</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0560313950930818</v>
+        <v>0.1194296355364788</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08709504392034501</v>
+        <v>0.04280971248772275</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05610568603472821</v>
+        <v>0.1196803218136091</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0239833770612817</v>
+        <v>0.06671668637029915</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05658657949015668</v>
+        <v>0.1197252476697257</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02374550939724177</v>
+        <v>0.01993862408346681</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05736173811330951</v>
+        <v>0.1205115794039053</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05666702663611536</v>
+        <v>0.01876723921338158</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05679894845052127</v>
+        <v>0.1210656579410881</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08775317533345395</v>
+        <v>0.04250936713595149</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05687425707629983</v>
+        <v>0.1213197782768093</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02374550939724177</v>
+        <v>0.06643238179497241</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05736173811330951</v>
+        <v>0.1213653195556123</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02360492840860848</v>
+        <v>0.0197523289042966</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05813689673646235</v>
+        <v>0.1221401142607149</v>
       </c>
       <c r="J140" t="n">
-        <v>0.05644660852874037</v>
+        <v>0.01837657948275336</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05756650180796076</v>
+        <v>0.1227016803456974</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08739942885135871</v>
+        <v>0.04215974206534934</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05764282811787145</v>
+        <v>0.1229592347400094</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02360492840860848</v>
+        <v>0.06582646116337754</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05813689673646235</v>
+        <v>0.123005391441499</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02346219309235027</v>
+        <v>0.01759898757712066</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05891205535961518</v>
+        <v>0.1237686491175244</v>
       </c>
       <c r="J141" t="n">
-        <v>0.05611981933525959</v>
+        <v>0.01831427281548378</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05833405516540022</v>
+        <v>0.1243377027503067</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0870340641476976</v>
+        <v>0.04187198254657762</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05841139915944307</v>
+        <v>0.1245986912032095</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02346219309235027</v>
+        <v>0.06481633453459318</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05891205535961518</v>
+        <v>0.1246454633273856</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02341786244543559</v>
+        <v>0.01748373337723478</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05968721398276801</v>
+        <v>0.1253971839743339</v>
       </c>
       <c r="J142" t="n">
-        <v>0.05618669514146318</v>
+        <v>0.01818518855827454</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05910160852283971</v>
+        <v>0.125973725154916</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08605734089610861</v>
+        <v>0.04125723385029759</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05917997020101468</v>
+        <v>0.1262381476664096</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02341786244543559</v>
+        <v>0.06421941196769787</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05968721398276801</v>
+        <v>0.1262855352132723</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02317249546483287</v>
+        <v>0.01841169957993471</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06046237260592083</v>
+        <v>0.1270257188311434</v>
       </c>
       <c r="J143" t="n">
-        <v>0.05594727203314137</v>
+        <v>0.01819419605782734</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05986916188027919</v>
+        <v>0.1276097475595253</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08656951877023022</v>
+        <v>0.04112664124717064</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0599485412425863</v>
+        <v>0.1278776041296098</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02317249546483287</v>
+        <v>0.06445310352177053</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06046237260592083</v>
+        <v>0.127925607099159</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02302665114751055</v>
+        <v>0.0193879804736393</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06123753122907367</v>
+        <v>0.128654253687953</v>
       </c>
       <c r="J144" t="n">
-        <v>0.05560158609608437</v>
+        <v>0.01804616466084381</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06063671523771866</v>
+        <v>0.1292457699641346</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08557085744370052</v>
+        <v>0.040791350007858</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06071711228415793</v>
+        <v>0.1295170605928099</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02302665114751055</v>
+        <v>0.06433481925588957</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06123753122907367</v>
+        <v>0.1295656789850456</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02288088849043711</v>
+        <v>0.01839211502593738</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0620126898522265</v>
+        <v>0.1302827885447625</v>
       </c>
       <c r="J145" t="n">
-        <v>0.05534967341608243</v>
+        <v>0.01794066002273262</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06140426859515814</v>
+        <v>0.1308817923687439</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08556161659015782</v>
+        <v>0.04125961106515569</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06148568332572955</v>
+        <v>0.13115651705601</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02288088849043711</v>
+        <v>0.06377897366041796</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0620126898522265</v>
+        <v>0.1312057508709323</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02273576649058096</v>
+        <v>0.01940362526418189</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06278784847537933</v>
+        <v>0.1319113234015721</v>
       </c>
       <c r="J146" t="n">
-        <v>0.05569157007892575</v>
+        <v>0.01814774550111443</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06217182195259761</v>
+        <v>0.1325178147733532</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08524205588324024</v>
+        <v>0.04077177806119939</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06225425436730116</v>
+        <v>0.1327959735192101</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02273576649058096</v>
+        <v>0.06439684303328386</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06278784847537933</v>
+        <v>0.1328458227568189</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02269184414491056</v>
+        <v>0.01942213399717401</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06356300709853216</v>
+        <v>0.1335398582583816</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0554273121704045</v>
+        <v>0.017961632489906</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06293937531003709</v>
+        <v>0.1341538371779625</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08511243499658611</v>
+        <v>0.04099968259571887</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06302282540887277</v>
+        <v>0.1344354299824103</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02269184414491056</v>
+        <v>0.06423934347984961</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06356300709853216</v>
+        <v>0.1344858946427056</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02244968045039432</v>
+        <v>0.01844726403371488</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06433816572168499</v>
+        <v>0.1351683931151911</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0548569357763089</v>
+        <v>0.01808196319128538</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06370692866747657</v>
+        <v>0.1357898595825718</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08447301360383364</v>
+        <v>0.04104250571828583</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0637913964504444</v>
+        <v>0.1360748864456104</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02244968045039432</v>
+        <v>0.06360519571531609</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06433816572168499</v>
+        <v>0.1361259665285922</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02230983440400075</v>
+        <v>0.01847863818260565</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06511332434483783</v>
+        <v>0.1367969279720006</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05488047698242926</v>
+        <v>0.0181083798074307</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06447448202491604</v>
+        <v>0.1374258819871811</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08472405137862099</v>
+        <v>0.04109942847847192</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06455996749201602</v>
+        <v>0.1377143429088105</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02230983440400075</v>
+        <v>0.06419312045488418</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06511332434483783</v>
+        <v>0.1377660384144789</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02207286500269824</v>
+        <v>0.01951587925264751</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06588848296799066</v>
+        <v>0.1384254628288102</v>
       </c>
       <c r="J150" t="n">
-        <v>0.05479797187455565</v>
+        <v>0.01804052454052006</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06524203538235553</v>
+        <v>0.1390619043917904</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08366580799458656</v>
+        <v>0.04146963192584879</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06532853853358764</v>
+        <v>0.1393537993720106</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02207286500269824</v>
+        <v>0.06410183841375466</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06588848296799066</v>
+        <v>0.1394061103003655</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02203933124345527</v>
+        <v>0.01855861005264157</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06666364159114349</v>
+        <v>0.1400539976856197</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0546094565384784</v>
+        <v>0.01807803959273159</v>
       </c>
       <c r="K151" t="n">
-        <v>0.066009588739795</v>
+        <v>0.1406979267963997</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08329854312536839</v>
+        <v>0.0413522971099882</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06609710957515927</v>
+        <v>0.1409932558352108</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02203933124345527</v>
+        <v>0.06413007030712831</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06666364159114349</v>
+        <v>0.1410461821862522</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02190979212324023</v>
+        <v>0.01760645339138899</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06743880021429631</v>
+        <v>0.1416825325424292</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05411496705998764</v>
+        <v>0.01822056716624339</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06677714209723447</v>
+        <v>0.142333949201009</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08282251644460475</v>
+        <v>0.04114660508046175</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06686568061673089</v>
+        <v>0.1426327122984109</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02190979212324023</v>
+        <v>0.06497653685020605</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06743880021429631</v>
+        <v>0.1426862540721388</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02178480663902163</v>
+        <v>0.01865903207769096</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06821395883744916</v>
+        <v>0.1433110673992388</v>
       </c>
       <c r="J153" t="n">
-        <v>0.05391453952487363</v>
+        <v>0.01816774946323355</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06754469545467395</v>
+        <v>0.1439699716056183</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08313798762593394</v>
+        <v>0.04175173688684111</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0676342516583025</v>
+        <v>0.144272168761611</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02178480663902163</v>
+        <v>0.0649399587581887</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06821395883744916</v>
+        <v>0.1443263259580255</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02156493378776787</v>
+        <v>0.01871596892034862</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06898911746060199</v>
+        <v>0.1449396022560483</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05370821001892662</v>
+        <v>0.0184192286858802</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06831224881211342</v>
+        <v>0.1456059940102276</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08244521634299418</v>
+        <v>0.04146687357869799</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06840282269987412</v>
+        <v>0.1459116252248112</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02156493378776787</v>
+        <v>0.06461905674627694</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06898911746060199</v>
+        <v>0.1459663978439122</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02155073256644742</v>
+        <v>0.01877688672816313</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06976427608375481</v>
+        <v>0.1465681371128578</v>
       </c>
       <c r="J155" t="n">
-        <v>0.05399601462793671</v>
+        <v>0.01837464703636142</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06907980216955291</v>
+        <v>0.1472420164148369</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08194446226942365</v>
+        <v>0.04149119620560407</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06917139374144574</v>
+        <v>0.1475510816880113</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02155073256644742</v>
+        <v>0.06551255152967178</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06976427608375481</v>
+        <v>0.1476064697297988</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02144276197202871</v>
+        <v>0.0198414083099356</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07053943470690764</v>
+        <v>0.1481966719696674</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05327798943769424</v>
+        <v>0.01843364671685534</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06984735552699238</v>
+        <v>0.1488780388194462</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08193598507886068</v>
+        <v>0.042123885817131</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06993996478301735</v>
+        <v>0.1491905381512114</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02144276197202871</v>
+        <v>0.06571916382357396</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07053943470690764</v>
+        <v>0.1492465416156855</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02144158100148019</v>
+        <v>0.01993917961473236</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07131459333006047</v>
+        <v>0.1498252068264769</v>
       </c>
       <c r="J157" t="n">
-        <v>0.05345417053398932</v>
+        <v>0.01860285603086044</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07061490888443185</v>
+        <v>0.1505140612240555</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08162004444494331</v>
+        <v>0.04206857689827054</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07070853582458897</v>
+        <v>0.1508299946144115</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02144158100148019</v>
+        <v>0.06504251172534081</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07131459333006047</v>
+        <v>0.1508866135015721</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02134774865177029</v>
+        <v>0.01809673277967532</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07208975195321331</v>
+        <v>0.1514537416832864</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05332459400261222</v>
+        <v>0.01872474695364419</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07138246224187134</v>
+        <v>0.1521500836286648</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08109690004130998</v>
+        <v>0.04251705959173235</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07147710686616059</v>
+        <v>0.1524694510776116</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02134774865177029</v>
+        <v>0.06542196520077248</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07208975195321331</v>
+        <v>0.1525266853874588</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02116182391986747</v>
+        <v>0.01830271583805868</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07286491057636614</v>
+        <v>0.153082276540096</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05278929592935316</v>
+        <v>0.01869760737490089</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07215001559931081</v>
+        <v>0.1537861060332741</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08026681154159881</v>
+        <v>0.04238744923453772</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07224567790773222</v>
+        <v>0.1541089075408118</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02116182391986747</v>
+        <v>0.06619331448563603</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07286491057636614</v>
+        <v>0.1541667572733454</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02108432749829234</v>
+        <v>0.0195457422979727</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07364006919951897</v>
+        <v>0.1547108113969055</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05264831240000228</v>
+        <v>0.01901063624196346</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07291756895675029</v>
+        <v>0.1554221284378834</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07973003861944805</v>
+        <v>0.04315502368986268</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07301424894930383</v>
+        <v>0.1557483640040119</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02108432749829234</v>
+        <v>0.06701794105950837</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07364006919951897</v>
+        <v>0.1558068291592321</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02111325011322893</v>
+        <v>0.02081442566750769</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07441522782267179</v>
+        <v>0.156339346253715</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0522016795003499</v>
+        <v>0.01935303250216483</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07368512231418976</v>
+        <v>0.1570581508424927</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07978684094849592</v>
+        <v>0.04379506082088364</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07378281999087545</v>
+        <v>0.157387820467212</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02111325011322893</v>
+        <v>0.06765722640196647</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07441522782267179</v>
+        <v>0.1574469010451187</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02104695260090099</v>
+        <v>0.02009737945475392</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07519038644582464</v>
+        <v>0.1579678811105245</v>
       </c>
       <c r="J162" t="n">
-        <v>0.05184943331618616</v>
+        <v>0.01951399510283786</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07445267567162923</v>
+        <v>0.158694173247102</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07873747820238064</v>
+        <v>0.04448283849077656</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07455139103244708</v>
+        <v>0.1590272769304122</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02104695260090099</v>
+        <v>0.06887255199258724</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07519038644582464</v>
+        <v>0.1590869729310054</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02088509040577431</v>
+        <v>0.02138321716780168</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07596554506897746</v>
+        <v>0.1595964159673341</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05189160993330133</v>
+        <v>0.01988272299131547</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07522022902906872</v>
+        <v>0.1603301956517113</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0783822100547405</v>
+        <v>0.04489363456271764</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0753199620740187</v>
+        <v>0.1606667333936123</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02088509040577431</v>
+        <v>0.07032529931094766</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07596554506897746</v>
+        <v>0.160727044816892</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02092731897231473</v>
+        <v>0.02066055231474128</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07674070369213029</v>
+        <v>0.1612249508241436</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05162824543748554</v>
+        <v>0.01994841511493056</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07598778238650819</v>
+        <v>0.1619662180563206</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07822129617921358</v>
+        <v>0.04520272689988308</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07608853311559031</v>
+        <v>0.1623061898568124</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02092731897231473</v>
+        <v>0.07047684983662456</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07674070369213029</v>
+        <v>0.1623671167027787</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0207732937449881</v>
+        <v>0.02091799840366299</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07751586231528312</v>
+        <v>0.1628534856809531</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05135937591452908</v>
+        <v>0.02030027042101608</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07675533574394768</v>
+        <v>0.1636022404609299</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07755499624943835</v>
+        <v>0.04608539336544906</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07685710415716192</v>
+        <v>0.1639456463200125</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0207732937449881</v>
+        <v>0.07208858504919502</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07751586231528312</v>
+        <v>0.1640071885886653</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02062267016826023</v>
+        <v>0.02014416894265712</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07829102093843596</v>
+        <v>0.1644820205377627</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05108503745022211</v>
+        <v>0.02062748785690488</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07752288910138716</v>
+        <v>0.1652382628655392</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07754964423859573</v>
+        <v>0.0466169118225917</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07762567519873355</v>
+        <v>0.1655851027832126</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02062267016826023</v>
+        <v>0.07232188642823584</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07829102093843596</v>
+        <v>0.165647260474552</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02077510368659695</v>
+        <v>0.02034514728186746</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07906617956158879</v>
+        <v>0.1661105553945722</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05080526613035488</v>
+        <v>0.02062336687944037</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07829044245882662</v>
+        <v>0.1668742852701485</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07652573070675517</v>
+        <v>0.04687544965178955</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07839424624030517</v>
+        <v>0.1672245592464128</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02077510368659695</v>
+        <v>0.07294146150514003</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07906617956158879</v>
+        <v>0.1672873323604386</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02073024974446405</v>
+        <v>0.02154098092377917</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07984133818474162</v>
+        <v>0.1677390902513817</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0503200980407176</v>
+        <v>0.02090947928056171</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0790579958162661</v>
+        <v>0.1685103076747578</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07578943473739014</v>
+        <v>0.04720184061443075</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07916281728187678</v>
+        <v>0.1688640157096129</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02073024974446405</v>
+        <v>0.07400764554556516</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07984133818474162</v>
+        <v>0.1689274042463253</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0205877637863274</v>
+        <v>0.02173217404990339</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08061649680789444</v>
+        <v>0.1693676251081913</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05012956926710049</v>
+        <v>0.02099105936180344</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07982554917370557</v>
+        <v>0.1701463300793671</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07475109808548192</v>
+        <v>0.0481177217414685</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0799313883234484</v>
+        <v>0.170503472172813</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0205877637863274</v>
+        <v>0.07435737417050731</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08061649680789444</v>
+        <v>0.1705674761322119</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02044730125665278</v>
+        <v>0.02091908787403433</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08139165543104729</v>
+        <v>0.1709961599650008</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04993281009196693</v>
+        <v>0.02136844976506497</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08059310253114506</v>
+        <v>0.1717823524839764</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07392106250601205</v>
+        <v>0.0485238772934912</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08069995936502003</v>
+        <v>0.1721429286360132</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02044730125665278</v>
+        <v>0.07519187247566783</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08139165543104729</v>
+        <v>0.1722075480180986</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02060851759990606</v>
+        <v>0.02110208360996629</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08216681405420012</v>
+        <v>0.1726246948218103</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04923720814566612</v>
+        <v>0.02154199313224574</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08136065588858454</v>
+        <v>0.1734183748885857</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07250966975396195</v>
+        <v>0.04852109153108716</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08146853040659165</v>
+        <v>0.1737823850992133</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02060851759990606</v>
+        <v>0.07561236555674777</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08216681405420012</v>
+        <v>0.1738476199039853</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02037106826055306</v>
+        <v>0.02128152247149349</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08294197267735294</v>
+        <v>0.1742532296786199</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04919126568273019</v>
+        <v>0.02161203210524519</v>
       </c>
       <c r="K172" t="n">
-        <v>0.082128209246024</v>
+        <v>0.175054397293195</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07192726158431312</v>
+        <v>0.04891014871484473</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08223710144816326</v>
+        <v>0.1754218415624134</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02037106826055306</v>
+        <v>0.07622007850944845</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08294197267735294</v>
+        <v>0.1754876917898719</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02033460868305954</v>
+        <v>0.02345776567241021</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08371713130050577</v>
+        <v>0.1758817645354294</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04810965290715893</v>
+        <v>0.02177890932596276</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08289576260346349</v>
+        <v>0.1766904196978043</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07118417975204677</v>
+        <v>0.04939183310535225</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08300567248973489</v>
+        <v>0.1770612980256135</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02033460868305954</v>
+        <v>0.07701623642947103</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08371713130050577</v>
+        <v>0.1771277636757586</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02049879431189142</v>
+        <v>0.02263117442651067</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08449228992365861</v>
+        <v>0.1775102993922389</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0474070400229524</v>
+        <v>0.02184296743629785</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08366331596090296</v>
+        <v>0.1783264421024136</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06979076601214451</v>
+        <v>0.04986692896319803</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08377424353130651</v>
+        <v>0.1787007544888136</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02049879431189142</v>
+        <v>0.07770206441251676</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08449228992365861</v>
+        <v>0.1787678355616452</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02046328059151446</v>
+        <v>0.02380210994758915</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08526744854681144</v>
+        <v>0.1791388342490484</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04679809723411052</v>
+        <v>0.02200454907814993</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08443086931834244</v>
+        <v>0.1799624645070229</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06865736211958762</v>
+        <v>0.05013622054897041</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08454281457287811</v>
+        <v>0.1803402109520138</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02046328059151446</v>
+        <v>0.0782787875542868</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08526744854681144</v>
+        <v>0.1804079074475319</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0203277229663945</v>
+        <v>0.02197093344943991</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08604260716996427</v>
+        <v>0.180767369105858</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04569749474463308</v>
+        <v>0.02216399689341841</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08519842267578193</v>
+        <v>0.1815984869116322</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06749430982935767</v>
+        <v>0.05070049212325772</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08531138561444973</v>
+        <v>0.1819796674152139</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0203277229663945</v>
+        <v>0.07894763095048246</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08604260716996427</v>
+        <v>0.1820479793334185</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02029177688099737</v>
+        <v>0.02213800614585717</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0868177657931171</v>
+        <v>0.1823959039626675</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04451990275852016</v>
+        <v>0.02252165352400275</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08596597603322138</v>
+        <v>0.1832345093162415</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06621195089643594</v>
+        <v>0.05086052794664833</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08607995665602136</v>
+        <v>0.183619123878414</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02029177688099737</v>
+        <v>0.07980981969680484</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0868177657931171</v>
+        <v>0.1836880512193052</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02035509777978889</v>
+        <v>0.02430626637503374</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08759292441626992</v>
+        <v>0.1840244388194771</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04357999147977162</v>
+        <v>0.02267813436821342</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08673352939066087</v>
+        <v>0.1848705317208508</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06432062707580405</v>
+        <v>0.05151711427707828</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08684852769759298</v>
+        <v>0.1852585803416141</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02035509777978889</v>
+        <v>0.07996657888895525</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08759292441626992</v>
+        <v>0.1853281231051918</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02021734110723489</v>
+        <v>0.02448440211963151</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08836808303942277</v>
+        <v>0.1856529736762866</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04219243111238738</v>
+        <v>0.02274207447632869</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08750108274810034</v>
+        <v>0.1865065541254601</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06303068012244323</v>
+        <v>0.05138644132566408</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0876170987391646</v>
+        <v>0.1868980368048143</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02021734110723489</v>
+        <v>0.08024180048873886</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08836808303942277</v>
+        <v>0.1869681949910785</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02027816230780119</v>
+        <v>0.02266766486778674</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08914324166257559</v>
+        <v>0.1872815085330961</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0409718918603674</v>
+        <v>0.02291314547503569</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08826863610553982</v>
+        <v>0.1881425765300694</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06235245179133497</v>
+        <v>0.05227445446615905</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08838566978073621</v>
+        <v>0.1885374932680144</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02027816230780119</v>
+        <v>0.08124685921780012</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08914324166257559</v>
+        <v>0.1886082668769651</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02013721682595362</v>
+        <v>0.02284984960359716</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08991840028572842</v>
+        <v>0.1889100433899056</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03973304392771157</v>
+        <v>0.02298546138082937</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08903618946297931</v>
+        <v>0.1897785989346787</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06049628383746075</v>
+        <v>0.05216768148487824</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08915424082230784</v>
+        <v>0.1901769497312145</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02013721682595362</v>
+        <v>0.08126072284822716</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08991840028572842</v>
+        <v>0.1902483387628518</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01999416010615798</v>
+        <v>0.02302475131116045</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09069355890888126</v>
+        <v>0.1905385782467152</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03819055751841988</v>
+        <v>0.02315313621020475</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08980374282041877</v>
+        <v>0.191414621339288</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0598725180158019</v>
+        <v>0.05275265016813657</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08992281186387946</v>
+        <v>0.1918164061944146</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01999416010615798</v>
+        <v>0.08266234639660908</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09069355890888126</v>
+        <v>0.1918884106487384</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02004864759288014</v>
+        <v>0.02518616497457437</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09146871753203409</v>
+        <v>0.1921671131035247</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03745910283649215</v>
+        <v>0.02341028397965678</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09057129617785825</v>
+        <v>0.1930506437438973</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05789149608133992</v>
+        <v>0.05301588830224907</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09069138290545108</v>
+        <v>0.1934558626576148</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02004864759288014</v>
+        <v>0.08313068487953512</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09146871753203409</v>
+        <v>0.1935284825346251</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01990033473058588</v>
+        <v>0.02532788557793663</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09224387615518692</v>
+        <v>0.1937956479603342</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03585335008592838</v>
+        <v>0.02345101870568041</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09133884953529774</v>
+        <v>0.1946866661485066</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05736355978905627</v>
+        <v>0.05334392367353072</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09145995394702271</v>
+        <v>0.1950953191208149</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01990033473058588</v>
+        <v>0.08304469331359432</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09224387615518692</v>
+        <v>0.1951685544205118</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01994887696374106</v>
+        <v>0.02344370810534494</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09301903477833975</v>
+        <v>0.1954241828171438</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03488796947072853</v>
+        <v>0.02376945440477066</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09210640289273721</v>
+        <v>0.1963226885531159</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05579905089393217</v>
+        <v>0.0536232840682965</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09222852498859431</v>
+        <v>0.196734775584015</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01994887696374106</v>
+        <v>0.08368332671537587</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09301903477833975</v>
+        <v>0.1968086263063984</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01989392973681148</v>
+        <v>0.024527467231136</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09379419340149257</v>
+        <v>0.1970527176739533</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03377763119489241</v>
+        <v>0.02385970509342246</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09287395625017669</v>
+        <v>0.1979587109577252</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05520831115094921</v>
+        <v>0.05374049727286145</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09299709603016593</v>
+        <v>0.1983742320472151</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01989392973681148</v>
+        <v>0.08402554010146895</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09379419340149257</v>
+        <v>0.1984486981922851</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01983514849426297</v>
+        <v>0.02559406386130565</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09456935202464542</v>
+        <v>0.1986812525307629</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03253700546242011</v>
+        <v>0.02382441635153743</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09364150960761615</v>
+        <v>0.1995947333623345</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05430168231508892</v>
+        <v>0.054093363054078</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09376566707173754</v>
+        <v>0.2000136885104153</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01983514849426297</v>
+        <v>0.08426597382118534</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09456935202464542</v>
+        <v>0.2000887700781717</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01967218868056138</v>
+        <v>0.02465922130826786</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09534451064779825</v>
+        <v>0.2003097873875724</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03168076247731144</v>
+        <v>0.02398613748733028</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09440906296505563</v>
+        <v>0.2012307557669437</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05376044131027102</v>
+        <v>0.05443454100908451</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09453423811330917</v>
+        <v>0.2016531449736154</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01967218868056138</v>
+        <v>0.0843864819002007</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09534451064779825</v>
+        <v>0.2017288419640584</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01980470574017248</v>
+        <v>0.02372291673672455</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09611966927095107</v>
+        <v>0.2019383222443819</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0307235724435663</v>
+        <v>0.02384648565617967</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09517661632249512</v>
+        <v>0.2028667781715531</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05212298904781032</v>
+        <v>0.05437259090508997</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09530280915488079</v>
+        <v>0.2032926014368155</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01980470574017248</v>
+        <v>0.08520210767159098</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09611966927095107</v>
+        <v>0.203368913849945</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01973235511756213</v>
+        <v>0.02478512731137749</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0968948278941039</v>
+        <v>0.2035668571011914</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03018010556518472</v>
+        <v>0.02400543919686983</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09594416967993459</v>
+        <v>0.2045028005761624</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05168769093780701</v>
+        <v>0.05440746316252507</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09607138019645241</v>
+        <v>0.2049320579000156</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01973235511756213</v>
+        <v>0.0851127736869694</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0968948278941039</v>
+        <v>0.2050089857358317</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01945479225719617</v>
+        <v>0.02584583019692855</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09766998651725674</v>
+        <v>0.205195391958001</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02944896433642136</v>
+        <v>0.02406297644818498</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09671172303737408</v>
+        <v>0.2061388229807717</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05055550911134338</v>
+        <v>0.05483910820182039</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09683995123802402</v>
+        <v>0.2065715143632158</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01945479225719617</v>
+        <v>0.08501840249794945</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09766998651725674</v>
+        <v>0.2066490576217183</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01947167260354041</v>
+        <v>0.02390500255807956</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09844514514040957</v>
+        <v>0.2068239268148105</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02884519811589834</v>
+        <v>0.02411907574890935</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09747927639481353</v>
+        <v>0.207774845385381</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04962740569950169</v>
+        <v>0.05476747644340654</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09760852227959566</v>
+        <v>0.2082109708264159</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01947167260354041</v>
+        <v>0.08521891665614434</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09844514514040957</v>
+        <v>0.208289129507605</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01928265160106066</v>
+        <v>0.02596262155953235</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0992203037635624</v>
+        <v>0.20845246167162</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02845393088485434</v>
+        <v>0.02427371543782719</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09824682975225302</v>
+        <v>0.2094108677899903</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04880434283336432</v>
+        <v>0.05479251830771414</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09837709332116727</v>
+        <v>0.209850427289616</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01928265160106066</v>
+        <v>0.08561423871316731</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0992203037635624</v>
+        <v>0.2099292013934916</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01928738469422277</v>
+        <v>0.02601866436598876</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09999546238671524</v>
+        <v>0.2100809965284295</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02797495242658085</v>
+        <v>0.02432687385372269</v>
       </c>
       <c r="K194" t="n">
-        <v>0.0990143831096925</v>
+        <v>0.2110468901945996</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04808728264401363</v>
+        <v>0.05531418421517387</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09914566436273889</v>
+        <v>0.2114898837528162</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01928738469422277</v>
+        <v>0.08600429122063175</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09999546238671524</v>
+        <v>0.2115692732793783</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01918552732749253</v>
+        <v>0.02607310814215062</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1007706210098681</v>
+        <v>0.2117095313852391</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02730805252436919</v>
+        <v>0.02437852933538011</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09978193646713197</v>
+        <v>0.2126829125992089</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04777718726253194</v>
+        <v>0.05543242458621625</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09991423540431051</v>
+        <v>0.2131293402160163</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01918552732749253</v>
+        <v>0.08598899673015092</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1007706210098681</v>
+        <v>0.213209345165265</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01897673494533578</v>
+        <v>0.02412593005271977</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1015457796330209</v>
+        <v>0.2133380662420486</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02675302096151078</v>
+        <v>0.02432866022158364</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1005494898245715</v>
+        <v>0.2143189350038182</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04707501882000148</v>
+        <v>0.05544718984127198</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1006828064458821</v>
+        <v>0.2147687966792164</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01897673494533578</v>
+        <v>0.08596827779333815</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1015457796330209</v>
+        <v>0.2148494170511516</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01905454057288093</v>
+        <v>0.02517710726239803</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1023209382561737</v>
+        <v>0.2149666010988582</v>
       </c>
       <c r="J197" t="n">
-        <v>0.026009647521297</v>
+        <v>0.02447724485111755</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1013170431820109</v>
+        <v>0.2159549574084275</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04548173944750461</v>
+        <v>0.05545843040077161</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1014513774874537</v>
+        <v>0.2164082531424165</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01905454057288093</v>
+        <v>0.08674205696180676</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1023209382561737</v>
+        <v>0.2164894889370382</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01870272106903252</v>
+        <v>0.02622661693588727</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1030960968793266</v>
+        <v>0.2165951359556677</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02567772198701934</v>
+        <v>0.02452426156276603</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1020845965394504</v>
+        <v>0.2175909798130368</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04509831127612379</v>
+        <v>0.05536609668514586</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1022199485290254</v>
+        <v>0.2180477096056166</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01870272106903252</v>
+        <v>0.08691025678716996</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1030960968793266</v>
+        <v>0.2181295608229249</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0182954178556418</v>
+        <v>0.0252744362378893</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1038712555024794</v>
+        <v>0.2182236708124772</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0251570341419691</v>
+        <v>0.02456968869531335</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1028521498968899</v>
+        <v>0.219227002217646</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04432569643694123</v>
+        <v>0.05587013911482525</v>
       </c>
       <c r="M199" t="n">
-        <v>0.102988519570597</v>
+        <v>0.2196871660688168</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0182954178556418</v>
+        <v>0.08677279982104114</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1038712555024794</v>
+        <v>0.2197696327088116</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01765682363874091</v>
+        <v>0.02632054233310595</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1046464141256322</v>
+        <v>0.2198522056692868</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02444737376943776</v>
+        <v>0.0245135045875437</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1036197032543294</v>
+        <v>0.2208630246222553</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0440648570610393</v>
+        <v>0.05557050811024045</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1037570906121686</v>
+        <v>0.2213266225320169</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01765682363874091</v>
+        <v>0.08702960861503356</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1046464141256322</v>
+        <v>0.2214097045946982</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0170111311243621</v>
+        <v>0.02636491238623907</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1054215727487851</v>
+        <v>0.2214807405260963</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02404853065271667</v>
+        <v>0.02465568757824133</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1043872566117688</v>
+        <v>0.2224990470268647</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04251675527950027</v>
+        <v>0.05566715409182205</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1045256616537402</v>
+        <v>0.222966078995217</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0170111311243621</v>
+        <v>0.08688060572076062</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1054215727487851</v>
+        <v>0.2230497764805849</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01638253301853763</v>
+        <v>0.02540752356199049</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1061967313719379</v>
+        <v>0.2231092753829058</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02366029457509727</v>
+        <v>0.02459621600619043</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1051548099692083</v>
+        <v>0.224135069431474</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04178235322340662</v>
+        <v>0.05586002748000074</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1052942326953119</v>
+        <v>0.2246055354584172</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01638253301853763</v>
+        <v>0.08732571368983549</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1061967313719379</v>
+        <v>0.2246898483664715</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01559522202729967</v>
+        <v>0.02444835302506203</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1069718899950907</v>
+        <v>0.2247378102397153</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02328245531987094</v>
+        <v>0.0246350682101753</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1059223633266478</v>
+        <v>0.2257710918360832</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04116261302384056</v>
+        <v>0.05624907869520704</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1060628037368835</v>
+        <v>0.2262449919216173</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01559522202729967</v>
+        <v>0.08736485507387154</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1069718899950907</v>
+        <v>0.2263299202523582</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01467339085668046</v>
+        <v>0.02448737794015556</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1077470486182435</v>
+        <v>0.2263663450965249</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02241480267032911</v>
+        <v>0.02457222252898009</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1066899166840873</v>
+        <v>0.2274071142406925</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04115849681188444</v>
+        <v>0.0558342581578716</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1068313747784551</v>
+        <v>0.2278844483848174</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01467339085668046</v>
+        <v>0.08719795242448208</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1077470486182435</v>
+        <v>0.2279699921382448</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01404123221271221</v>
+        <v>0.02552457547197289</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1085222072413964</v>
+        <v>0.2279948799533344</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02205712640976315</v>
+        <v>0.0246076573013891</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1074574700415268</v>
+        <v>0.2290431366453018</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04017096671862047</v>
+        <v>0.05641551628842509</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1075999458200267</v>
+        <v>0.2295239048480175</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01404123221271221</v>
+        <v>0.08762492829328034</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1085222072413964</v>
+        <v>0.2296100640241315</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0130229388014271</v>
+        <v>0.02655992278521587</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1092973658645492</v>
+        <v>0.2296234148101439</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0219092163214645</v>
+        <v>0.02474135086618649</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1082250233989662</v>
+        <v>0.2306791590499111</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03910098487513131</v>
+        <v>0.05609280350729806</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1083685168615983</v>
+        <v>0.2311633613112176</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0130229388014271</v>
+        <v>0.08774570523187974</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1092973658645492</v>
+        <v>0.2312501359100181</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01234270332885742</v>
+        <v>0.02559339704458632</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1100725244877021</v>
+        <v>0.2312519496669534</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0213708621887245</v>
+        <v>0.02487328156215653</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1089925767564057</v>
+        <v>0.2323151814545204</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03884951341249887</v>
+        <v>0.05636607023492118</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1091370879031699</v>
+        <v>0.2328028177744178</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01234270332885742</v>
+        <v>0.08806020579189355</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1100725244877021</v>
+        <v>0.2328902077959048</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01152471850103536</v>
+        <v>0.02562497541478607</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1108476831108549</v>
+        <v>0.232880484523763</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02054185379483459</v>
+        <v>0.02470342772808343</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1097601301138452</v>
+        <v>0.2339512038591297</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03831751446180592</v>
+        <v>0.05633526689172505</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1099056589447416</v>
+        <v>0.2344422742376179</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01152471850103536</v>
+        <v>0.08796835252493496</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1108476831108549</v>
+        <v>0.2345302796817914</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01089317702399314</v>
+        <v>0.026654635060517</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1116228417340077</v>
+        <v>0.2345090193805725</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02022198092308622</v>
+        <v>0.02473176770275141</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1105276834712847</v>
+        <v>0.235587226263739</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03770595015413436</v>
+        <v>0.05620034389814027</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1106742299863132</v>
+        <v>0.236081730700818</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01089317702399314</v>
+        <v>0.08827006798261744</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1116228417340077</v>
+        <v>0.2361703515676781</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01047227160376295</v>
+        <v>0.02568235314648087</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1123980003571605</v>
+        <v>0.2361375542373821</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02011103335677078</v>
+        <v>0.02475827982494475</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1112952368287241</v>
+        <v>0.2372232486683483</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03641578262056683</v>
+        <v>0.05676125167459753</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1114428010278848</v>
+        <v>0.2377211871640181</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01047227160376295</v>
+        <v>0.0883652747165542</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1123980003571605</v>
+        <v>0.2378104234535648</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.00998619494637705</v>
+        <v>0.02470810683737958</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1131731589803134</v>
+        <v>0.2377660890941916</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01940880087917954</v>
+        <v>0.0248829424334476</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1120627901861636</v>
+        <v>0.2388592710729576</v>
       </c>
       <c r="L211" t="n">
-        <v>0.03674797399218549</v>
+        <v>0.05651794064152738</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1122113720694564</v>
+        <v>0.2393606436272183</v>
       </c>
       <c r="N211" t="n">
-        <v>0.00998619494637705</v>
+        <v>0.08795389527835856</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1131731589803134</v>
+        <v>0.2394504953394514</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.009956266308476541</v>
+        <v>0.02573187329791495</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1139483176034662</v>
+        <v>0.2393946239510011</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01921507327360406</v>
+        <v>0.02490573386704426</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1128303435436031</v>
+        <v>0.2404952934775669</v>
       </c>
       <c r="L212" t="n">
-        <v>0.03590348640007285</v>
+        <v>0.05667036121936045</v>
       </c>
       <c r="M212" t="n">
-        <v>0.112979943111028</v>
+        <v>0.2410001000904184</v>
       </c>
       <c r="N212" t="n">
-        <v>0.009956266308476541</v>
+        <v>0.08843585221964378</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1139483176034662</v>
+        <v>0.241090567225338</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.009786513956365546</v>
+        <v>0.02575362969278881</v>
       </c>
       <c r="G213" t="n">
-        <v>0.114723476226619</v>
+        <v>0.2410231588078107</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01872964032333571</v>
+        <v>0.02492663246451891</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1135978969010425</v>
+        <v>0.2421313158821763</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03538328197531104</v>
+        <v>0.05651846382852735</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1137485141525997</v>
+        <v>0.2426395565536185</v>
       </c>
       <c r="N213" t="n">
-        <v>0.009786513956365546</v>
+        <v>0.08871106809202328</v>
       </c>
       <c r="O213" t="n">
-        <v>0.114723476226619</v>
+        <v>0.2427306391112247</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.009520231308317223</v>
+        <v>0.02677335318670298</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1154986348497719</v>
+        <v>0.2426516936646202</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01815229181166586</v>
+        <v>0.02494561656465578</v>
       </c>
       <c r="K214" t="n">
-        <v>0.114365450258482</v>
+        <v>0.2437673382867855</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03428832284898242</v>
+        <v>0.05696219888945875</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1145170851941713</v>
+        <v>0.2442790130168186</v>
       </c>
       <c r="N214" t="n">
-        <v>0.009520231308317223</v>
+        <v>0.08857946544711021</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1154986348497719</v>
+        <v>0.2443707109971114</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.009257411491165365</v>
+        <v>0.02579102094435929</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1162737934729247</v>
+        <v>0.2442802285214297</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0180828175218859</v>
+        <v>0.02506266450623913</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1151330036159215</v>
+        <v>0.2454033606913948</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03431957115216944</v>
+        <v>0.05660151682258519</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1152856562357429</v>
+        <v>0.2459184694800188</v>
       </c>
       <c r="N215" t="n">
-        <v>0.009257411491165365</v>
+        <v>0.08834096683651799</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1162737934729247</v>
+        <v>0.246010782882998</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.00909804763174378</v>
+        <v>0.02680661013045963</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1170489520960775</v>
+        <v>0.2459087633782392</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0178210072372873</v>
+        <v>0.02507775462805316</v>
       </c>
       <c r="K216" t="n">
-        <v>0.115900556973361</v>
+        <v>0.2470393830960042</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03417798901595437</v>
+        <v>0.0567363680483374</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1160542272773145</v>
+        <v>0.2475579259432189</v>
       </c>
       <c r="N216" t="n">
-        <v>0.00909804763174378</v>
+        <v>0.08879549481185994</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1170489520960775</v>
+        <v>0.2476508547688847</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.009042132856886258</v>
+        <v>0.02482009790970579</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1178241107192304</v>
+        <v>0.2475372982350488</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01746665074116141</v>
+        <v>0.02489086526888211</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1166681103308004</v>
+        <v>0.2486754055006134</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03296453857141951</v>
+        <v>0.0567667029871459</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1168227983188861</v>
+        <v>0.249197382406419</v>
       </c>
       <c r="N217" t="n">
-        <v>0.009042132856886258</v>
+        <v>0.08854297192474925</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1178241107192304</v>
+        <v>0.2492909266547713</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.00888966029342661</v>
+        <v>0.0258314614467996</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1185992693423832</v>
+        <v>0.2491658330918583</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01721953781679961</v>
+        <v>0.02500197476751018</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1174356636882399</v>
+        <v>0.2503114279052228</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03278018194964727</v>
+        <v>0.05669247205944133</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1175913693604577</v>
+        <v>0.2508368388696192</v>
       </c>
       <c r="N218" t="n">
-        <v>0.00888966029342661</v>
+        <v>0.08888332072679933</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1185992693423832</v>
+        <v>0.250930998540658</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.00874062306819863</v>
+        <v>0.02584067790644293</v>
       </c>
       <c r="G219" t="n">
-        <v>0.119374427965536</v>
+        <v>0.2507943679486678</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01657945824749338</v>
+        <v>0.02501106146272164</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1182032170456794</v>
+        <v>0.251947450309832</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03242263655184041</v>
+        <v>0.05711362568565437</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1183599404020294</v>
+        <v>0.2524762953328193</v>
       </c>
       <c r="N219" t="n">
-        <v>0.00874062306819863</v>
+        <v>0.08881646376962338</v>
       </c>
       <c r="O219" t="n">
-        <v>0.119374427965536</v>
+        <v>0.2525710704265446</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.008495014308036113</v>
+        <v>0.02684772445333759</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1201495865886888</v>
+        <v>0.2524229028054774</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01614620181653403</v>
+        <v>0.02501810369330069</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1189707704031189</v>
+        <v>0.2535834727144413</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03277024782290244</v>
+        <v>0.05693011428621556</v>
       </c>
       <c r="M220" t="n">
-        <v>0.119128511443601</v>
+        <v>0.2541157517960194</v>
       </c>
       <c r="N220" t="n">
-        <v>0.008495014308036113</v>
+        <v>0.08894232360483478</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1201495865886888</v>
+        <v>0.2542111423124313</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.008552827139772852</v>
+        <v>0.02685257825218542</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1209247452118417</v>
+        <v>0.2540514376622869</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01581955830721304</v>
+        <v>0.02512307979803159</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1197383237605584</v>
+        <v>0.2552194951190506</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03161909211452868</v>
+        <v>0.05664188828155556</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1198970824851726</v>
+        <v>0.2557552082592195</v>
       </c>
       <c r="N221" t="n">
-        <v>0.008552827139772852</v>
+        <v>0.08876082278404679</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1209247452118417</v>
+        <v>0.255851214198318</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.008314054690242656</v>
+        <v>0.02585521646768824</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1216999038349945</v>
+        <v>0.2556799725190964</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01589931750282181</v>
+        <v>0.02512596811569852</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1205058771179978</v>
+        <v>0.2568555175236599</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03206947683431044</v>
+        <v>0.05674889809210495</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1206656535267442</v>
+        <v>0.2573946647224197</v>
       </c>
       <c r="N222" t="n">
-        <v>0.008314054690242656</v>
+        <v>0.08887188385887279</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1216999038349945</v>
+        <v>0.2574912860842046</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.008278690086279322</v>
+        <v>0.0268520744506851</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1224750624581473</v>
+        <v>0.257308507375906</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01538526918665173</v>
+        <v>0.02512617350289545</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1212734304754373</v>
+        <v>0.2584915399282692</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03082170938983897</v>
+        <v>0.05675093153729108</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1214342245683159</v>
+        <v>0.2590341211856198</v>
       </c>
       <c r="N223" t="n">
-        <v>0.008278690086279322</v>
+        <v>0.08887531513248392</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1224750624581473</v>
+        <v>0.2591313579700912</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.008146726454716653</v>
+        <v>0.02679614526611959</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1232502210813002</v>
+        <v>0.2589370422327155</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01507720314199412</v>
+        <v>0.02508518198997405</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1220409838328768</v>
+        <v>0.2601275623328785</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0305760971887058</v>
+        <v>0.0567697798161941</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1222027956098875</v>
+        <v>0.2606735776488199</v>
       </c>
       <c r="N224" t="n">
-        <v>0.008146726454716653</v>
+        <v>0.08845209632366141</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1232502210813002</v>
+        <v>0.2607714298559779</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.008018156922388449</v>
+        <v>0.02667830329473862</v>
       </c>
       <c r="G225" t="n">
-        <v>0.124025379704453</v>
+        <v>0.260565577089525</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01457490915214052</v>
+        <v>0.0247844935325192</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1228085371903163</v>
+        <v>0.2617635847374878</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03023294763850221</v>
+        <v>0.05665098114138459</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1229713666514591</v>
+        <v>0.2623130341120201</v>
       </c>
       <c r="N225" t="n">
-        <v>0.008018156922388449</v>
+        <v>0.08841357710650655</v>
       </c>
       <c r="O225" t="n">
-        <v>0.124025379704453</v>
+        <v>0.2624115017418646</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.007892974616128506</v>
+        <v>0.02650566728963261</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1248005383276058</v>
+        <v>0.2621941119463346</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01437817700038224</v>
+        <v>0.02463086087120497</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1235760905477558</v>
+        <v>0.2633996071420971</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03039256814681951</v>
+        <v>0.05650999161552456</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1237399376930307</v>
+        <v>0.2639524905752201</v>
       </c>
       <c r="N226" t="n">
-        <v>0.007892974616128506</v>
+        <v>0.08808390150305789</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1248005383276058</v>
+        <v>0.2640515736277512</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.00757117266277061</v>
+        <v>0.025285356003892</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1255756969507587</v>
+        <v>0.2638226468031441</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01408679647001074</v>
+        <v>0.02463103674670544</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1243436439051952</v>
+        <v>0.2650356295467064</v>
       </c>
       <c r="L227" t="n">
-        <v>0.02995526612124916</v>
+        <v>0.05586226734127603</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1245085087346023</v>
+        <v>0.2655919470384203</v>
       </c>
       <c r="N227" t="n">
-        <v>0.00757117266277061</v>
+        <v>0.08698721353535394</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1255756969507587</v>
+        <v>0.2656916455136378</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.007552744189148579</v>
+        <v>0.0260244881906072</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1263508555739115</v>
+        <v>0.2654511816599536</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01380051423998876</v>
+        <v>0.02429177389969467</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1251111972626347</v>
+        <v>0.2666716519513157</v>
       </c>
       <c r="L228" t="n">
-        <v>0.02942134896938242</v>
+        <v>0.05542326442130091</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1252770797761739</v>
+        <v>0.2672314035016204</v>
       </c>
       <c r="N228" t="n">
-        <v>0.007552744189148579</v>
+        <v>0.08624765722543309</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1263508555739115</v>
+        <v>0.2673317173995245</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.007337682322096216</v>
+        <v>0.02473018260286861</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1271260141970643</v>
+        <v>0.2670797165167632</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01351732345919207</v>
+        <v>0.02411982507084673</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1258787506200742</v>
+        <v>0.268307674355925</v>
       </c>
       <c r="L229" t="n">
-        <v>0.02919112409881064</v>
+        <v>0.05440843895826125</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1260456508177455</v>
+        <v>0.2688708599648205</v>
       </c>
       <c r="N229" t="n">
-        <v>0.007337682322096216</v>
+        <v>0.08508937659533389</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1271260141970643</v>
+        <v>0.2689717892854112</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.007425980188447291</v>
+        <v>0.02440955799376666</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1279011728202172</v>
+        <v>0.2687082513735727</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01313633301782555</v>
+        <v>0.02382194300083565</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1266463039775136</v>
+        <v>0.2699436967605343</v>
       </c>
       <c r="L230" t="n">
-        <v>0.02926489891712519</v>
+        <v>0.05383324705481901</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1268142218593172</v>
+        <v>0.2705103164280206</v>
       </c>
       <c r="N230" t="n">
-        <v>0.007425980188447291</v>
+        <v>0.08383651566709482</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1279011728202172</v>
+        <v>0.2706118611712978</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.007217630915035633</v>
+        <v>0.02506973311639177</v>
       </c>
       <c r="G231" t="n">
-        <v>0.12867633144337</v>
+        <v>0.2703367862303822</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01285769838596107</v>
+        <v>0.02330488043033555</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1274138573349531</v>
+        <v>0.2715797191651436</v>
       </c>
       <c r="L231" t="n">
-        <v>0.02894298083191749</v>
+        <v>0.05341314481363627</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1275827929008888</v>
+        <v>0.2721497728912208</v>
       </c>
       <c r="N231" t="n">
-        <v>0.007217630915035633</v>
+        <v>0.08281321846275436</v>
       </c>
       <c r="O231" t="n">
-        <v>0.12867633144337</v>
+        <v>0.2722519330571845</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.007012627628695027</v>
+        <v>0.02471782672383434</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1294514900665228</v>
+        <v>0.2719653210871917</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01268157503367043</v>
+        <v>0.02307539010002047</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1281814106923926</v>
+        <v>0.2732157415697529</v>
       </c>
       <c r="L232" t="n">
-        <v>0.02812567725077886</v>
+        <v>0.05276358833737485</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1283513639424604</v>
+        <v>0.2737892293544209</v>
       </c>
       <c r="N232" t="n">
-        <v>0.007012627628695027</v>
+        <v>0.08164362900435096</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1294514900665228</v>
+        <v>0.2738920049430711</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.006910963456259266</v>
+        <v>0.02236095756918482</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1302266486896757</v>
+        <v>0.2735938559440013</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01270811843102537</v>
+        <v>0.02284022475056445</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1289489640498321</v>
+        <v>0.2748517639743622</v>
       </c>
       <c r="L233" t="n">
-        <v>0.02831329558130058</v>
+        <v>0.05180003372869685</v>
       </c>
       <c r="M233" t="n">
-        <v>0.129119934984032</v>
+        <v>0.275428685817621</v>
       </c>
       <c r="N233" t="n">
-        <v>0.006910963456259266</v>
+        <v>0.08065189131392303</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1302266486896757</v>
+        <v>0.2755320768289578</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.006812631524562164</v>
+        <v>0.02300624440553358</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1310018073128285</v>
+        <v>0.2752223908008108</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01243748404809772</v>
+        <v>0.0224061371226416</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1297165174072716</v>
+        <v>0.2764877863789715</v>
       </c>
       <c r="L234" t="n">
-        <v>0.02800614323107409</v>
+        <v>0.05073793709026428</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1298885060256036</v>
+        <v>0.2770681422808212</v>
       </c>
       <c r="N234" t="n">
-        <v>0.006812631524562164</v>
+        <v>0.07916214941350924</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1310018073128285</v>
+        <v>0.2771721487148444</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.00671762496043752</v>
+        <v>0.02166080598597109</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1317769659359813</v>
+        <v>0.2768509256576203</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01176982735495927</v>
+        <v>0.02207987995692598</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1304840707647111</v>
+        <v>0.2781238087835808</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02770452760769071</v>
+        <v>0.05009275452473907</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1306570770671753</v>
+        <v>0.2787075987440213</v>
       </c>
       <c r="N235" t="n">
-        <v>0.00671762496043752</v>
+        <v>0.07789854732514789</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1317769659359813</v>
+        <v>0.2788122206007311</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.006625936890719122</v>
+        <v>0.02133176106358772</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1325521245591341</v>
+        <v>0.2784794605144299</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01180530382168193</v>
+        <v>0.02166820599409162</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1312516241221505</v>
+        <v>0.2797598311881901</v>
       </c>
       <c r="L236" t="n">
-        <v>0.02670875611874185</v>
+        <v>0.04957994213478323</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1314256481087469</v>
+        <v>0.2803470552072214</v>
       </c>
       <c r="N236" t="n">
-        <v>0.006625936890719122</v>
+        <v>0.07678522907087759</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1325521245591341</v>
+        <v>0.2804522924866177</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.006537560442240777</v>
+        <v>0.02302622839147393</v>
       </c>
       <c r="G237" t="n">
-        <v>0.133327283182287</v>
+        <v>0.2801079953712394</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01124406891833737</v>
+        <v>0.02147786797481264</v>
       </c>
       <c r="K237" t="n">
-        <v>0.13201917747959</v>
+        <v>0.2813958535927994</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02631913617181875</v>
+        <v>0.0488149560230588</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1321942191503185</v>
+        <v>0.2819865116704215</v>
       </c>
       <c r="N237" t="n">
-        <v>0.006537560442240777</v>
+        <v>0.07574633867273672</v>
       </c>
       <c r="O237" t="n">
-        <v>0.133327283182287</v>
+        <v>0.2820923643725043</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.006452488741836279</v>
+        <v>0.02174417326295974</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1341024418054398</v>
+        <v>0.281736530228049</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01108627811499746</v>
+        <v>0.02131125231316812</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1327867308370295</v>
+        <v>0.2830318759974087</v>
       </c>
       <c r="L238" t="n">
-        <v>0.02623597517451298</v>
+        <v>0.04830536053118001</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1329627901918901</v>
+        <v>0.2836259681336217</v>
       </c>
       <c r="N238" t="n">
-        <v>0.006452488741836279</v>
+        <v>0.07569423687162025</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1341024418054398</v>
+        <v>0.283732436258391</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.006370714916339434</v>
+        <v>0.02046332893417189</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1348776004285926</v>
+        <v>0.2833650650848584</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01083208688173401</v>
+        <v>0.02084739694102986</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1335542841944689</v>
+        <v>0.284667898402018</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02615958053441558</v>
+        <v>0.04780408040294726</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1337313612334618</v>
+        <v>0.2852654245968217</v>
       </c>
       <c r="N239" t="n">
-        <v>0.006370714916339434</v>
+        <v>0.07475571419918575</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1348776004285926</v>
+        <v>0.2853725081442777</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.006492232092584024</v>
+        <v>0.02218141920565134</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1356527590517455</v>
+        <v>0.284993599941668</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01088165068861879</v>
+        <v>0.02058253740262016</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1343218375519084</v>
+        <v>0.2863039208066273</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02629025965911824</v>
+        <v>0.04710050860677104</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1344999322750334</v>
+        <v>0.2869048810600219</v>
       </c>
       <c r="N240" t="n">
-        <v>0.006492232092584024</v>
+        <v>0.07321361358559625</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1356527590517455</v>
+        <v>0.2870125800301643</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.006217033397403871</v>
+        <v>0.01989842721280802</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1364279176748983</v>
+        <v>0.2866221347984775</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01063512500572361</v>
+        <v>0.02041665770044594</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1350893909093479</v>
+        <v>0.2879399432112366</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02582831995621204</v>
+        <v>0.04659460852657099</v>
       </c>
       <c r="M241" t="n">
-        <v>0.135268503316605</v>
+        <v>0.2885443375232221</v>
       </c>
       <c r="N241" t="n">
-        <v>0.006217033397403871</v>
+        <v>0.0723678778327681</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1364279176748983</v>
+        <v>0.288652651916051</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.006345111957632758</v>
+        <v>0.01961433609105192</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1372030762980511</v>
+        <v>0.2882506696552871</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01019266530312035</v>
+        <v>0.02024974183701415</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1358569442667874</v>
+        <v>0.2895759656158459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0250740688332885</v>
+        <v>0.04578634354626668</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1360370743581766</v>
+        <v>0.2901837939864221</v>
       </c>
       <c r="N242" t="n">
-        <v>0.006345111957632758</v>
+        <v>0.07121844974261776</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1372030762980511</v>
+        <v>0.2902927238019377</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.006276460900104495</v>
+        <v>0.02132912897579296</v>
       </c>
       <c r="G243" t="n">
-        <v>0.137978234921204</v>
+        <v>0.2898792045120966</v>
       </c>
       <c r="J243" t="n">
-        <v>0.00965442705088071</v>
+        <v>0.01998177381483168</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1366244976242268</v>
+        <v>0.2912119880204552</v>
       </c>
       <c r="L243" t="n">
-        <v>0.02512781369793893</v>
+        <v>0.04497567704977776</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1368056453997482</v>
+        <v>0.2918232504496223</v>
       </c>
       <c r="N243" t="n">
-        <v>0.006276460900104495</v>
+        <v>0.07056527211706171</v>
       </c>
       <c r="O243" t="n">
-        <v>0.137978234921204</v>
+        <v>0.2919327956878243</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.006211073351652885</v>
+        <v>0.02104278900244107</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1387533935443568</v>
+        <v>0.2915077393689061</v>
       </c>
       <c r="J244" t="n">
-        <v>0.009820565719076579</v>
+        <v>0.01961273763640549</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1373920509816663</v>
+        <v>0.2928480104250645</v>
       </c>
       <c r="L244" t="n">
-        <v>0.02508986195775464</v>
+        <v>0.04456257242102388</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1375742164413198</v>
+        <v>0.2934627069128224</v>
       </c>
       <c r="N244" t="n">
-        <v>0.006211073351652885</v>
+        <v>0.0698082877580164</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1387533935443568</v>
+        <v>0.293572867573711</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.005948942439111704</v>
+        <v>0.01875529930640619</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1395285521675096</v>
+        <v>0.2931362742257157</v>
       </c>
       <c r="J245" t="n">
-        <v>0.009191236777779666</v>
+        <v>0.0194426173042425</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1381596043391058</v>
+        <v>0.2944840328296738</v>
       </c>
       <c r="L245" t="n">
-        <v>0.02476052102032694</v>
+        <v>0.04374699304392463</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1383427874828915</v>
+        <v>0.2951021633760225</v>
       </c>
       <c r="N245" t="n">
-        <v>0.005948942439111704</v>
+        <v>0.06844743946739817</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1395285521675096</v>
+        <v>0.2952129394595976</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.006090061289314774</v>
+        <v>0.01946664302309829</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1403037107906625</v>
+        <v>0.2947648090825252</v>
       </c>
       <c r="J246" t="n">
-        <v>0.009066595697061863</v>
+        <v>0.01907139682084964</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1389271576965453</v>
+        <v>0.2961200552342831</v>
       </c>
       <c r="L246" t="n">
-        <v>0.02434009829324746</v>
+        <v>0.04312890230239966</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1391113585244631</v>
+        <v>0.2967416198392227</v>
       </c>
       <c r="N246" t="n">
-        <v>0.006090061289314774</v>
+        <v>0.06748267004712366</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1403037107906625</v>
+        <v>0.2968530113454843</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.00593442302909588</v>
+        <v>0.01817680328792725</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1410788694138153</v>
+        <v>0.2963933439393348</v>
       </c>
       <c r="J247" t="n">
-        <v>0.008846797946994944</v>
+        <v>0.01879906018873383</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1396947110539848</v>
+        <v>0.2977560776388924</v>
       </c>
       <c r="L247" t="n">
-        <v>0.02422890118410725</v>
+        <v>0.04250826358036863</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1398799295660347</v>
+        <v>0.2983810763024228</v>
       </c>
       <c r="N247" t="n">
-        <v>0.00593442302909588</v>
+        <v>0.06701392229910919</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1410788694138153</v>
+        <v>0.2984930832313709</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.005882020785288829</v>
+        <v>0.01988576323630307</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1418540280369681</v>
+        <v>0.2980218787961442</v>
       </c>
       <c r="J248" t="n">
-        <v>0.008531998997650753</v>
+        <v>0.018525591410402</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1404622644114243</v>
+        <v>0.2993921000435017</v>
       </c>
       <c r="L248" t="n">
-        <v>0.02362723710049786</v>
+        <v>0.04208504026175111</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1406485006076063</v>
+        <v>0.3000205327656229</v>
       </c>
       <c r="N248" t="n">
-        <v>0.005882020785288829</v>
+        <v>0.06594113902527121</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1418540280369681</v>
+        <v>0.3001331551172576</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.005732847684727427</v>
+        <v>0.01859350600363565</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1426291866601209</v>
+        <v>0.2996504136529538</v>
       </c>
       <c r="J249" t="n">
-        <v>0.008322354319100972</v>
+        <v>0.01835097448836107</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1412298177688637</v>
+        <v>0.301028122448111</v>
       </c>
       <c r="L249" t="n">
-        <v>0.02373541345001051</v>
+        <v>0.04175919573046677</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1414170716491779</v>
+        <v>0.301659989228823</v>
       </c>
       <c r="N249" t="n">
-        <v>0.005732847684727427</v>
+        <v>0.06466426302752609</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1426291866601209</v>
+        <v>0.3017732270031442</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.005786896854245445</v>
+        <v>0.01730001472533498</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1434043452832738</v>
+        <v>0.3012789485097633</v>
       </c>
       <c r="J250" t="n">
-        <v>0.008618019381417569</v>
+        <v>0.017975193425118</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1419973711263032</v>
+        <v>0.3026641448527203</v>
       </c>
       <c r="L250" t="n">
-        <v>0.02405373764023661</v>
+        <v>0.04063069337043518</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1421856426907496</v>
+        <v>0.3032994456920232</v>
       </c>
       <c r="N250" t="n">
-        <v>0.005786896854245445</v>
+        <v>0.06328323710779049</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1434043452832738</v>
+        <v>0.3034132988890309</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.005744161420676713</v>
+        <v>0.01900527253681095</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1441795039064266</v>
+        <v>0.3029074833665729</v>
       </c>
       <c r="J251" t="n">
-        <v>0.008119149654672225</v>
+        <v>0.01769823222317966</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1427649244837427</v>
+        <v>0.3043001672573296</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02308251707876746</v>
+        <v>0.04029949656557605</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1429542137323212</v>
+        <v>0.3049389021552233</v>
       </c>
       <c r="N251" t="n">
-        <v>0.005744161420676713</v>
+        <v>0.0627980040679807</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1441795039064266</v>
+        <v>0.3050533707749176</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.005604634510855022</v>
+        <v>0.01770926257347352</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1449546625295794</v>
+        <v>0.3045360182233823</v>
       </c>
       <c r="J252" t="n">
-        <v>0.007925900608936803</v>
+        <v>0.01732007488505304</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1435324778411821</v>
+        <v>0.3059361896619389</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02292205917319451</v>
+        <v>0.03946556869980897</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1437227847738928</v>
+        <v>0.3065783586184234</v>
       </c>
       <c r="N252" t="n">
-        <v>0.005604634510855022</v>
+        <v>0.06160850671001322</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1449546625295794</v>
+        <v>0.3066934426608042</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.005568309251614161</v>
+        <v>0.01741196797073263</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1457298211527323</v>
+        <v>0.3061645530801919</v>
       </c>
       <c r="J253" t="n">
-        <v>0.007538427714283091</v>
+        <v>0.01704070541324502</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1443000311986216</v>
+        <v>0.3075722120665482</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0228726713311091</v>
+        <v>0.03892887315705357</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1444913558154644</v>
+        <v>0.3082178150816235</v>
       </c>
       <c r="N253" t="n">
-        <v>0.005568309251614161</v>
+        <v>0.06091468783580445</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1457298211527323</v>
+        <v>0.3083335145466908</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.005535178769787943</v>
+        <v>0.01711337186399823</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1465049797758851</v>
+        <v>0.3077930879370014</v>
       </c>
       <c r="J254" t="n">
-        <v>0.007556886440782895</v>
+        <v>0.01696010781026258</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1450675845560611</v>
+        <v>0.3092082344711575</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02353466096010254</v>
+        <v>0.03828937332122942</v>
       </c>
       <c r="M254" t="n">
-        <v>0.145259926857036</v>
+        <v>0.3098572715448237</v>
       </c>
       <c r="N254" t="n">
-        <v>0.005535178769787943</v>
+        <v>0.0599164902472708</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1465049797758851</v>
+        <v>0.3099735864325775</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.005605236192210143</v>
+        <v>0.01681345738868024</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1472801383990379</v>
+        <v>0.309421622793811</v>
       </c>
       <c r="J255" t="n">
-        <v>0.007681432258508064</v>
+        <v>0.01647826607861259</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1458351379135006</v>
+        <v>0.3108442568757668</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02310833546776625</v>
+        <v>0.03744703257625626</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1460284978986077</v>
+        <v>0.3114967280080238</v>
       </c>
       <c r="N255" t="n">
-        <v>0.005605236192210143</v>
+        <v>0.0592138567463289</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1472801383990379</v>
+        <v>0.3116136583184642</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.005478474645714597</v>
+        <v>0.01651220768018864</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1480552970221908</v>
+        <v>0.3110501576506205</v>
       </c>
       <c r="J256" t="n">
-        <v>0.007212220637530325</v>
+        <v>0.01619516422080201</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1466026912709401</v>
+        <v>0.3124802792803761</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02269400226169149</v>
+        <v>0.03700181430605362</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1467970689401793</v>
+        <v>0.3131361844712239</v>
       </c>
       <c r="N256" t="n">
-        <v>0.005478474645714597</v>
+        <v>0.0575067301348951</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1480552970221908</v>
+        <v>0.3132537302043508</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.005454887257135076</v>
+        <v>0.01620960587393331</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1488304556453436</v>
+        <v>0.31267869250743</v>
       </c>
       <c r="J257" t="n">
-        <v>0.006949407047921491</v>
+        <v>0.01591078623933777</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1473702446283795</v>
+        <v>0.3141163016849854</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02239196874946964</v>
+        <v>0.03655368189454117</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1475656399817509</v>
+        <v>0.314775640934424</v>
       </c>
       <c r="N257" t="n">
-        <v>0.005454887257135076</v>
+        <v>0.05679505321488565</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1488304556453436</v>
+        <v>0.3148938020902374</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005434467153305388</v>
+        <v>0.01690563510532424</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1496056142684964</v>
+        <v>0.3143072273642396</v>
       </c>
       <c r="J258" t="n">
-        <v>0.006693146959753427</v>
+        <v>0.01562511613672679</v>
       </c>
       <c r="K258" t="n">
-        <v>0.148137797985819</v>
+        <v>0.3157523240895947</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02240254233869221</v>
+        <v>0.03550259872563852</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1483342110233225</v>
+        <v>0.3164150973976241</v>
       </c>
       <c r="N258" t="n">
-        <v>0.005434467153305388</v>
+        <v>0.05617876878821737</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1496056142684964</v>
+        <v>0.3165338739761241</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005617207461059336</v>
+        <v>0.01460027850977135</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1503807728916493</v>
+        <v>0.3159357622210491</v>
       </c>
       <c r="J259" t="n">
-        <v>0.007043595843097938</v>
+        <v>0.01553813791547599</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1489053513432585</v>
+        <v>0.317388346494204</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02212603043695027</v>
+        <v>0.0351485281832653</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1491027820648942</v>
+        <v>0.3180545538608243</v>
       </c>
       <c r="N259" t="n">
-        <v>0.005617207461059336</v>
+        <v>0.05445781965680641</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1503807728916493</v>
+        <v>0.3181739458620108</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005403101307230707</v>
+        <v>0.01529351922268459</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1511559315148021</v>
+        <v>0.3175642970778587</v>
       </c>
       <c r="J260" t="n">
-        <v>0.00690090916802677</v>
+        <v>0.01524983557809233</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1496729047006979</v>
+        <v>0.3190243688988133</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02296274045183538</v>
+        <v>0.03449143365134119</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1498713531064658</v>
+        <v>0.3196940103240244</v>
       </c>
       <c r="N260" t="n">
-        <v>0.005403101307230707</v>
+        <v>0.0538321486225693</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1511559315148021</v>
+        <v>0.3198140177478974</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005392141818653315</v>
+        <v>0.0139853403794739</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1519310901379549</v>
+        <v>0.3191928319346681</v>
       </c>
       <c r="J261" t="n">
-        <v>0.006265242404611709</v>
+        <v>0.01486019312708269</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1504404580581374</v>
+        <v>0.3206603913034226</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02241297979093881</v>
+        <v>0.03383127851378576</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1506399241480374</v>
+        <v>0.3213334667872245</v>
       </c>
       <c r="N261" t="n">
-        <v>0.005392141818653315</v>
+        <v>0.05240169848742249</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1519310901379549</v>
+        <v>0.3214540896337841</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005384322122160945</v>
+        <v>0.01467572511554922</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1527062487611077</v>
+        <v>0.3208213667914777</v>
       </c>
       <c r="J262" t="n">
-        <v>0.006136751022924658</v>
+        <v>0.01456919456495402</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1512080114155769</v>
+        <v>0.3222964137080319</v>
       </c>
       <c r="L262" t="n">
-        <v>0.022477055861852</v>
+        <v>0.03296802615451863</v>
       </c>
       <c r="M262" t="n">
-        <v>0.151408495189609</v>
+        <v>0.3229729232504247</v>
       </c>
       <c r="N262" t="n">
-        <v>0.005384322122160945</v>
+        <v>0.05206641205328244</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1527062487611077</v>
+        <v>0.3230941615196707</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005379635344587401</v>
+        <v>0.01336465656632047</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1534814073842606</v>
+        <v>0.3224499016482872</v>
       </c>
       <c r="J263" t="n">
-        <v>0.00641559049303736</v>
+        <v>0.01427682389421328</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1519755647730164</v>
+        <v>0.3239324361126412</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02235527607216631</v>
+        <v>0.03230163995745949</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1521770662311806</v>
+        <v>0.3246123797136248</v>
       </c>
       <c r="N263" t="n">
-        <v>0.005379635344587401</v>
+        <v>0.05052623212206564</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1534814073842606</v>
+        <v>0.3247342334055573</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.005578074612766486</v>
+        <v>0.01305211786719762</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1542565660074134</v>
+        <v>0.3240784365050968</v>
       </c>
       <c r="J264" t="n">
-        <v>0.00610191628502163</v>
+        <v>0.01388306511736734</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1527431181304559</v>
+        <v>0.3255684585172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02214794782947299</v>
+        <v>0.0315320833065279</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1529456372727522</v>
+        <v>0.3262518361768249</v>
       </c>
       <c r="N264" t="n">
-        <v>0.005578074612766486</v>
+        <v>0.04908110149568845</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1542565660074134</v>
+        <v>0.326374305291444</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>
